--- a/data/trans_orig/P37AS1-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P37AS1-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F12FEE4A-340C-405A-B8A6-0F9E1EB10390}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EC8DE544-A58E-439C-BD8D-C82E803DC2A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6FEFCB50-D394-4791-BA2C-D1975D34EBD4}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4B4066C2-7368-4978-969C-6132D0020B5F}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1216" uniqueCount="748">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1216" uniqueCount="770">
   <si>
     <t>Población según la persona que le indicó que se vacunase de la gripe / respuesta 1 en 2007 (Tasa respuesta: 14,84%)</t>
   </si>
@@ -86,13 +86,13 @@
     <t>0,59%</t>
   </si>
   <si>
-    <t>1,99%</t>
+    <t>2,14%</t>
   </si>
   <si>
     <t>0,35%</t>
   </si>
   <si>
-    <t>1,21%</t>
+    <t>1,24%</t>
   </si>
   <si>
     <t>El médico, por otras razones</t>
@@ -101,7 +101,7 @@
     <t>0,7%</t>
   </si>
   <si>
-    <t>2,23%</t>
+    <t>2,46%</t>
   </si>
   <si>
     <t>0,77%</t>
@@ -110,2179 +110,2245 @@
     <t>0,24%</t>
   </si>
   <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>Yo solicité la vacuna porque prefiero estar vacunado</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>Me ponen la vacuna en la empresa/ centro de estudio</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>El médico, por mis enfermedades</t>
+  </si>
+  <si>
+    <t>26,32%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>31,59%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>El médico, por mi edad</t>
+  </si>
+  <si>
+    <t>58,74%</t>
+  </si>
+  <si>
+    <t>53,15%</t>
+  </si>
+  <si>
+    <t>64,3%</t>
+  </si>
+  <si>
+    <t>72,51%</t>
+  </si>
+  <si>
+    <t>67,87%</t>
+  </si>
+  <si>
+    <t>76,73%</t>
+  </si>
+  <si>
+    <t>66,85%</t>
+  </si>
+  <si>
+    <t>63,31%</t>
+  </si>
+  <si>
+    <t>70,68%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
     <t>2,07%</t>
   </si>
   <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>29,27%</t>
+  </si>
+  <si>
+    <t>21,8%</t>
+  </si>
+  <si>
+    <t>38,77%</t>
+  </si>
+  <si>
+    <t>33,4%</t>
+  </si>
+  <si>
+    <t>23,65%</t>
+  </si>
+  <si>
+    <t>43,43%</t>
+  </si>
+  <si>
+    <t>31,19%</t>
+  </si>
+  <si>
+    <t>24,57%</t>
+  </si>
+  <si>
+    <t>38,04%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>24,06%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>33,17%</t>
+  </si>
+  <si>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>34,59%</t>
+  </si>
+  <si>
+    <t>24,62%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>30,87%</t>
+  </si>
+  <si>
+    <t>28,26%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>37,25%</t>
+  </si>
+  <si>
+    <t>29,33%</t>
+  </si>
+  <si>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>39,58%</t>
+  </si>
+  <si>
+    <t>28,76%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>35,99%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>37,14%</t>
+  </si>
+  <si>
+    <t>25,43%</t>
+  </si>
+  <si>
+    <t>51,73%</t>
+  </si>
+  <si>
+    <t>38,69%</t>
+  </si>
+  <si>
+    <t>24,3%</t>
+  </si>
+  <si>
+    <t>52,61%</t>
+  </si>
+  <si>
+    <t>37,78%</t>
+  </si>
+  <si>
+    <t>28,55%</t>
+  </si>
+  <si>
+    <t>47,82%</t>
+  </si>
+  <si>
+    <t>21,21%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>33,74%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>28,77%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>27,12%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>26,16%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>33,52%</t>
+  </si>
+  <si>
+    <t>34,87%</t>
+  </si>
+  <si>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>50,15%</t>
+  </si>
+  <si>
+    <t>26,5%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>36,89%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>24,01%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>24,21%</t>
+  </si>
+  <si>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>28,42%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>20,41%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>45,66%</t>
+  </si>
+  <si>
+    <t>41,09%</t>
+  </si>
+  <si>
+    <t>50,14%</t>
+  </si>
+  <si>
+    <t>61,3%</t>
+  </si>
+  <si>
+    <t>57,11%</t>
+  </si>
+  <si>
+    <t>65,4%</t>
+  </si>
+  <si>
+    <t>54,15%</t>
+  </si>
+  <si>
+    <t>50,63%</t>
+  </si>
+  <si>
+    <t>57,33%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según la persona que le indicó que se vacunase de la gripe / respuesta 1 en 2012 (Tasa respuesta: 17,52%)</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>23,95%</t>
+  </si>
+  <si>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>22,05%</t>
+  </si>
+  <si>
+    <t>69,57%</t>
+  </si>
+  <si>
+    <t>64,24%</t>
+  </si>
+  <si>
+    <t>74,97%</t>
+  </si>
+  <si>
+    <t>71,46%</t>
+  </si>
+  <si>
+    <t>66,63%</t>
+  </si>
+  <si>
+    <t>75,4%</t>
+  </si>
+  <si>
+    <t>70,64%</t>
+  </si>
+  <si>
+    <t>67,29%</t>
+  </si>
+  <si>
+    <t>74,18%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>22,03%</t>
+  </si>
+  <si>
+    <t>35,25%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>24,31%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>28,49%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>23,1%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>29,79%</t>
+  </si>
+  <si>
+    <t>27,61%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>35,37%</t>
+  </si>
+  <si>
+    <t>25,0%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>30,27%</t>
+  </si>
+  <si>
+    <t>29,73%</t>
+  </si>
+  <si>
+    <t>23,58%</t>
+  </si>
+  <si>
+    <t>36,76%</t>
+  </si>
+  <si>
+    <t>30,46%</t>
+  </si>
+  <si>
+    <t>22,89%</t>
+  </si>
+  <si>
+    <t>38,17%</t>
+  </si>
+  <si>
+    <t>30,04%</t>
+  </si>
+  <si>
+    <t>25,15%</t>
+  </si>
+  <si>
+    <t>35,17%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>26,01%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>24,23%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>39,88%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>33,57%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>30,94%</t>
+  </si>
+  <si>
+    <t>33,55%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>47,9%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>48,75%</t>
+  </si>
+  <si>
+    <t>31,89%</t>
+  </si>
+  <si>
+    <t>22,25%</t>
+  </si>
+  <si>
+    <t>43,56%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>25,16%</t>
+  </si>
+  <si>
+    <t>29,62%</t>
+  </si>
+  <si>
+    <t>48,04%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>28,79%</t>
+  </si>
+  <si>
+    <t>28,44%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>43,86%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>25,78%</t>
+  </si>
+  <si>
+    <t>21,34%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>32,18%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>21,75%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>25,17%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>52,14%</t>
+  </si>
+  <si>
+    <t>47,58%</t>
+  </si>
+  <si>
+    <t>56,01%</t>
+  </si>
+  <si>
+    <t>57,72%</t>
+  </si>
+  <si>
+    <t>53,6%</t>
+  </si>
+  <si>
+    <t>61,8%</t>
+  </si>
+  <si>
+    <t>55,0%</t>
+  </si>
+  <si>
+    <t>52,34%</t>
+  </si>
+  <si>
+    <t>58,13%</t>
+  </si>
+  <si>
+    <t>Población según la persona que le indicó que se vacunase de la gripe / respuesta 1 en 2015 (Tasa respuesta: 15,91%)</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>71,95%</t>
+  </si>
+  <si>
+    <t>66,46%</t>
+  </si>
+  <si>
+    <t>77,02%</t>
+  </si>
+  <si>
+    <t>75,94%</t>
+  </si>
+  <si>
+    <t>71,13%</t>
+  </si>
+  <si>
+    <t>80,45%</t>
+  </si>
+  <si>
+    <t>74,26%</t>
+  </si>
+  <si>
+    <t>70,66%</t>
+  </si>
+  <si>
+    <t>77,83%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>28,32%</t>
+  </si>
+  <si>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>34,84%</t>
+  </si>
+  <si>
+    <t>22,02%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>29,46%</t>
+  </si>
+  <si>
+    <t>25,28%</t>
+  </si>
+  <si>
+    <t>21,16%</t>
+  </si>
+  <si>
+    <t>30,13%</t>
+  </si>
+  <si>
+    <t>47,86%</t>
+  </si>
+  <si>
+    <t>40,78%</t>
+  </si>
+  <si>
+    <t>55,02%</t>
+  </si>
+  <si>
+    <t>51,01%</t>
+  </si>
+  <si>
+    <t>43,32%</t>
+  </si>
+  <si>
+    <t>59,31%</t>
+  </si>
+  <si>
+    <t>49,38%</t>
+  </si>
+  <si>
+    <t>43,9%</t>
+  </si>
+  <si>
+    <t>54,25%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>23,33%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>26,36%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>33,37%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>26,58%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>30,14%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>36,15%</t>
+  </si>
+  <si>
+    <t>21,45%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>30,41%</t>
+  </si>
+  <si>
+    <t>40,56%</t>
+  </si>
+  <si>
+    <t>27,8%</t>
+  </si>
+  <si>
+    <t>54,46%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>38,83%</t>
+  </si>
+  <si>
+    <t>32,88%</t>
+  </si>
+  <si>
+    <t>24,09%</t>
+  </si>
+  <si>
+    <t>42,55%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
   </si>
   <si>
     <t>1,6%</t>
   </si>
   <si>
-    <t>Yo solicité la vacuna porque prefiero estar vacunado</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>Me ponen la vacuna en la empresa/ centro de estudio</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>El médico, por mis enfermedades</t>
-  </si>
-  <si>
-    <t>26,32%</t>
-  </si>
-  <si>
-    <t>21,27%</t>
-  </si>
-  <si>
-    <t>31,88%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>23,86%</t>
-  </si>
-  <si>
-    <t>El médico, por mi edad</t>
-  </si>
-  <si>
-    <t>58,74%</t>
-  </si>
-  <si>
-    <t>53,2%</t>
-  </si>
-  <si>
-    <t>64,8%</t>
-  </si>
-  <si>
-    <t>72,51%</t>
-  </si>
-  <si>
-    <t>67,6%</t>
-  </si>
-  <si>
-    <t>76,87%</t>
-  </si>
-  <si>
-    <t>66,85%</t>
-  </si>
-  <si>
-    <t>63,28%</t>
-  </si>
-  <si>
-    <t>70,51%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>21,96%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>25,96%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>58,72%</t>
+  </si>
+  <si>
+    <t>54,41%</t>
+  </si>
+  <si>
+    <t>63,24%</t>
+  </si>
+  <si>
+    <t>63,03%</t>
+  </si>
+  <si>
+    <t>59,05%</t>
+  </si>
+  <si>
+    <t>67,17%</t>
+  </si>
+  <si>
+    <t>61,02%</t>
+  </si>
+  <si>
+    <t>57,79%</t>
+  </si>
+  <si>
+    <t>63,81%</t>
+  </si>
+  <si>
+    <t>Población según la persona que le indicó que se vacunase de la gripe / respuesta 1 en 2023 (Tasa respuesta: 40,6%)</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>21,83%</t>
+  </si>
+  <si>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>21,28%</t>
+  </si>
+  <si>
+    <t>18,32%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>63,9%</t>
+  </si>
+  <si>
+    <t>58,88%</t>
+  </si>
+  <si>
+    <t>68,76%</t>
+  </si>
+  <si>
+    <t>67,45%</t>
+  </si>
+  <si>
+    <t>64,54%</t>
+  </si>
+  <si>
+    <t>70,46%</t>
+  </si>
+  <si>
+    <t>66,19%</t>
+  </si>
+  <si>
+    <t>63,6%</t>
+  </si>
+  <si>
+    <t>68,91%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>31,02%</t>
+  </si>
+  <si>
+    <t>27,16%</t>
+  </si>
+  <si>
+    <t>35,6%</t>
+  </si>
+  <si>
+    <t>24,37%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>30,22%</t>
+  </si>
+  <si>
+    <t>27,29%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>30,75%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>29,92%</t>
+  </si>
+  <si>
+    <t>37,3%</t>
+  </si>
+  <si>
+    <t>43,68%</t>
+  </si>
+  <si>
+    <t>31,55%</t>
+  </si>
+  <si>
+    <t>68,55%</t>
+  </si>
+  <si>
+    <t>39,16%</t>
+  </si>
+  <si>
+    <t>32,3%</t>
+  </si>
+  <si>
+    <t>55,83%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>26,47%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>32,12%</t>
+  </si>
+  <si>
+    <t>29,55%</t>
+  </si>
+  <si>
+    <t>24,41%</t>
+  </si>
+  <si>
+    <t>34,91%</t>
+  </si>
+  <si>
+    <t>27,98%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>32,08%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>21,38%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>26,83%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>22,69%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>36,36%</t>
+  </si>
+  <si>
+    <t>30,61%</t>
+  </si>
+  <si>
+    <t>42,21%</t>
+  </si>
+  <si>
+    <t>24,93%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>30,19%</t>
+  </si>
+  <si>
+    <t>30,73%</t>
+  </si>
+  <si>
+    <t>26,91%</t>
+  </si>
+  <si>
+    <t>34,58%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>25,24%</t>
+  </si>
+  <si>
+    <t>22,68%</t>
+  </si>
+  <si>
+    <t>28,02%</t>
+  </si>
+  <si>
+    <t>20,21%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>22,34%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
   </si>
   <si>
     <t>6,05%</t>
   </si>
   <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>29,27%</t>
-  </si>
-  <si>
-    <t>20,88%</t>
-  </si>
-  <si>
-    <t>38,37%</t>
-  </si>
-  <si>
-    <t>33,4%</t>
-  </si>
-  <si>
-    <t>24,11%</t>
-  </si>
-  <si>
-    <t>43,68%</t>
-  </si>
-  <si>
-    <t>31,19%</t>
-  </si>
-  <si>
-    <t>24,65%</t>
-  </si>
-  <si>
-    <t>37,75%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>22,13%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>24,06%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>32,08%</t>
-  </si>
-  <si>
-    <t>25,26%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>35,15%</t>
-  </si>
-  <si>
-    <t>24,62%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>31,01%</t>
-  </si>
-  <si>
-    <t>28,26%</t>
-  </si>
-  <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>36,73%</t>
-  </si>
-  <si>
-    <t>29,33%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>40,44%</t>
-  </si>
-  <si>
-    <t>28,76%</t>
-  </si>
-  <si>
-    <t>22,61%</t>
-  </si>
-  <si>
-    <t>35,31%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>37,14%</t>
-  </si>
-  <si>
-    <t>25,11%</t>
-  </si>
-  <si>
-    <t>50,88%</t>
-  </si>
-  <si>
-    <t>38,69%</t>
-  </si>
-  <si>
-    <t>24,41%</t>
-  </si>
-  <si>
-    <t>54,47%</t>
-  </si>
-  <si>
-    <t>37,78%</t>
-  </si>
-  <si>
-    <t>28,35%</t>
-  </si>
-  <si>
-    <t>48,07%</t>
-  </si>
-  <si>
-    <t>21,21%</t>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
   </si>
   <si>
     <t>12,47%</t>
   </si>
   <si>
-    <t>33,83%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>27,3%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>32,86%</t>
-  </si>
-  <si>
-    <t>34,87%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>49,68%</t>
-  </si>
-  <si>
-    <t>26,5%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>37,24%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>23,99%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>24,21%</t>
-  </si>
-  <si>
-    <t>20,62%</t>
-  </si>
-  <si>
-    <t>28,31%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>20,41%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>23,01%</t>
-  </si>
-  <si>
-    <t>45,66%</t>
-  </si>
-  <si>
-    <t>40,9%</t>
-  </si>
-  <si>
-    <t>49,81%</t>
-  </si>
-  <si>
-    <t>61,3%</t>
-  </si>
-  <si>
-    <t>56,91%</t>
-  </si>
-  <si>
-    <t>65,59%</t>
-  </si>
-  <si>
-    <t>54,15%</t>
-  </si>
-  <si>
-    <t>50,96%</t>
-  </si>
-  <si>
-    <t>57,15%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según la persona que le indicó que se vacunase de la gripe / respuesta 1 en 2012 (Tasa respuesta: 17,52%)</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>22,86%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>16,47%</t>
-  </si>
-  <si>
-    <t>22,26%</t>
-  </si>
-  <si>
-    <t>69,57%</t>
-  </si>
-  <si>
-    <t>64,05%</t>
-  </si>
-  <si>
-    <t>74,44%</t>
-  </si>
-  <si>
-    <t>71,46%</t>
-  </si>
-  <si>
-    <t>67,34%</t>
-  </si>
-  <si>
-    <t>75,64%</t>
-  </si>
-  <si>
-    <t>70,64%</t>
-  </si>
-  <si>
-    <t>66,82%</t>
-  </si>
-  <si>
-    <t>73,76%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>28,42%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>34,53%</t>
-  </si>
-  <si>
-    <t>17,36%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>24,56%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>28,9%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>23,1%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>29,46%</t>
-  </si>
-  <si>
-    <t>27,61%</t>
-  </si>
-  <si>
-    <t>21,07%</t>
-  </si>
-  <si>
-    <t>36,6%</t>
-  </si>
-  <si>
-    <t>25,0%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>29,77%</t>
-  </si>
-  <si>
-    <t>29,73%</t>
-  </si>
-  <si>
-    <t>23,43%</t>
-  </si>
-  <si>
-    <t>36,78%</t>
-  </si>
-  <si>
-    <t>30,46%</t>
-  </si>
-  <si>
-    <t>23,23%</t>
-  </si>
-  <si>
-    <t>38,78%</t>
-  </si>
-  <si>
-    <t>30,04%</t>
-  </si>
-  <si>
-    <t>25,41%</t>
-  </si>
-  <si>
-    <t>35,7%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>24,23%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>39,67%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>32,89%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>30,56%</t>
-  </si>
-  <si>
-    <t>33,55%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>48,22%</t>
-  </si>
-  <si>
-    <t>29,79%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>45,42%</t>
-  </si>
-  <si>
-    <t>31,89%</t>
-  </si>
-  <si>
-    <t>21,49%</t>
-  </si>
-  <si>
-    <t>43,6%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>24,87%</t>
-  </si>
-  <si>
-    <t>29,62%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>47,78%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>29,43%</t>
-  </si>
-  <si>
-    <t>28,44%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>44,91%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>27,16%</t>
-  </si>
-  <si>
-    <t>21,34%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>31,77%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>23,39%</t>
-  </si>
-  <si>
-    <t>21,75%</t>
-  </si>
-  <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>24,95%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>23,35%</t>
-  </si>
-  <si>
-    <t>52,14%</t>
-  </si>
-  <si>
-    <t>47,66%</t>
-  </si>
-  <si>
-    <t>56,27%</t>
-  </si>
-  <si>
-    <t>57,72%</t>
-  </si>
-  <si>
-    <t>53,88%</t>
-  </si>
-  <si>
-    <t>61,77%</t>
-  </si>
-  <si>
-    <t>55,0%</t>
-  </si>
-  <si>
-    <t>52,11%</t>
-  </si>
-  <si>
-    <t>57,89%</t>
-  </si>
-  <si>
-    <t>Población según la persona que le indicó que se vacunase de la gripe / respuesta 1 en 2015 (Tasa respuesta: 15,91%)</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>22,11%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>71,95%</t>
-  </si>
-  <si>
-    <t>65,99%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>75,94%</t>
-  </si>
-  <si>
-    <t>70,73%</t>
-  </si>
-  <si>
-    <t>80,46%</t>
-  </si>
-  <si>
-    <t>74,26%</t>
-  </si>
-  <si>
-    <t>70,71%</t>
-  </si>
-  <si>
-    <t>77,73%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>28,32%</t>
-  </si>
-  <si>
-    <t>22,24%</t>
-  </si>
-  <si>
-    <t>34,85%</t>
-  </si>
-  <si>
-    <t>22,02%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>28,6%</t>
-  </si>
-  <si>
-    <t>25,28%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>30,48%</t>
-  </si>
-  <si>
-    <t>47,86%</t>
-  </si>
-  <si>
-    <t>40,46%</t>
-  </si>
-  <si>
-    <t>55,15%</t>
-  </si>
-  <si>
-    <t>51,01%</t>
-  </si>
-  <si>
-    <t>42,93%</t>
-  </si>
-  <si>
-    <t>58,22%</t>
-  </si>
-  <si>
-    <t>49,38%</t>
-  </si>
-  <si>
-    <t>44,65%</t>
-  </si>
-  <si>
-    <t>54,31%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>21,37%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>27,14%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>33,25%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>26,38%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>31,26%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>33,49%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>36,7%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>30,02%</t>
-  </si>
-  <si>
-    <t>40,56%</t>
-  </si>
-  <si>
-    <t>28,01%</t>
-  </si>
-  <si>
-    <t>54,95%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>41,01%</t>
-  </si>
-  <si>
-    <t>32,88%</t>
-  </si>
-  <si>
-    <t>44,06%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>21,96%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>25,86%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>19,72%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>22,21%</t>
-  </si>
-  <si>
-    <t>58,72%</t>
-  </si>
-  <si>
-    <t>54,08%</t>
-  </si>
-  <si>
-    <t>62,61%</t>
-  </si>
-  <si>
-    <t>63,03%</t>
-  </si>
-  <si>
-    <t>58,86%</t>
-  </si>
-  <si>
-    <t>66,95%</t>
-  </si>
-  <si>
-    <t>61,02%</t>
-  </si>
-  <si>
-    <t>58,0%</t>
-  </si>
-  <si>
-    <t>63,85%</t>
-  </si>
-  <si>
-    <t>Población según la persona que le indicó que se vacunase de la gripe / respuesta 1 en 2023 (Tasa respuesta: 40,6%)</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>18,32%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>63,9%</t>
-  </si>
-  <si>
-    <t>58,94%</t>
-  </si>
-  <si>
-    <t>68,67%</t>
-  </si>
-  <si>
-    <t>67,45%</t>
-  </si>
-  <si>
-    <t>64,25%</t>
-  </si>
-  <si>
-    <t>70,79%</t>
-  </si>
-  <si>
-    <t>66,19%</t>
-  </si>
-  <si>
-    <t>63,61%</t>
-  </si>
-  <si>
-    <t>68,61%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>31,02%</t>
-  </si>
-  <si>
-    <t>27,29%</t>
-  </si>
-  <si>
-    <t>35,28%</t>
-  </si>
-  <si>
-    <t>24,37%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>30,73%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>30,81%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>17,15%</t>
-  </si>
-  <si>
-    <t>23,67%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>37,23%</t>
-  </si>
-  <si>
-    <t>31,46%</t>
-  </si>
-  <si>
-    <t>65,96%</t>
-  </si>
-  <si>
-    <t>39,16%</t>
-  </si>
-  <si>
-    <t>32,36%</t>
-  </si>
-  <si>
-    <t>56,39%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>26,47%</t>
-  </si>
-  <si>
-    <t>32,68%</t>
-  </si>
-  <si>
-    <t>29,55%</t>
-  </si>
-  <si>
-    <t>24,51%</t>
-  </si>
-  <si>
-    <t>34,95%</t>
-  </si>
-  <si>
-    <t>27,98%</t>
-  </si>
-  <si>
-    <t>24,18%</t>
-  </si>
-  <si>
-    <t>31,91%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>22,16%</t>
-  </si>
-  <si>
-    <t>21,38%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>26,51%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>36,36%</t>
-  </si>
-  <si>
-    <t>30,75%</t>
-  </si>
-  <si>
-    <t>42,38%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>20,33%</t>
-  </si>
-  <si>
-    <t>29,26%</t>
-  </si>
-  <si>
-    <t>26,97%</t>
-  </si>
-  <si>
-    <t>34,6%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>25,24%</t>
-  </si>
-  <si>
-    <t>27,86%</t>
-  </si>
-  <si>
-    <t>20,21%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>22,63%</t>
-  </si>
-  <si>
-    <t>22,34%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>24,17%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>18,51%</t>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
   </si>
   <si>
     <t>42,61%</t>
   </si>
   <si>
-    <t>39,89%</t>
-  </si>
-  <si>
-    <t>45,44%</t>
+    <t>39,68%</t>
+  </si>
+  <si>
+    <t>45,3%</t>
   </si>
   <si>
     <t>49,73%</t>
   </si>
   <si>
-    <t>44,72%</t>
-  </si>
-  <si>
-    <t>62,2%</t>
+    <t>44,68%</t>
+  </si>
+  <si>
+    <t>63,3%</t>
   </si>
   <si>
     <t>46,71%</t>
   </si>
   <si>
-    <t>43,75%</t>
+    <t>43,71%</t>
+  </si>
+  <si>
+    <t>54,99%</t>
   </si>
 </sst>
 </file>
@@ -2694,7 +2760,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA60A364-10E7-453E-A219-9992FBEA06FC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08D8B285-7368-4BB4-843A-1BEB7B6AC47B}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2971,13 +3037,13 @@
         <v>5850</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>40</v>
       </c>
       <c r="H7" s="7">
         <v>3</v>
@@ -2986,13 +3052,13 @@
         <v>2821</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="M7" s="7">
         <v>9</v>
@@ -3001,10 +3067,10 @@
         <v>8671</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>14</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>45</v>
@@ -3180,10 +3246,10 @@
         <v>68</v>
       </c>
       <c r="F11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
@@ -3192,13 +3258,13 @@
         <v>881</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M11" s="7">
         <v>5</v>
@@ -3207,13 +3273,13 @@
         <v>4444</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>23</v>
+        <v>72</v>
       </c>
       <c r="P11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3228,13 +3294,13 @@
         <v>1841</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H12" s="7">
         <v>3</v>
@@ -3243,13 +3309,13 @@
         <v>2980</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="M12" s="7">
         <v>5</v>
@@ -3258,13 +3324,13 @@
         <v>4820</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3279,13 +3345,13 @@
         <v>33565</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="H13" s="7">
         <v>30</v>
@@ -3294,13 +3360,13 @@
         <v>33382</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="M13" s="7">
         <v>61</v>
@@ -3309,13 +3375,13 @@
         <v>66947</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3330,13 +3396,13 @@
         <v>15705</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="H14" s="7">
         <v>8</v>
@@ -3345,13 +3411,13 @@
         <v>8148</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="M14" s="7">
         <v>23</v>
@@ -3360,13 +3426,13 @@
         <v>23853</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3381,13 +3447,13 @@
         <v>27585</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="H15" s="7">
         <v>25</v>
@@ -3396,13 +3462,13 @@
         <v>25247</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="M15" s="7">
         <v>53</v>
@@ -3411,13 +3477,13 @@
         <v>52832</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3432,13 +3498,13 @@
         <v>32399</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="H16" s="7">
         <v>25</v>
@@ -3447,13 +3513,13 @@
         <v>29316</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="M16" s="7">
         <v>57</v>
@@ -3462,13 +3528,13 @@
         <v>61715</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3524,7 +3590,7 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>10</v>
@@ -3542,7 +3608,7 @@
         <v>12</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H18" s="7">
         <v>1</v>
@@ -3551,13 +3617,13 @@
         <v>981</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M18" s="7">
         <v>1</v>
@@ -3566,13 +3632,13 @@
         <v>981</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P18" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3587,13 +3653,13 @@
         <v>3646</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -3602,13 +3668,13 @@
         <v>1236</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="M19" s="7">
         <v>4</v>
@@ -3617,13 +3683,13 @@
         <v>4881</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3638,13 +3704,13 @@
         <v>23284</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="H20" s="7">
         <v>16</v>
@@ -3653,13 +3719,13 @@
         <v>17335</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="M20" s="7">
         <v>39</v>
@@ -3668,13 +3734,13 @@
         <v>40619</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3689,13 +3755,13 @@
         <v>13299</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="H21" s="7">
         <v>7</v>
@@ -3704,13 +3770,13 @@
         <v>6917</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M21" s="7">
         <v>20</v>
@@ -3746,7 +3812,7 @@
         <v>150</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>82</v>
+        <v>151</v>
       </c>
       <c r="H22" s="7">
         <v>3</v>
@@ -3755,13 +3821,13 @@
         <v>2717</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M22" s="7">
         <v>11</v>
@@ -3770,13 +3836,13 @@
         <v>12321</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3791,10 +3857,10 @@
         <v>12860</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>159</v>
@@ -3895,13 +3961,13 @@
         <v>3563</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>73</v>
+        <v>166</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>42</v>
+        <v>167</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="H25" s="7">
         <v>4</v>
@@ -3910,13 +3976,13 @@
         <v>4172</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="M25" s="7">
         <v>8</v>
@@ -3925,13 +3991,13 @@
         <v>7735</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3946,13 +4012,13 @@
         <v>7384</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>172</v>
+        <v>26</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H26" s="7">
         <v>7</v>
@@ -3961,13 +4027,13 @@
         <v>7219</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>14</v>
+        <v>177</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="M26" s="7">
         <v>14</v>
@@ -3976,13 +4042,13 @@
         <v>14603</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3997,13 +4063,13 @@
         <v>89856</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H27" s="7">
         <v>79</v>
@@ -4012,13 +4078,13 @@
         <v>85822</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>184</v>
+        <v>33</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M27" s="7">
         <v>166</v>
@@ -4027,13 +4093,13 @@
         <v>175678</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>153</v>
+        <v>187</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>96</v>
+        <v>188</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -4048,13 +4114,13 @@
         <v>34855</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="H28" s="7">
         <v>18</v>
@@ -4063,13 +4129,13 @@
         <v>17885</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="M28" s="7">
         <v>52</v>
@@ -4078,13 +4144,13 @@
         <v>52740</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4099,13 +4165,13 @@
         <v>109020</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="H29" s="7">
         <v>92</v>
@@ -4114,13 +4180,13 @@
         <v>92089</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="M29" s="7">
         <v>201</v>
@@ -4129,13 +4195,13 @@
         <v>201109</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4150,13 +4216,13 @@
         <v>205560</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="H30" s="7">
         <v>310</v>
@@ -4165,13 +4231,13 @@
         <v>328155</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="M30" s="7">
         <v>525</v>
@@ -4180,13 +4246,13 @@
         <v>533716</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4242,7 +4308,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>
@@ -4261,7 +4327,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4C2303C-B0D3-4140-B630-BD314CD9E418}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1A0339A-D97A-4B41-B989-820A89BEE935}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4278,7 +4344,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4391,7 +4457,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -4406,7 +4472,7 @@
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -4415,13 +4481,13 @@
         <v>1172</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4436,13 +4502,13 @@
         <v>4805</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="H5" s="7">
         <v>6</v>
@@ -4451,13 +4517,13 @@
         <v>6543</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="M5" s="7">
         <v>11</v>
@@ -4466,13 +4532,13 @@
         <v>11348</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4487,13 +4553,13 @@
         <v>31963</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>229</v>
+        <v>51</v>
       </c>
       <c r="H6" s="7">
         <v>34</v>
@@ -4502,13 +4568,13 @@
         <v>34576</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="M6" s="7">
         <v>64</v>
@@ -4517,13 +4583,13 @@
         <v>66539</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>189</v>
+        <v>237</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4538,13 +4604,13 @@
         <v>1876</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -4559,7 +4625,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="M7" s="7">
         <v>2</v>
@@ -4574,7 +4640,7 @@
         <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4589,13 +4655,13 @@
         <v>65316</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>55</v>
+        <v>244</v>
       </c>
       <c r="H8" s="7">
         <v>81</v>
@@ -4604,13 +4670,13 @@
         <v>83837</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="M8" s="7">
         <v>139</v>
@@ -4619,13 +4685,13 @@
         <v>149153</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4640,13 +4706,13 @@
         <v>237637</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="H9" s="7">
         <v>294</v>
@@ -4655,13 +4721,13 @@
         <v>315840</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="M9" s="7">
         <v>510</v>
@@ -4670,13 +4736,13 @@
         <v>553477</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4744,13 +4810,13 @@
         <v>1928</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="H11" s="7">
         <v>4</v>
@@ -4759,13 +4825,13 @@
         <v>4217</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>176</v>
+        <v>262</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>173</v>
+        <v>263</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="M11" s="7">
         <v>6</v>
@@ -4774,13 +4840,13 @@
         <v>6145</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>260</v>
+        <v>169</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4795,13 +4861,13 @@
         <v>10301</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>263</v>
+        <v>72</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="H12" s="7">
         <v>14</v>
@@ -4810,13 +4876,13 @@
         <v>15095</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="M12" s="7">
         <v>23</v>
@@ -4825,13 +4891,13 @@
         <v>25397</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4846,13 +4912,13 @@
         <v>59656</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>271</v>
+        <v>200</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="H13" s="7">
         <v>25</v>
@@ -4861,13 +4927,13 @@
         <v>26595</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="M13" s="7">
         <v>81</v>
@@ -4876,13 +4942,13 @@
         <v>86251</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4897,13 +4963,13 @@
         <v>27106</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="H14" s="7">
         <v>17</v>
@@ -4912,13 +4978,13 @@
         <v>18352</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="M14" s="7">
         <v>41</v>
@@ -4927,13 +4993,13 @@
         <v>45459</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>287</v>
+        <v>230</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4948,13 +5014,13 @@
         <v>48485</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="H15" s="7">
         <v>38</v>
@@ -4963,13 +5029,13 @@
         <v>42309</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="M15" s="7">
         <v>83</v>
@@ -4978,13 +5044,13 @@
         <v>90794</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4999,13 +5065,13 @@
         <v>62406</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="H16" s="7">
         <v>41</v>
@@ -5014,13 +5080,13 @@
         <v>46671</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="M16" s="7">
         <v>96</v>
@@ -5029,13 +5095,13 @@
         <v>109077</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5091,7 +5157,7 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>10</v>
@@ -5109,7 +5175,7 @@
         <v>12</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -5124,7 +5190,7 @@
         <v>12</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>308</v>
+        <v>194</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -5139,7 +5205,7 @@
         <v>12</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5154,13 +5220,13 @@
         <v>1989</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H19" s="7">
         <v>4</v>
@@ -5169,13 +5235,13 @@
         <v>4715</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>139</v>
+        <v>315</v>
       </c>
       <c r="M19" s="7">
         <v>5</v>
@@ -5184,13 +5250,13 @@
         <v>6705</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5205,13 +5271,13 @@
         <v>12769</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="H20" s="7">
         <v>6</v>
@@ -5220,13 +5286,13 @@
         <v>7085</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>150</v>
+        <v>323</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="M20" s="7">
         <v>18</v>
@@ -5235,13 +5301,13 @@
         <v>19854</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5256,13 +5322,13 @@
         <v>17678</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="H21" s="7">
         <v>10</v>
@@ -5271,13 +5337,13 @@
         <v>12472</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>328</v>
+        <v>293</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="M21" s="7">
         <v>26</v>
@@ -5286,13 +5352,13 @@
         <v>30150</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5307,13 +5373,13 @@
         <v>5268</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="H22" s="7">
         <v>11</v>
@@ -5322,13 +5388,13 @@
         <v>12403</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>338</v>
+        <v>154</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="M22" s="7">
         <v>15</v>
@@ -5337,13 +5403,13 @@
         <v>17671</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5358,13 +5424,13 @@
         <v>14987</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H23" s="7">
         <v>5</v>
@@ -5373,13 +5439,13 @@
         <v>5192</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="M23" s="7">
         <v>18</v>
@@ -5388,13 +5454,13 @@
         <v>20178</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5436,7 +5502,7 @@
         <v>82</v>
       </c>
       <c r="N24" s="7">
-        <v>94558</v>
+        <v>94557</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>66</v>
@@ -5462,13 +5528,13 @@
         <v>1928</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H25" s="7">
         <v>5</v>
@@ -5477,13 +5543,13 @@
         <v>5390</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="M25" s="7">
         <v>7</v>
@@ -5495,10 +5561,10 @@
         <v>14</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>22</v>
+        <v>357</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>130</v>
+        <v>358</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5513,13 +5579,13 @@
         <v>17096</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>75</v>
+        <v>360</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>357</v>
+        <v>122</v>
       </c>
       <c r="H26" s="7">
         <v>24</v>
@@ -5528,13 +5594,13 @@
         <v>26353</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>359</v>
+        <v>178</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="M26" s="7">
         <v>39</v>
@@ -5543,13 +5609,13 @@
         <v>43449</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5564,13 +5630,13 @@
         <v>104389</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>186</v>
+        <v>368</v>
       </c>
       <c r="H27" s="7">
         <v>65</v>
@@ -5579,13 +5645,13 @@
         <v>68255</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="M27" s="7">
         <v>163</v>
@@ -5594,13 +5660,13 @@
         <v>172644</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -5615,13 +5681,13 @@
         <v>46660</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="H28" s="7">
         <v>27</v>
@@ -5630,13 +5696,13 @@
         <v>30824</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="M28" s="7">
         <v>69</v>
@@ -5645,13 +5711,13 @@
         <v>77484</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>378</v>
       </c>
-      <c r="P28" s="7" t="s">
-        <v>379</v>
-      </c>
       <c r="Q28" s="7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5666,13 +5732,13 @@
         <v>119069</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>278</v>
+        <v>383</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="H29" s="7">
         <v>130</v>
@@ -5681,13 +5747,13 @@
         <v>138549</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="M29" s="7">
         <v>237</v>
@@ -5696,13 +5762,13 @@
         <v>257617</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5717,13 +5783,13 @@
         <v>315030</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="H30" s="7">
         <v>340</v>
@@ -5732,13 +5798,13 @@
         <v>367702</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="M30" s="7">
         <v>624</v>
@@ -5747,13 +5813,13 @@
         <v>682732</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5809,7 +5875,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>
@@ -5828,7 +5894,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA7A9FE6-BD7B-4B83-BE39-DD1BEFD610A2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FE44A15-390B-4AA7-9007-55A4B267130E}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5845,7 +5911,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5952,13 +6018,13 @@
         <v>1060</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -5967,13 +6033,13 @@
         <v>969</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>219</v>
+        <v>405</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -5982,13 +6048,13 @@
         <v>2028</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6003,13 +6069,13 @@
         <v>3953</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>220</v>
+        <v>409</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="H5" s="7">
         <v>6</v>
@@ -6018,13 +6084,13 @@
         <v>6028</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>407</v>
+        <v>363</v>
       </c>
       <c r="M5" s="7">
         <v>10</v>
@@ -6033,13 +6099,13 @@
         <v>9980</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>409</v>
+        <v>241</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6054,13 +6120,13 @@
         <v>22083</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="H6" s="7">
         <v>23</v>
@@ -6069,13 +6135,13 @@
         <v>25870</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="M6" s="7">
         <v>47</v>
@@ -6084,13 +6150,13 @@
         <v>47952</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6105,13 +6171,13 @@
         <v>1049</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>421</v>
+        <v>72</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -6126,7 +6192,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="M7" s="7">
         <v>1</v>
@@ -6135,13 +6201,13 @@
         <v>1049</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6156,13 +6222,13 @@
         <v>43109</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>426</v>
+        <v>283</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H8" s="7">
         <v>45</v>
@@ -6171,13 +6237,13 @@
         <v>50796</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>430</v>
+        <v>106</v>
       </c>
       <c r="M8" s="7">
         <v>90</v>
@@ -6234,7 +6300,7 @@
         <v>420</v>
       </c>
       <c r="N9" s="7">
-        <v>446832</v>
+        <v>446831</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>440</v>
@@ -6285,7 +6351,7 @@
         <v>570</v>
       </c>
       <c r="N10" s="7">
-        <v>601747</v>
+        <v>601746</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>66</v>
@@ -6314,10 +6380,10 @@
         <v>443</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>354</v>
+        <v>444</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>444</v>
+        <v>195</v>
       </c>
       <c r="H11" s="7">
         <v>6</v>
@@ -6329,10 +6395,10 @@
         <v>445</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>224</v>
+        <v>38</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>194</v>
+        <v>446</v>
       </c>
       <c r="M11" s="7">
         <v>11</v>
@@ -6341,13 +6407,13 @@
         <v>11469</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6362,13 +6428,13 @@
         <v>12750</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>223</v>
+        <v>193</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="H12" s="7">
         <v>11</v>
@@ -6377,13 +6443,13 @@
         <v>11164</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>451</v>
+        <v>233</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>452</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="M12" s="7">
         <v>23</v>
@@ -6392,13 +6458,13 @@
         <v>23915</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>367</v>
+        <v>455</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6413,13 +6479,13 @@
         <v>24089</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="H13" s="7">
         <v>23</v>
@@ -6428,13 +6494,13 @@
         <v>26284</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>458</v>
+        <v>235</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>239</v>
+        <v>460</v>
       </c>
       <c r="M13" s="7">
         <v>45</v>
@@ -6443,13 +6509,13 @@
         <v>50372</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6464,13 +6530,13 @@
         <v>8826</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>169</v>
+        <v>465</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="H14" s="7">
         <v>9</v>
@@ -6479,13 +6545,13 @@
         <v>9503</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>466</v>
+        <v>29</v>
       </c>
       <c r="M14" s="7">
         <v>17</v>
@@ -6494,13 +6560,13 @@
         <v>18329</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>468</v>
+        <v>314</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6515,13 +6581,13 @@
         <v>60227</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H15" s="7">
         <v>40</v>
@@ -6530,13 +6596,13 @@
         <v>43595</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="M15" s="7">
         <v>95</v>
@@ -6545,13 +6611,13 @@
         <v>103821</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -6566,13 +6632,13 @@
         <v>101797</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H16" s="7">
         <v>80</v>
@@ -6581,13 +6647,13 @@
         <v>100992</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="M16" s="7">
         <v>179</v>
@@ -6596,13 +6662,13 @@
         <v>202789</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6658,7 +6724,7 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>10</v>
@@ -6670,13 +6736,13 @@
         <v>5455</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="H18" s="7">
         <v>2</v>
@@ -6685,13 +6751,13 @@
         <v>2335</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="M18" s="7">
         <v>6</v>
@@ -6700,13 +6766,13 @@
         <v>7790</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>50</v>
+        <v>496</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6721,13 +6787,13 @@
         <v>3685</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>404</v>
+        <v>498</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="H19" s="7">
         <v>5</v>
@@ -6736,13 +6802,13 @@
         <v>5490</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>190</v>
+        <v>501</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="M19" s="7">
         <v>8</v>
@@ -6751,13 +6817,13 @@
         <v>9176</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>500</v>
+        <v>193</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6772,13 +6838,13 @@
         <v>8576</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="H20" s="7">
         <v>11</v>
@@ -6787,13 +6853,13 @@
         <v>11631</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="M20" s="7">
         <v>20</v>
@@ -6802,13 +6868,13 @@
         <v>20207</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6823,13 +6889,13 @@
         <v>4821</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>512</v>
+        <v>447</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="H21" s="7">
         <v>9</v>
@@ -6838,13 +6904,13 @@
         <v>9593</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="M21" s="7">
         <v>13</v>
@@ -6853,13 +6919,13 @@
         <v>14414</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6874,13 +6940,13 @@
         <v>11834</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>522</v>
+        <v>159</v>
       </c>
       <c r="H22" s="7">
         <v>12</v>
@@ -6889,13 +6955,13 @@
         <v>12401</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="M22" s="7">
         <v>22</v>
@@ -6904,13 +6970,13 @@
         <v>24234</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6925,13 +6991,13 @@
         <v>23452</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="H23" s="7">
         <v>11</v>
@@ -6940,10 +7006,10 @@
         <v>13685</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>533</v>
+        <v>147</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>534</v>
@@ -6958,10 +7024,10 @@
         <v>535</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>195</v>
+        <v>536</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7029,13 +7095,13 @@
         <v>11525</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="H25" s="7">
         <v>9</v>
@@ -7044,13 +7110,13 @@
         <v>9763</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="M25" s="7">
         <v>19</v>
@@ -7059,13 +7125,13 @@
         <v>21287</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>169</v>
+        <v>543</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>17</v>
+        <v>544</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7080,13 +7146,13 @@
         <v>20388</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>95</v>
+        <v>546</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>362</v>
+        <v>547</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>543</v>
+        <v>548</v>
       </c>
       <c r="H26" s="7">
         <v>22</v>
@@ -7095,13 +7161,13 @@
         <v>22682</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>544</v>
+        <v>549</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>545</v>
+        <v>550</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>546</v>
+        <v>551</v>
       </c>
       <c r="M26" s="7">
         <v>41</v>
@@ -7110,13 +7176,13 @@
         <v>43071</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>547</v>
+        <v>552</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>356</v>
+        <v>447</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>548</v>
+        <v>553</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7131,13 +7197,13 @@
         <v>54747</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>549</v>
+        <v>554</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>550</v>
+        <v>555</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>551</v>
+        <v>556</v>
       </c>
       <c r="H27" s="7">
         <v>57</v>
@@ -7146,13 +7212,13 @@
         <v>63785</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>552</v>
+        <v>557</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>29</v>
+        <v>558</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
       <c r="M27" s="7">
         <v>112</v>
@@ -7161,13 +7227,13 @@
         <v>118532</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>232</v>
+        <v>560</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>554</v>
+        <v>561</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>555</v>
+        <v>562</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -7182,13 +7248,13 @@
         <v>14697</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>556</v>
+        <v>563</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>171</v>
+        <v>564</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>464</v>
+        <v>565</v>
       </c>
       <c r="H28" s="7">
         <v>18</v>
@@ -7197,13 +7263,13 @@
         <v>19095</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>557</v>
+        <v>566</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>558</v>
+        <v>567</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>559</v>
+        <v>568</v>
       </c>
       <c r="M28" s="7">
         <v>31</v>
@@ -7212,13 +7278,13 @@
         <v>33792</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>560</v>
+        <v>569</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>561</v>
+        <v>570</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>562</v>
+        <v>571</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7233,13 +7299,13 @@
         <v>115169</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>563</v>
+        <v>572</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>564</v>
+        <v>573</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>565</v>
+        <v>574</v>
       </c>
       <c r="H29" s="7">
         <v>97</v>
@@ -7248,13 +7314,13 @@
         <v>106792</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>566</v>
+        <v>575</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>567</v>
+        <v>576</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>505</v>
+        <v>577</v>
       </c>
       <c r="M29" s="7">
         <v>207</v>
@@ -7263,13 +7329,13 @@
         <v>221961</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>568</v>
+        <v>578</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>569</v>
+        <v>579</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>570</v>
+        <v>580</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7284,13 +7350,13 @@
         <v>308002</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>571</v>
+        <v>581</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>572</v>
+        <v>582</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>573</v>
+        <v>583</v>
       </c>
       <c r="H30" s="7">
         <v>312</v>
@@ -7299,13 +7365,13 @@
         <v>378756</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>574</v>
+        <v>584</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>575</v>
+        <v>585</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>576</v>
+        <v>586</v>
       </c>
       <c r="M30" s="7">
         <v>631</v>
@@ -7314,13 +7380,13 @@
         <v>686758</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>577</v>
+        <v>587</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>578</v>
+        <v>588</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>579</v>
+        <v>589</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7376,7 +7442,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>
@@ -7395,7 +7461,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{757C1D2C-57E8-4C7A-B00F-197FDC5E2DBC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4453D1D-AB2D-45CB-B7C1-4586F079EEDB}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7412,7 +7478,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>580</v>
+        <v>590</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7519,13 +7585,13 @@
         <v>3266</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>581</v>
+        <v>591</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>582</v>
+        <v>592</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>583</v>
+        <v>593</v>
       </c>
       <c r="H4" s="7">
         <v>8</v>
@@ -7534,13 +7600,13 @@
         <v>5196</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>238</v>
+        <v>594</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>585</v>
+        <v>465</v>
       </c>
       <c r="M4" s="7">
         <v>11</v>
@@ -7549,13 +7615,13 @@
         <v>8462</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>403</v>
+        <v>38</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>586</v>
+        <v>596</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>236</v>
+        <v>597</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7570,13 +7636,13 @@
         <v>6861</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>587</v>
+        <v>598</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>588</v>
+        <v>599</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>444</v>
+        <v>600</v>
       </c>
       <c r="H5" s="7">
         <v>12</v>
@@ -7585,13 +7651,13 @@
         <v>6836</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>589</v>
+        <v>601</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>13</v>
+        <v>602</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>590</v>
+        <v>603</v>
       </c>
       <c r="M5" s="7">
         <v>19</v>
@@ -7600,13 +7666,13 @@
         <v>13697</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>591</v>
+        <v>604</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>592</v>
+        <v>605</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>593</v>
+        <v>606</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7621,13 +7687,13 @@
         <v>41583</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>594</v>
+        <v>607</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>595</v>
+        <v>130</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>596</v>
+        <v>608</v>
       </c>
       <c r="H6" s="7">
         <v>101</v>
@@ -7636,13 +7702,13 @@
         <v>60264</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>597</v>
+        <v>609</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>598</v>
+        <v>610</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>599</v>
+        <v>611</v>
       </c>
       <c r="M6" s="7">
         <v>150</v>
@@ -7651,13 +7717,13 @@
         <v>101846</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>600</v>
+        <v>612</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>601</v>
+        <v>613</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>602</v>
+        <v>614</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7672,13 +7738,13 @@
         <v>2285</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>603</v>
+        <v>615</v>
       </c>
       <c r="H7" s="7">
         <v>5</v>
@@ -7687,13 +7753,13 @@
         <v>3846</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>604</v>
+        <v>616</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>408</v>
+        <v>265</v>
       </c>
       <c r="M7" s="7">
         <v>7</v>
@@ -7702,13 +7768,13 @@
         <v>6131</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>605</v>
+        <v>617</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>582</v>
+        <v>618</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>606</v>
+        <v>173</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7723,13 +7789,13 @@
         <v>54024</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>607</v>
+        <v>619</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>608</v>
+        <v>620</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>570</v>
+        <v>621</v>
       </c>
       <c r="H8" s="7">
         <v>178</v>
@@ -7738,13 +7804,13 @@
         <v>99870</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>609</v>
+        <v>622</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>610</v>
+        <v>249</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>611</v>
+        <v>623</v>
       </c>
       <c r="M8" s="7">
         <v>249</v>
@@ -7753,13 +7819,13 @@
         <v>153894</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>612</v>
+        <v>624</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>613</v>
+        <v>625</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>186</v>
+        <v>626</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7774,13 +7840,13 @@
         <v>191180</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>614</v>
+        <v>627</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>615</v>
+        <v>628</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>616</v>
+        <v>629</v>
       </c>
       <c r="H9" s="7">
         <v>676</v>
@@ -7789,13 +7855,13 @@
         <v>364782</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>617</v>
+        <v>630</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>618</v>
+        <v>631</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>619</v>
+        <v>632</v>
       </c>
       <c r="M9" s="7">
         <v>966</v>
@@ -7804,13 +7870,13 @@
         <v>555962</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>620</v>
+        <v>633</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>621</v>
+        <v>634</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>622</v>
+        <v>635</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -7878,13 +7944,13 @@
         <v>16498</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>623</v>
+        <v>636</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>624</v>
+        <v>597</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>625</v>
+        <v>637</v>
       </c>
       <c r="H11" s="7">
         <v>28</v>
@@ -7893,13 +7959,13 @@
         <v>22965</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>626</v>
+        <v>265</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>627</v>
+        <v>638</v>
       </c>
       <c r="M11" s="7">
         <v>42</v>
@@ -7908,13 +7974,13 @@
         <v>39463</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>257</v>
+        <v>639</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>628</v>
+        <v>356</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>629</v>
+        <v>640</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7929,13 +7995,13 @@
         <v>10542</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>630</v>
+        <v>42</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>122</v>
+        <v>641</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>631</v>
+        <v>642</v>
       </c>
       <c r="H12" s="7">
         <v>41</v>
@@ -7944,13 +8010,13 @@
         <v>30032</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>632</v>
+        <v>643</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>633</v>
+        <v>644</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>634</v>
+        <v>645</v>
       </c>
       <c r="M12" s="7">
         <v>51</v>
@@ -7959,13 +8025,13 @@
         <v>40574</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>174</v>
+        <v>646</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>635</v>
+        <v>647</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>636</v>
+        <v>648</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7980,13 +8046,13 @@
         <v>167214</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>637</v>
+        <v>649</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>638</v>
+        <v>650</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>639</v>
+        <v>651</v>
       </c>
       <c r="H13" s="7">
         <v>243</v>
@@ -7995,13 +8061,13 @@
         <v>167685</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>640</v>
+        <v>652</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>641</v>
+        <v>653</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>642</v>
+        <v>654</v>
       </c>
       <c r="M13" s="7">
         <v>413</v>
@@ -8010,13 +8076,13 @@
         <v>334899</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>638</v>
+        <v>655</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>643</v>
+        <v>656</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>644</v>
+        <v>657</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -8031,13 +8097,13 @@
         <v>54575</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>645</v>
+        <v>658</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>372</v>
+        <v>69</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>646</v>
+        <v>659</v>
       </c>
       <c r="H14" s="7">
         <v>88</v>
@@ -8046,13 +8112,13 @@
         <v>67658</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>647</v>
+        <v>660</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>648</v>
+        <v>661</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>649</v>
+        <v>662</v>
       </c>
       <c r="M14" s="7">
         <v>138</v>
@@ -8061,13 +8127,13 @@
         <v>122234</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>650</v>
+        <v>663</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>651</v>
+        <v>373</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -8082,13 +8148,13 @@
         <v>110220</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>652</v>
+        <v>189</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>653</v>
+        <v>664</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>654</v>
+        <v>665</v>
       </c>
       <c r="H15" s="7">
         <v>161</v>
@@ -8097,13 +8163,13 @@
         <v>99239</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>655</v>
+        <v>666</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>656</v>
+        <v>667</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>564</v>
+        <v>288</v>
       </c>
       <c r="M15" s="7">
         <v>286</v>
@@ -8112,13 +8178,13 @@
         <v>209459</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>657</v>
+        <v>668</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>658</v>
+        <v>669</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>659</v>
+        <v>670</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -8133,13 +8199,13 @@
         <v>180079</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>337</v>
+        <v>671</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>660</v>
+        <v>672</v>
       </c>
       <c r="H16" s="7">
         <v>347</v>
@@ -8148,13 +8214,13 @@
         <v>300592</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>87</v>
+        <v>673</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>661</v>
+        <v>674</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>662</v>
+        <v>675</v>
       </c>
       <c r="M16" s="7">
         <v>606</v>
@@ -8163,13 +8229,13 @@
         <v>480671</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>663</v>
+        <v>676</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>664</v>
+        <v>677</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>665</v>
+        <v>678</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -8225,7 +8291,7 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>10</v>
@@ -8237,13 +8303,13 @@
         <v>11447</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>666</v>
+        <v>679</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>667</v>
+        <v>680</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>374</v>
+        <v>681</v>
       </c>
       <c r="H18" s="7">
         <v>13</v>
@@ -8252,13 +8318,13 @@
         <v>8707</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>193</v>
+        <v>682</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>43</v>
+        <v>683</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>518</v>
+        <v>316</v>
       </c>
       <c r="M18" s="7">
         <v>24</v>
@@ -8267,13 +8333,13 @@
         <v>20154</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>668</v>
+        <v>317</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>669</v>
+        <v>684</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -8288,13 +8354,13 @@
         <v>4274</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>236</v>
+        <v>685</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>670</v>
+        <v>424</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>671</v>
+        <v>686</v>
       </c>
       <c r="H19" s="7">
         <v>14</v>
@@ -8303,13 +8369,13 @@
         <v>11198</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>672</v>
+        <v>687</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>583</v>
+        <v>688</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>264</v>
+        <v>689</v>
       </c>
       <c r="M19" s="7">
         <v>19</v>
@@ -8318,13 +8384,13 @@
         <v>15472</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>673</v>
+        <v>690</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>635</v>
+        <v>691</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>674</v>
+        <v>692</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -8339,13 +8405,13 @@
         <v>59683</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>675</v>
+        <v>693</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>200</v>
+        <v>694</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>676</v>
+        <v>695</v>
       </c>
       <c r="H20" s="7">
         <v>92</v>
@@ -8354,13 +8420,13 @@
         <v>64632</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>677</v>
+        <v>696</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>678</v>
+        <v>697</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>679</v>
+        <v>698</v>
       </c>
       <c r="M20" s="7">
         <v>157</v>
@@ -8369,13 +8435,13 @@
         <v>124315</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>680</v>
+        <v>699</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>681</v>
+        <v>700</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>682</v>
+        <v>701</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8390,13 +8456,13 @@
         <v>38195</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>683</v>
+        <v>702</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>684</v>
+        <v>703</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>685</v>
+        <v>704</v>
       </c>
       <c r="H21" s="7">
         <v>61</v>
@@ -8405,13 +8471,13 @@
         <v>46761</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>686</v>
+        <v>705</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>687</v>
+        <v>706</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>688</v>
+        <v>707</v>
       </c>
       <c r="M21" s="7">
         <v>98</v>
@@ -8420,13 +8486,13 @@
         <v>84957</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>689</v>
+        <v>708</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>690</v>
+        <v>709</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -8441,13 +8507,13 @@
         <v>29898</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>691</v>
+        <v>710</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>692</v>
+        <v>711</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>693</v>
+        <v>712</v>
       </c>
       <c r="H22" s="7">
         <v>52</v>
@@ -8456,13 +8522,13 @@
         <v>32926</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>694</v>
+        <v>127</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>695</v>
+        <v>713</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>696</v>
+        <v>714</v>
       </c>
       <c r="M22" s="7">
         <v>88</v>
@@ -8471,13 +8537,13 @@
         <v>62824</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>697</v>
+        <v>715</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>698</v>
+        <v>716</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>699</v>
+        <v>717</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8492,13 +8558,13 @@
         <v>81994</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>700</v>
+        <v>718</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>701</v>
+        <v>719</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>702</v>
+        <v>720</v>
       </c>
       <c r="H23" s="7">
         <v>102</v>
@@ -8507,13 +8573,13 @@
         <v>54528</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>703</v>
+        <v>721</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>704</v>
+        <v>722</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>705</v>
+        <v>723</v>
       </c>
       <c r="M23" s="7">
         <v>215</v>
@@ -8522,13 +8588,13 @@
         <v>136522</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>642</v>
+        <v>724</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>706</v>
+        <v>725</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>707</v>
+        <v>726</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8596,13 +8662,13 @@
         <v>31211</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>452</v>
+        <v>727</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>708</v>
+        <v>728</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>632</v>
+        <v>729</v>
       </c>
       <c r="H25" s="7">
         <v>49</v>
@@ -8611,13 +8677,13 @@
         <v>36867</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>709</v>
+        <v>730</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>710</v>
+        <v>731</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>711</v>
+        <v>732</v>
       </c>
       <c r="M25" s="7">
         <v>77</v>
@@ -8626,13 +8692,13 @@
         <v>68079</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>512</v>
+        <v>452</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>712</v>
+        <v>403</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>713</v>
+        <v>690</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8647,13 +8713,13 @@
         <v>21677</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>714</v>
+        <v>733</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>589</v>
+        <v>734</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>376</v>
+        <v>445</v>
       </c>
       <c r="H26" s="7">
         <v>67</v>
@@ -8662,13 +8728,13 @@
         <v>48066</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>715</v>
+        <v>735</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>443</v>
+        <v>736</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>716</v>
+        <v>737</v>
       </c>
       <c r="M26" s="7">
         <v>89</v>
@@ -8677,13 +8743,13 @@
         <v>69743</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>717</v>
+        <v>178</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>628</v>
+        <v>738</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>673</v>
+        <v>739</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8698,13 +8764,13 @@
         <v>268479</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>718</v>
+        <v>740</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>116</v>
+        <v>741</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>719</v>
+        <v>742</v>
       </c>
       <c r="H27" s="7">
         <v>436</v>
@@ -8713,13 +8779,13 @@
         <v>292581</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>720</v>
+        <v>743</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>721</v>
+        <v>744</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>722</v>
+        <v>115</v>
       </c>
       <c r="M27" s="7">
         <v>720</v>
@@ -8728,13 +8794,13 @@
         <v>561060</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>723</v>
+        <v>745</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>724</v>
+        <v>746</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>725</v>
+        <v>747</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -8749,13 +8815,13 @@
         <v>95055</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>726</v>
+        <v>748</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>727</v>
+        <v>749</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>728</v>
+        <v>750</v>
       </c>
       <c r="H28" s="7">
         <v>154</v>
@@ -8764,13 +8830,13 @@
         <v>118266</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>729</v>
+        <v>751</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>730</v>
+        <v>752</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>731</v>
+        <v>753</v>
       </c>
       <c r="M28" s="7">
         <v>243</v>
@@ -8779,13 +8845,13 @@
         <v>213321</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>732</v>
+        <v>754</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>733</v>
+        <v>755</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8800,13 +8866,13 @@
         <v>194142</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>564</v>
+        <v>756</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>734</v>
+        <v>757</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>735</v>
+        <v>389</v>
       </c>
       <c r="H29" s="7">
         <v>391</v>
@@ -8815,13 +8881,13 @@
         <v>232035</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>736</v>
+        <v>758</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>737</v>
+        <v>387</v>
       </c>
       <c r="M29" s="7">
         <v>623</v>
@@ -8830,13 +8896,13 @@
         <v>426177</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>738</v>
+        <v>759</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>739</v>
+        <v>760</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8851,13 +8917,13 @@
         <v>453253</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>740</v>
+        <v>761</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>741</v>
+        <v>762</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>742</v>
+        <v>763</v>
       </c>
       <c r="H30" s="7">
         <v>1125</v>
@@ -8866,13 +8932,13 @@
         <v>719902</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>743</v>
+        <v>764</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>744</v>
+        <v>765</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>745</v>
+        <v>766</v>
       </c>
       <c r="M30" s="7">
         <v>1787</v>
@@ -8881,13 +8947,13 @@
         <v>1173156</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>746</v>
+        <v>767</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>747</v>
+        <v>768</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>391</v>
+        <v>769</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8943,7 +9009,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P37AS1-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P37AS1-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EC8DE544-A58E-439C-BD8D-C82E803DC2A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{418516A5-A4A2-4468-A703-359AC9325FBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4B4066C2-7368-4978-969C-6132D0020B5F}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A43868FF-47D0-42F3-96A0-CB363A9AAD1C}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1216" uniqueCount="770">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1216" uniqueCount="771">
   <si>
     <t>Población según la persona que le indicó que se vacunase de la gripe / respuesta 1 en 2007 (Tasa respuesta: 14,84%)</t>
   </si>
@@ -86,2236 +86,2239 @@
     <t>0,59%</t>
   </si>
   <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>El médico, por otras razones</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>Yo solicité la vacuna porque prefiero estar vacunado</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>Me ponen la vacuna en la empresa/ centro de estudio</t>
+  </si>
+  <si>
     <t>2,14%</t>
   </si>
   <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>El médico, por otras razones</t>
-  </si>
-  <si>
-    <t>0,7%</t>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>El médico, por mis enfermedades</t>
+  </si>
+  <si>
+    <t>26,32%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>31,97%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
+  </si>
+  <si>
+    <t>23,79%</t>
+  </si>
+  <si>
+    <t>El médico, por mi edad</t>
+  </si>
+  <si>
+    <t>58,74%</t>
+  </si>
+  <si>
+    <t>53,23%</t>
+  </si>
+  <si>
+    <t>64,34%</t>
+  </si>
+  <si>
+    <t>72,51%</t>
+  </si>
+  <si>
+    <t>67,68%</t>
+  </si>
+  <si>
+    <t>76,81%</t>
+  </si>
+  <si>
+    <t>66,85%</t>
+  </si>
+  <si>
+    <t>63,35%</t>
+  </si>
+  <si>
+    <t>70,35%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>29,27%</t>
+  </si>
+  <si>
+    <t>20,84%</t>
+  </si>
+  <si>
+    <t>39,48%</t>
+  </si>
+  <si>
+    <t>33,4%</t>
+  </si>
+  <si>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>43,49%</t>
+  </si>
+  <si>
+    <t>31,19%</t>
+  </si>
+  <si>
+    <t>24,94%</t>
+  </si>
+  <si>
+    <t>38,15%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>24,06%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>32,28%</t>
+  </si>
+  <si>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>34,39%</t>
+  </si>
+  <si>
+    <t>24,62%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>30,75%</t>
+  </si>
+  <si>
+    <t>28,26%</t>
+  </si>
+  <si>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>37,95%</t>
+  </si>
+  <si>
+    <t>29,33%</t>
+  </si>
+  <si>
+    <t>20,97%</t>
+  </si>
+  <si>
+    <t>39,55%</t>
+  </si>
+  <si>
+    <t>28,76%</t>
+  </si>
+  <si>
+    <t>22,92%</t>
+  </si>
+  <si>
+    <t>35,6%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>37,14%</t>
+  </si>
+  <si>
+    <t>24,76%</t>
+  </si>
+  <si>
+    <t>50,49%</t>
+  </si>
+  <si>
+    <t>38,69%</t>
+  </si>
+  <si>
+    <t>24,08%</t>
+  </si>
+  <si>
+    <t>53,26%</t>
+  </si>
+  <si>
+    <t>37,78%</t>
+  </si>
+  <si>
+    <t>28,16%</t>
+  </si>
+  <si>
+    <t>47,2%</t>
+  </si>
+  <si>
+    <t>21,21%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>33,38%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>28,11%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>27,11%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>29,49%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>33,53%</t>
+  </si>
+  <si>
+    <t>34,87%</t>
+  </si>
+  <si>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>50,22%</t>
+  </si>
+  <si>
+    <t>26,5%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>36,46%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>24,21%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>28,22%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>20,36%</t>
+  </si>
+  <si>
+    <t>20,41%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>45,66%</t>
+  </si>
+  <si>
+    <t>41,18%</t>
+  </si>
+  <si>
+    <t>50,52%</t>
+  </si>
+  <si>
+    <t>61,3%</t>
+  </si>
+  <si>
+    <t>56,91%</t>
+  </si>
+  <si>
+    <t>65,28%</t>
+  </si>
+  <si>
+    <t>54,15%</t>
+  </si>
+  <si>
+    <t>50,89%</t>
+  </si>
+  <si>
+    <t>57,51%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según la persona que le indicó que se vacunase de la gripe / respuesta 1 en 2012 (Tasa respuesta: 17,52%)</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>23,61%</t>
+  </si>
+  <si>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>69,57%</t>
+  </si>
+  <si>
+    <t>64,24%</t>
+  </si>
+  <si>
+    <t>74,51%</t>
+  </si>
+  <si>
+    <t>71,46%</t>
+  </si>
+  <si>
+    <t>66,88%</t>
+  </si>
+  <si>
+    <t>75,43%</t>
+  </si>
+  <si>
+    <t>70,64%</t>
+  </si>
+  <si>
+    <t>67,3%</t>
+  </si>
+  <si>
+    <t>73,72%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
   </si>
   <si>
     <t>2,46%</t>
   </si>
   <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>Yo solicité la vacuna porque prefiero estar vacunado</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>Me ponen la vacuna en la empresa/ centro de estudio</t>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>16,47%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>28,42%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>35,79%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>24,39%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>19,41%</t>
+  </si>
+  <si>
+    <t>29,1%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>23,1%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>29,53%</t>
+  </si>
+  <si>
+    <t>27,61%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
+  </si>
+  <si>
+    <t>36,05%</t>
+  </si>
+  <si>
+    <t>25,0%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>30,49%</t>
+  </si>
+  <si>
+    <t>29,73%</t>
+  </si>
+  <si>
+    <t>23,51%</t>
+  </si>
+  <si>
+    <t>36,65%</t>
+  </si>
+  <si>
+    <t>30,46%</t>
+  </si>
+  <si>
+    <t>22,96%</t>
+  </si>
+  <si>
+    <t>38,47%</t>
+  </si>
+  <si>
+    <t>30,04%</t>
+  </si>
+  <si>
+    <t>24,71%</t>
+  </si>
+  <si>
+    <t>35,25%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>25,1%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>24,23%</t>
+  </si>
+  <si>
+    <t>39,25%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>32,64%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>30,79%</t>
+  </si>
+  <si>
+    <t>33,55%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>50,24%</t>
+  </si>
+  <si>
+    <t>29,79%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>47,42%</t>
+  </si>
+  <si>
+    <t>31,89%</t>
+  </si>
+  <si>
+    <t>22,51%</t>
+  </si>
+  <si>
+    <t>43,2%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>25,12%</t>
+  </si>
+  <si>
+    <t>29,62%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>46,55%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>28,96%</t>
+  </si>
+  <si>
+    <t>28,44%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>43,23%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>26,75%</t>
+  </si>
+  <si>
+    <t>21,34%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>31,99%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>20,88%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>23,16%</t>
+  </si>
+  <si>
+    <t>21,75%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>25,5%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>23,54%</t>
+  </si>
+  <si>
+    <t>52,14%</t>
+  </si>
+  <si>
+    <t>47,83%</t>
+  </si>
+  <si>
+    <t>56,69%</t>
+  </si>
+  <si>
+    <t>57,72%</t>
+  </si>
+  <si>
+    <t>53,59%</t>
+  </si>
+  <si>
+    <t>61,48%</t>
+  </si>
+  <si>
+    <t>55,0%</t>
+  </si>
+  <si>
+    <t>51,95%</t>
+  </si>
+  <si>
+    <t>57,71%</t>
+  </si>
+  <si>
+    <t>Población según la persona que le indicó que se vacunase de la gripe / respuesta 1 en 2016 (Tasa respuesta: 15,91%)</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>22,18%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>71,95%</t>
+  </si>
+  <si>
+    <t>66,15%</t>
+  </si>
+  <si>
+    <t>76,62%</t>
+  </si>
+  <si>
+    <t>75,94%</t>
+  </si>
+  <si>
+    <t>71,09%</t>
+  </si>
+  <si>
+    <t>80,49%</t>
+  </si>
+  <si>
+    <t>74,26%</t>
+  </si>
+  <si>
+    <t>70,09%</t>
+  </si>
+  <si>
+    <t>77,49%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>28,32%</t>
+  </si>
+  <si>
+    <t>22,48%</t>
+  </si>
+  <si>
+    <t>34,66%</t>
+  </si>
+  <si>
+    <t>22,02%</t>
+  </si>
+  <si>
+    <t>28,4%</t>
+  </si>
+  <si>
+    <t>25,28%</t>
+  </si>
+  <si>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>29,56%</t>
+  </si>
+  <si>
+    <t>47,86%</t>
+  </si>
+  <si>
+    <t>41,0%</t>
+  </si>
+  <si>
+    <t>54,28%</t>
+  </si>
+  <si>
+    <t>51,01%</t>
+  </si>
+  <si>
+    <t>43,19%</t>
+  </si>
+  <si>
+    <t>58,75%</t>
+  </si>
+  <si>
+    <t>49,38%</t>
+  </si>
+  <si>
+    <t>44,46%</t>
+  </si>
+  <si>
+    <t>55,23%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>22,05%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>20,77%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>25,94%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>33,46%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>25,67%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>31,12%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>35,39%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>35,62%</t>
+  </si>
+  <si>
+    <t>21,45%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>30,07%</t>
+  </si>
+  <si>
+    <t>40,56%</t>
+  </si>
+  <si>
+    <t>25,76%</t>
+  </si>
+  <si>
+    <t>53,79%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>41,31%</t>
+  </si>
+  <si>
+    <t>32,88%</t>
+  </si>
+  <si>
+    <t>23,12%</t>
+  </si>
+  <si>
+    <t>42,19%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>21,96%</t>
+  </si>
+  <si>
+    <t>25,57%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>22,27%</t>
+  </si>
+  <si>
+    <t>58,72%</t>
+  </si>
+  <si>
+    <t>54,37%</t>
+  </si>
+  <si>
+    <t>62,67%</t>
+  </si>
+  <si>
+    <t>63,03%</t>
+  </si>
+  <si>
+    <t>59,05%</t>
+  </si>
+  <si>
+    <t>67,19%</t>
+  </si>
+  <si>
+    <t>61,02%</t>
+  </si>
+  <si>
+    <t>57,84%</t>
+  </si>
+  <si>
+    <t>63,92%</t>
+  </si>
+  <si>
+    <t>Población según la persona que le indicó que se vacunase de la gripe / respuesta 1 en 2023 (Tasa respuesta: 40,6%)</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
   </si>
   <si>
     <t>1,01%</t>
   </si>
   <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>21,83%</t>
+  </si>
+  <si>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>21,28%</t>
+  </si>
+  <si>
+    <t>18,32%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>63,9%</t>
+  </si>
+  <si>
+    <t>58,88%</t>
+  </si>
+  <si>
+    <t>68,76%</t>
+  </si>
+  <si>
+    <t>67,45%</t>
+  </si>
+  <si>
+    <t>64,54%</t>
+  </si>
+  <si>
+    <t>70,46%</t>
+  </si>
+  <si>
+    <t>66,19%</t>
+  </si>
+  <si>
+    <t>63,6%</t>
+  </si>
+  <si>
+    <t>68,91%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
   </si>
   <si>
     <t>1,96%</t>
   </si>
   <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>El médico, por mis enfermedades</t>
-  </si>
-  <si>
-    <t>26,32%</t>
-  </si>
-  <si>
-    <t>21,26%</t>
-  </si>
-  <si>
-    <t>31,59%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>20,37%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>El médico, por mi edad</t>
-  </si>
-  <si>
-    <t>58,74%</t>
-  </si>
-  <si>
-    <t>53,15%</t>
-  </si>
-  <si>
-    <t>64,3%</t>
-  </si>
-  <si>
-    <t>72,51%</t>
-  </si>
-  <si>
-    <t>67,87%</t>
-  </si>
-  <si>
-    <t>76,73%</t>
-  </si>
-  <si>
-    <t>66,85%</t>
-  </si>
-  <si>
-    <t>63,31%</t>
-  </si>
-  <si>
-    <t>70,68%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>3,11%</t>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>31,02%</t>
+  </si>
+  <si>
+    <t>27,16%</t>
+  </si>
+  <si>
+    <t>24,37%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>30,22%</t>
+  </si>
+  <si>
+    <t>27,29%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
   </si>
   <si>
     <t>7,34%</t>
   </si>
   <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>29,27%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>38,77%</t>
-  </si>
-  <si>
-    <t>33,4%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
-  </si>
-  <si>
-    <t>43,43%</t>
-  </si>
-  <si>
-    <t>31,19%</t>
-  </si>
-  <si>
-    <t>24,57%</t>
-  </si>
-  <si>
-    <t>38,04%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>24,06%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>33,17%</t>
-  </si>
-  <si>
-    <t>25,26%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>34,59%</t>
-  </si>
-  <si>
-    <t>24,62%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>30,87%</t>
-  </si>
-  <si>
-    <t>28,26%</t>
-  </si>
-  <si>
-    <t>20,38%</t>
-  </si>
-  <si>
-    <t>37,25%</t>
-  </si>
-  <si>
-    <t>29,33%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>39,58%</t>
-  </si>
-  <si>
-    <t>28,76%</t>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>29,92%</t>
+  </si>
+  <si>
+    <t>37,3%</t>
+  </si>
+  <si>
+    <t>43,68%</t>
+  </si>
+  <si>
+    <t>31,55%</t>
+  </si>
+  <si>
+    <t>68,55%</t>
+  </si>
+  <si>
+    <t>39,16%</t>
+  </si>
+  <si>
+    <t>32,3%</t>
+  </si>
+  <si>
+    <t>55,83%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>26,47%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>32,12%</t>
+  </si>
+  <si>
+    <t>29,55%</t>
+  </si>
+  <si>
+    <t>24,41%</t>
+  </si>
+  <si>
+    <t>34,91%</t>
+  </si>
+  <si>
+    <t>27,98%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>32,08%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>21,38%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>26,83%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>22,69%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>36,36%</t>
+  </si>
+  <si>
+    <t>30,61%</t>
+  </si>
+  <si>
+    <t>42,21%</t>
+  </si>
+  <si>
+    <t>24,93%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>30,19%</t>
+  </si>
+  <si>
+    <t>30,73%</t>
+  </si>
+  <si>
+    <t>26,91%</t>
+  </si>
+  <si>
+    <t>34,58%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>25,24%</t>
+  </si>
+  <si>
+    <t>22,68%</t>
+  </si>
+  <si>
+    <t>28,02%</t>
+  </si>
+  <si>
+    <t>20,21%</t>
   </si>
   <si>
     <t>22,72%</t>
   </si>
   <si>
-    <t>35,99%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>37,14%</t>
-  </si>
-  <si>
-    <t>25,43%</t>
-  </si>
-  <si>
-    <t>51,73%</t>
-  </si>
-  <si>
-    <t>38,69%</t>
-  </si>
-  <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>52,61%</t>
-  </si>
-  <si>
-    <t>37,78%</t>
-  </si>
-  <si>
-    <t>28,55%</t>
-  </si>
-  <si>
-    <t>47,82%</t>
-  </si>
-  <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>33,74%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>28,77%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>27,12%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>26,16%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>33,52%</t>
-  </si>
-  <si>
-    <t>34,87%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>50,15%</t>
-  </si>
-  <si>
-    <t>26,5%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>36,89%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>24,01%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>24,21%</t>
-  </si>
-  <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>28,42%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>20,41%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>45,66%</t>
-  </si>
-  <si>
-    <t>41,09%</t>
-  </si>
-  <si>
-    <t>50,14%</t>
-  </si>
-  <si>
-    <t>61,3%</t>
-  </si>
-  <si>
-    <t>57,11%</t>
-  </si>
-  <si>
-    <t>65,4%</t>
-  </si>
-  <si>
-    <t>54,15%</t>
-  </si>
-  <si>
-    <t>50,63%</t>
-  </si>
-  <si>
-    <t>57,33%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según la persona que le indicó que se vacunase de la gripe / respuesta 1 en 2012 (Tasa respuesta: 17,52%)</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>23,95%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>22,05%</t>
-  </si>
-  <si>
-    <t>69,57%</t>
-  </si>
-  <si>
-    <t>64,24%</t>
-  </si>
-  <si>
-    <t>74,97%</t>
-  </si>
-  <si>
-    <t>71,46%</t>
-  </si>
-  <si>
-    <t>66,63%</t>
-  </si>
-  <si>
-    <t>75,4%</t>
-  </si>
-  <si>
-    <t>70,64%</t>
-  </si>
-  <si>
-    <t>67,29%</t>
-  </si>
-  <si>
-    <t>74,18%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>22,03%</t>
-  </si>
-  <si>
-    <t>35,25%</t>
-  </si>
-  <si>
-    <t>17,36%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>24,31%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>28,49%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>23,1%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>29,79%</t>
-  </si>
-  <si>
-    <t>27,61%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>35,37%</t>
-  </si>
-  <si>
-    <t>25,0%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>30,27%</t>
-  </si>
-  <si>
-    <t>29,73%</t>
-  </si>
-  <si>
-    <t>23,58%</t>
-  </si>
-  <si>
-    <t>36,76%</t>
-  </si>
-  <si>
-    <t>30,46%</t>
-  </si>
-  <si>
-    <t>22,89%</t>
-  </si>
-  <si>
-    <t>38,17%</t>
-  </si>
-  <si>
-    <t>30,04%</t>
-  </si>
-  <si>
-    <t>25,15%</t>
-  </si>
-  <si>
-    <t>35,17%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>26,01%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>24,23%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>39,88%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>33,57%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>30,94%</t>
-  </si>
-  <si>
-    <t>33,55%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>47,9%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>48,75%</t>
-  </si>
-  <si>
-    <t>31,89%</t>
-  </si>
-  <si>
-    <t>22,25%</t>
-  </si>
-  <si>
-    <t>43,56%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>25,16%</t>
-  </si>
-  <si>
-    <t>29,62%</t>
-  </si>
-  <si>
-    <t>48,04%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>28,79%</t>
-  </si>
-  <si>
-    <t>28,44%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>43,86%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>25,78%</t>
-  </si>
-  <si>
-    <t>21,34%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>32,18%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>21,11%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>23,53%</t>
-  </si>
-  <si>
-    <t>21,75%</t>
+    <t>22,34%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
   </si>
   <si>
     <t>18,24%</t>
-  </si>
-  <si>
-    <t>25,17%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>23,47%</t>
-  </si>
-  <si>
-    <t>52,14%</t>
-  </si>
-  <si>
-    <t>47,58%</t>
-  </si>
-  <si>
-    <t>56,01%</t>
-  </si>
-  <si>
-    <t>57,72%</t>
-  </si>
-  <si>
-    <t>53,6%</t>
-  </si>
-  <si>
-    <t>61,8%</t>
-  </si>
-  <si>
-    <t>55,0%</t>
-  </si>
-  <si>
-    <t>52,34%</t>
-  </si>
-  <si>
-    <t>58,13%</t>
-  </si>
-  <si>
-    <t>Población según la persona que le indicó que se vacunase de la gripe / respuesta 1 en 2015 (Tasa respuesta: 15,91%)</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>18,86%</t>
-  </si>
-  <si>
-    <t>71,95%</t>
-  </si>
-  <si>
-    <t>66,46%</t>
-  </si>
-  <si>
-    <t>77,02%</t>
-  </si>
-  <si>
-    <t>75,94%</t>
-  </si>
-  <si>
-    <t>71,13%</t>
-  </si>
-  <si>
-    <t>80,45%</t>
-  </si>
-  <si>
-    <t>74,26%</t>
-  </si>
-  <si>
-    <t>70,66%</t>
-  </si>
-  <si>
-    <t>77,83%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>28,32%</t>
-  </si>
-  <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>34,84%</t>
-  </si>
-  <si>
-    <t>22,02%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>29,46%</t>
-  </si>
-  <si>
-    <t>25,28%</t>
-  </si>
-  <si>
-    <t>21,16%</t>
-  </si>
-  <si>
-    <t>30,13%</t>
-  </si>
-  <si>
-    <t>47,86%</t>
-  </si>
-  <si>
-    <t>40,78%</t>
-  </si>
-  <si>
-    <t>55,02%</t>
-  </si>
-  <si>
-    <t>51,01%</t>
-  </si>
-  <si>
-    <t>43,32%</t>
-  </si>
-  <si>
-    <t>59,31%</t>
-  </si>
-  <si>
-    <t>49,38%</t>
-  </si>
-  <si>
-    <t>43,9%</t>
-  </si>
-  <si>
-    <t>54,25%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>23,33%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>26,36%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>33,37%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>26,58%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>30,14%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>36,15%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>30,41%</t>
-  </si>
-  <si>
-    <t>40,56%</t>
-  </si>
-  <si>
-    <t>27,8%</t>
-  </si>
-  <si>
-    <t>54,46%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
-  </si>
-  <si>
-    <t>38,83%</t>
-  </si>
-  <si>
-    <t>32,88%</t>
-  </si>
-  <si>
-    <t>24,09%</t>
-  </si>
-  <si>
-    <t>42,55%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>21,96%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>25,96%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>19,72%</t>
-  </si>
-  <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>22,23%</t>
-  </si>
-  <si>
-    <t>58,72%</t>
-  </si>
-  <si>
-    <t>54,41%</t>
-  </si>
-  <si>
-    <t>63,24%</t>
-  </si>
-  <si>
-    <t>63,03%</t>
-  </si>
-  <si>
-    <t>59,05%</t>
-  </si>
-  <si>
-    <t>67,17%</t>
-  </si>
-  <si>
-    <t>61,02%</t>
-  </si>
-  <si>
-    <t>57,79%</t>
-  </si>
-  <si>
-    <t>63,81%</t>
-  </si>
-  <si>
-    <t>Población según la persona que le indicó que se vacunase de la gripe / respuesta 1 en 2023 (Tasa respuesta: 40,6%)</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>21,83%</t>
-  </si>
-  <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>21,28%</t>
-  </si>
-  <si>
-    <t>18,32%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>63,9%</t>
-  </si>
-  <si>
-    <t>58,88%</t>
-  </si>
-  <si>
-    <t>68,76%</t>
-  </si>
-  <si>
-    <t>67,45%</t>
-  </si>
-  <si>
-    <t>64,54%</t>
-  </si>
-  <si>
-    <t>70,46%</t>
-  </si>
-  <si>
-    <t>66,19%</t>
-  </si>
-  <si>
-    <t>63,6%</t>
-  </si>
-  <si>
-    <t>68,91%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>31,02%</t>
-  </si>
-  <si>
-    <t>27,16%</t>
-  </si>
-  <si>
-    <t>35,6%</t>
-  </si>
-  <si>
-    <t>24,37%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>30,22%</t>
-  </si>
-  <si>
-    <t>27,29%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>30,75%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>17,14%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>29,92%</t>
-  </si>
-  <si>
-    <t>37,3%</t>
-  </si>
-  <si>
-    <t>43,68%</t>
-  </si>
-  <si>
-    <t>31,55%</t>
-  </si>
-  <si>
-    <t>68,55%</t>
-  </si>
-  <si>
-    <t>39,16%</t>
-  </si>
-  <si>
-    <t>32,3%</t>
-  </si>
-  <si>
-    <t>55,83%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>26,47%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>32,12%</t>
-  </si>
-  <si>
-    <t>29,55%</t>
-  </si>
-  <si>
-    <t>24,41%</t>
-  </si>
-  <si>
-    <t>34,91%</t>
-  </si>
-  <si>
-    <t>27,98%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>32,08%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>22,52%</t>
-  </si>
-  <si>
-    <t>21,38%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>26,83%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>22,69%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>36,36%</t>
-  </si>
-  <si>
-    <t>30,61%</t>
-  </si>
-  <si>
-    <t>42,21%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>30,19%</t>
-  </si>
-  <si>
-    <t>30,73%</t>
-  </si>
-  <si>
-    <t>26,91%</t>
-  </si>
-  <si>
-    <t>34,58%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>25,24%</t>
-  </si>
-  <si>
-    <t>22,68%</t>
-  </si>
-  <si>
-    <t>28,02%</t>
-  </si>
-  <si>
-    <t>20,21%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>22,34%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
   </si>
   <si>
     <t>14,52%</t>
@@ -2760,7 +2763,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08D8B285-7368-4BB4-843A-1BEB7B6AC47B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D7F35DD-FA01-40A7-9636-D6543D7C73E0}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3037,10 +3040,10 @@
         <v>5850</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>39</v>
@@ -3246,10 +3249,10 @@
         <v>68</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>21</v>
+        <v>69</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
@@ -3258,13 +3261,13 @@
         <v>881</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M11" s="7">
         <v>5</v>
@@ -3273,13 +3276,13 @@
         <v>4444</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>21</v>
+        <v>74</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3294,13 +3297,13 @@
         <v>1841</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H12" s="7">
         <v>3</v>
@@ -3309,13 +3312,13 @@
         <v>2980</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="M12" s="7">
         <v>5</v>
@@ -3324,13 +3327,13 @@
         <v>4820</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3345,13 +3348,13 @@
         <v>33565</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="H13" s="7">
         <v>30</v>
@@ -3360,13 +3363,13 @@
         <v>33382</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="M13" s="7">
         <v>61</v>
@@ -3375,13 +3378,13 @@
         <v>66947</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3396,13 +3399,13 @@
         <v>15705</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="H14" s="7">
         <v>8</v>
@@ -3411,13 +3414,13 @@
         <v>8148</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>93</v>
+        <v>35</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="M14" s="7">
         <v>23</v>
@@ -3426,13 +3429,13 @@
         <v>23853</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3447,13 +3450,13 @@
         <v>27585</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="H15" s="7">
         <v>25</v>
@@ -3462,13 +3465,13 @@
         <v>25247</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="M15" s="7">
         <v>53</v>
@@ -3477,13 +3480,13 @@
         <v>52832</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3498,13 +3501,13 @@
         <v>32399</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="H16" s="7">
         <v>25</v>
@@ -3513,13 +3516,13 @@
         <v>29316</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="M16" s="7">
         <v>57</v>
@@ -3528,13 +3531,13 @@
         <v>61715</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3590,7 +3593,7 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>10</v>
@@ -3608,7 +3611,7 @@
         <v>12</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="H18" s="7">
         <v>1</v>
@@ -3617,13 +3620,13 @@
         <v>981</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M18" s="7">
         <v>1</v>
@@ -3632,13 +3635,13 @@
         <v>981</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="P18" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3653,13 +3656,13 @@
         <v>3646</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -3668,13 +3671,13 @@
         <v>1236</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="M19" s="7">
         <v>4</v>
@@ -3683,13 +3686,13 @@
         <v>4881</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3704,13 +3707,13 @@
         <v>23284</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H20" s="7">
         <v>16</v>
@@ -3719,13 +3722,13 @@
         <v>17335</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="M20" s="7">
         <v>39</v>
@@ -3734,13 +3737,13 @@
         <v>40619</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3755,13 +3758,13 @@
         <v>13299</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="H21" s="7">
         <v>7</v>
@@ -3770,13 +3773,13 @@
         <v>6917</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="M21" s="7">
         <v>20</v>
@@ -3785,13 +3788,13 @@
         <v>20216</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3806,13 +3809,13 @@
         <v>9604</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="H22" s="7">
         <v>3</v>
@@ -3821,13 +3824,13 @@
         <v>2717</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="M22" s="7">
         <v>11</v>
@@ -3836,13 +3839,13 @@
         <v>12321</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3857,13 +3860,13 @@
         <v>12860</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>141</v>
+        <v>161</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="H23" s="7">
         <v>15</v>
@@ -3872,13 +3875,13 @@
         <v>15625</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="M23" s="7">
         <v>26</v>
@@ -3887,13 +3890,13 @@
         <v>28486</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3961,13 +3964,13 @@
         <v>3563</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="H25" s="7">
         <v>4</v>
@@ -3976,13 +3979,13 @@
         <v>4172</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="M25" s="7">
         <v>8</v>
@@ -3991,13 +3994,13 @@
         <v>7735</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4012,13 +4015,13 @@
         <v>7384</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>26</v>
+        <v>177</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="H26" s="7">
         <v>7</v>
@@ -4027,13 +4030,13 @@
         <v>7219</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="M26" s="7">
         <v>14</v>
@@ -4042,13 +4045,13 @@
         <v>14603</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4063,13 +4066,13 @@
         <v>89856</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="H27" s="7">
         <v>79</v>
@@ -4078,13 +4081,13 @@
         <v>85822</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>33</v>
+        <v>190</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="M27" s="7">
         <v>166</v>
@@ -4093,13 +4096,13 @@
         <v>175678</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -4114,13 +4117,13 @@
         <v>34855</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="H28" s="7">
         <v>18</v>
@@ -4129,13 +4132,13 @@
         <v>17885</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>72</v>
+        <v>199</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="M28" s="7">
         <v>52</v>
@@ -4144,13 +4147,13 @@
         <v>52740</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4165,13 +4168,13 @@
         <v>109020</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="H29" s="7">
         <v>92</v>
@@ -4180,13 +4183,13 @@
         <v>92089</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="M29" s="7">
         <v>201</v>
@@ -4195,13 +4198,13 @@
         <v>201109</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4216,13 +4219,13 @@
         <v>205560</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="H30" s="7">
         <v>310</v>
@@ -4231,13 +4234,13 @@
         <v>328155</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="M30" s="7">
         <v>525</v>
@@ -4246,13 +4249,13 @@
         <v>533716</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4308,7 +4311,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
     </row>
   </sheetData>
@@ -4327,7 +4330,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1A0339A-D97A-4B41-B989-820A89BEE935}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{462FDAA4-0F4E-4AEA-8D48-6D71BD0DAE6E}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4344,7 +4347,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4457,7 +4460,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>218</v>
+        <v>44</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -4466,13 +4469,13 @@
         <v>1172</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>25</v>
+        <v>224</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -4481,13 +4484,13 @@
         <v>1172</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4502,13 +4505,13 @@
         <v>4805</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>224</v>
+        <v>179</v>
       </c>
       <c r="H5" s="7">
         <v>6</v>
@@ -4517,13 +4520,13 @@
         <v>6543</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>225</v>
+        <v>19</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="M5" s="7">
         <v>11</v>
@@ -4532,13 +4535,13 @@
         <v>11348</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4553,13 +4556,13 @@
         <v>31963</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>51</v>
+        <v>236</v>
       </c>
       <c r="H6" s="7">
         <v>34</v>
@@ -4568,13 +4571,13 @@
         <v>34576</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="M6" s="7">
         <v>64</v>
@@ -4583,13 +4586,13 @@
         <v>66539</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4604,13 +4607,13 @@
         <v>1876</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -4625,7 +4628,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="M7" s="7">
         <v>2</v>
@@ -4634,13 +4637,13 @@
         <v>1876</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>22</v>
+        <v>246</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4655,13 +4658,13 @@
         <v>65316</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="H8" s="7">
         <v>81</v>
@@ -4670,13 +4673,13 @@
         <v>83837</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="M8" s="7">
         <v>139</v>
@@ -4685,13 +4688,13 @@
         <v>149153</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4706,13 +4709,13 @@
         <v>237637</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="H9" s="7">
         <v>294</v>
@@ -4721,13 +4724,13 @@
         <v>315840</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="M9" s="7">
         <v>510</v>
@@ -4736,13 +4739,13 @@
         <v>553477</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4810,13 +4813,13 @@
         <v>1928</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>261</v>
+        <v>179</v>
       </c>
       <c r="H11" s="7">
         <v>4</v>
@@ -4825,13 +4828,13 @@
         <v>4217</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>263</v>
+        <v>13</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="M11" s="7">
         <v>6</v>
@@ -4840,13 +4843,13 @@
         <v>6145</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>169</v>
+        <v>270</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4861,13 +4864,13 @@
         <v>10301</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>267</v>
+        <v>83</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>72</v>
+        <v>272</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="H12" s="7">
         <v>14</v>
@@ -4876,13 +4879,13 @@
         <v>15095</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="M12" s="7">
         <v>23</v>
@@ -4891,13 +4894,13 @@
         <v>25397</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4912,13 +4915,13 @@
         <v>59656</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="H13" s="7">
         <v>25</v>
@@ -4927,13 +4930,13 @@
         <v>26595</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="M13" s="7">
         <v>81</v>
@@ -4942,13 +4945,13 @@
         <v>86251</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4963,13 +4966,13 @@
         <v>27106</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="H14" s="7">
         <v>17</v>
@@ -4978,13 +4981,13 @@
         <v>18352</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="M14" s="7">
         <v>41</v>
@@ -4993,13 +4996,13 @@
         <v>45459</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>230</v>
+        <v>296</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5014,13 +5017,13 @@
         <v>48485</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="H15" s="7">
         <v>38</v>
@@ -5029,13 +5032,13 @@
         <v>42309</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="M15" s="7">
         <v>83</v>
@@ -5044,13 +5047,13 @@
         <v>90794</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5065,13 +5068,13 @@
         <v>62406</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="H16" s="7">
         <v>41</v>
@@ -5080,13 +5083,13 @@
         <v>46671</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="M16" s="7">
         <v>96</v>
@@ -5095,13 +5098,13 @@
         <v>109077</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5157,7 +5160,7 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>10</v>
@@ -5175,7 +5178,7 @@
         <v>12</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -5190,7 +5193,7 @@
         <v>12</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>194</v>
+        <v>317</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -5205,7 +5208,7 @@
         <v>12</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5220,13 +5223,13 @@
         <v>1989</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="H19" s="7">
         <v>4</v>
@@ -5235,13 +5238,13 @@
         <v>4715</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="M19" s="7">
         <v>5</v>
@@ -5250,13 +5253,13 @@
         <v>6705</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5271,13 +5274,13 @@
         <v>12769</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>320</v>
+        <v>93</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="H20" s="7">
         <v>6</v>
@@ -5286,13 +5289,13 @@
         <v>7085</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="M20" s="7">
         <v>18</v>
@@ -5301,13 +5304,13 @@
         <v>19854</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>325</v>
+        <v>302</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5322,13 +5325,13 @@
         <v>17678</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="H21" s="7">
         <v>10</v>
@@ -5337,13 +5340,13 @@
         <v>12472</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>293</v>
+        <v>337</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="M21" s="7">
         <v>26</v>
@@ -5352,13 +5355,13 @@
         <v>30150</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5373,13 +5376,13 @@
         <v>5268</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="H22" s="7">
         <v>11</v>
@@ -5388,13 +5391,13 @@
         <v>12403</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>154</v>
+        <v>347</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="M22" s="7">
         <v>15</v>
@@ -5403,13 +5406,13 @@
         <v>17671</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5424,13 +5427,13 @@
         <v>14987</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="H23" s="7">
         <v>5</v>
@@ -5439,13 +5442,13 @@
         <v>5192</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="M23" s="7">
         <v>18</v>
@@ -5454,13 +5457,13 @@
         <v>20178</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5528,13 +5531,13 @@
         <v>1928</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="H25" s="7">
         <v>5</v>
@@ -5543,13 +5546,13 @@
         <v>5390</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>355</v>
+        <v>82</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>353</v>
+        <v>363</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="M25" s="7">
         <v>7</v>
@@ -5561,10 +5564,10 @@
         <v>14</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>357</v>
+        <v>22</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5579,13 +5582,13 @@
         <v>17096</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>360</v>
+        <v>76</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>122</v>
+        <v>367</v>
       </c>
       <c r="H26" s="7">
         <v>24</v>
@@ -5594,13 +5597,13 @@
         <v>26353</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>178</v>
+        <v>369</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="M26" s="7">
         <v>39</v>
@@ -5609,13 +5612,13 @@
         <v>43449</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5630,13 +5633,13 @@
         <v>104389</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="H27" s="7">
         <v>65</v>
@@ -5645,13 +5648,13 @@
         <v>68255</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>369</v>
+        <v>239</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="M27" s="7">
         <v>163</v>
@@ -5660,13 +5663,13 @@
         <v>172644</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>374</v>
+        <v>381</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -5681,13 +5684,13 @@
         <v>46660</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="H28" s="7">
         <v>27</v>
@@ -5696,13 +5699,13 @@
         <v>30824</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="M28" s="7">
         <v>69</v>
@@ -5711,13 +5714,13 @@
         <v>77484</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>378</v>
+        <v>389</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5732,13 +5735,13 @@
         <v>119069</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="H29" s="7">
         <v>130</v>
@@ -5747,13 +5750,13 @@
         <v>138549</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="M29" s="7">
         <v>237</v>
@@ -5762,13 +5765,13 @@
         <v>257617</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5783,13 +5786,13 @@
         <v>315030</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="H30" s="7">
         <v>340</v>
@@ -5798,13 +5801,13 @@
         <v>367702</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>395</v>
+        <v>403</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="M30" s="7">
         <v>624</v>
@@ -5813,13 +5816,13 @@
         <v>682732</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5875,7 +5878,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
     </row>
   </sheetData>
@@ -5894,7 +5897,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FE44A15-390B-4AA7-9007-55A4B267130E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8101069C-2CB3-4699-8D85-309ACBF27362}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5911,7 +5914,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6018,13 +6021,13 @@
         <v>1060</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>402</v>
+        <v>410</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -6033,13 +6036,13 @@
         <v>969</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>404</v>
+        <v>412</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>405</v>
+        <v>413</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -6048,13 +6051,13 @@
         <v>2028</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>406</v>
+        <v>363</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>407</v>
+        <v>414</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6069,13 +6072,13 @@
         <v>3953</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>408</v>
+        <v>415</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="H5" s="7">
         <v>6</v>
@@ -6084,13 +6087,13 @@
         <v>6028</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>411</v>
+        <v>418</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>218</v>
+        <v>419</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="M5" s="7">
         <v>10</v>
@@ -6099,13 +6102,13 @@
         <v>9980</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>412</v>
+        <v>26</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>241</v>
+        <v>184</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>413</v>
+        <v>420</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6120,13 +6123,13 @@
         <v>22083</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>414</v>
+        <v>421</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>415</v>
+        <v>422</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>416</v>
+        <v>295</v>
       </c>
       <c r="H6" s="7">
         <v>23</v>
@@ -6135,13 +6138,13 @@
         <v>25870</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="M6" s="7">
         <v>47</v>
@@ -6150,13 +6153,13 @@
         <v>47952</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6171,13 +6174,13 @@
         <v>1049</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>72</v>
+        <v>430</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -6192,7 +6195,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>424</v>
+        <v>178</v>
       </c>
       <c r="M7" s="7">
         <v>1</v>
@@ -6201,13 +6204,13 @@
         <v>1049</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>426</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6222,13 +6225,13 @@
         <v>43109</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>283</v>
+        <v>433</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="H8" s="7">
         <v>45</v>
@@ -6237,13 +6240,13 @@
         <v>50796</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>106</v>
+        <v>437</v>
       </c>
       <c r="M8" s="7">
         <v>90</v>
@@ -6252,13 +6255,13 @@
         <v>93905</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>431</v>
+        <v>438</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>432</v>
+        <v>439</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>433</v>
+        <v>440</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6273,13 +6276,13 @@
         <v>182752</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>434</v>
+        <v>441</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>435</v>
+        <v>442</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="H9" s="7">
         <v>221</v>
@@ -6288,13 +6291,13 @@
         <v>264079</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>438</v>
+        <v>445</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>439</v>
+        <v>446</v>
       </c>
       <c r="M9" s="7">
         <v>420</v>
@@ -6303,13 +6306,13 @@
         <v>446831</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>440</v>
+        <v>447</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>442</v>
+        <v>449</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6377,13 +6380,13 @@
         <v>5010</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>443</v>
+        <v>450</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>444</v>
+        <v>451</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>195</v>
+        <v>452</v>
       </c>
       <c r="H11" s="7">
         <v>6</v>
@@ -6392,13 +6395,13 @@
         <v>6459</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>38</v>
+        <v>454</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>446</v>
+        <v>455</v>
       </c>
       <c r="M11" s="7">
         <v>11</v>
@@ -6407,13 +6410,13 @@
         <v>11469</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6428,13 +6431,13 @@
         <v>12750</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>450</v>
+        <v>458</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>193</v>
+        <v>459</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
       <c r="H12" s="7">
         <v>11</v>
@@ -6443,13 +6446,13 @@
         <v>11164</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>233</v>
+        <v>461</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>452</v>
+        <v>462</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>453</v>
+        <v>463</v>
       </c>
       <c r="M12" s="7">
         <v>23</v>
@@ -6458,13 +6461,13 @@
         <v>23915</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>454</v>
+        <v>464</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>455</v>
+        <v>465</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6479,13 +6482,13 @@
         <v>24089</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>457</v>
+        <v>467</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>458</v>
+        <v>468</v>
       </c>
       <c r="H13" s="7">
         <v>23</v>
@@ -6494,13 +6497,13 @@
         <v>26284</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>459</v>
+        <v>469</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>235</v>
+        <v>470</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
       <c r="M13" s="7">
         <v>45</v>
@@ -6509,13 +6512,13 @@
         <v>50372</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>462</v>
+        <v>473</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6530,13 +6533,13 @@
         <v>8826</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>464</v>
+        <v>475</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>465</v>
+        <v>476</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>466</v>
+        <v>477</v>
       </c>
       <c r="H14" s="7">
         <v>9</v>
@@ -6545,13 +6548,13 @@
         <v>9503</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>467</v>
+        <v>478</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>468</v>
+        <v>199</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>29</v>
+        <v>479</v>
       </c>
       <c r="M14" s="7">
         <v>17</v>
@@ -6560,13 +6563,13 @@
         <v>18329</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>314</v>
+        <v>481</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>470</v>
+        <v>482</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6581,13 +6584,13 @@
         <v>60227</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>471</v>
+        <v>483</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>472</v>
+        <v>484</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>473</v>
+        <v>485</v>
       </c>
       <c r="H15" s="7">
         <v>40</v>
@@ -6596,13 +6599,13 @@
         <v>43595</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>474</v>
+        <v>486</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>475</v>
+        <v>353</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>476</v>
+        <v>487</v>
       </c>
       <c r="M15" s="7">
         <v>95</v>
@@ -6611,13 +6614,13 @@
         <v>103821</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>477</v>
+        <v>488</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>478</v>
+        <v>489</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>479</v>
+        <v>490</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -6632,13 +6635,13 @@
         <v>101797</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>480</v>
+        <v>491</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>481</v>
+        <v>492</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>482</v>
+        <v>493</v>
       </c>
       <c r="H16" s="7">
         <v>80</v>
@@ -6647,13 +6650,13 @@
         <v>100992</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>483</v>
+        <v>494</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>484</v>
+        <v>495</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>485</v>
+        <v>496</v>
       </c>
       <c r="M16" s="7">
         <v>179</v>
@@ -6662,13 +6665,13 @@
         <v>202789</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>486</v>
+        <v>497</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>487</v>
+        <v>498</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>488</v>
+        <v>499</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6724,7 +6727,7 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>10</v>
@@ -6736,13 +6739,13 @@
         <v>5455</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>489</v>
+        <v>500</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>490</v>
+        <v>501</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>491</v>
+        <v>502</v>
       </c>
       <c r="H18" s="7">
         <v>2</v>
@@ -6751,13 +6754,13 @@
         <v>2335</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>492</v>
+        <v>503</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
       <c r="M18" s="7">
         <v>6</v>
@@ -6766,13 +6769,13 @@
         <v>7790</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>495</v>
+        <v>366</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>496</v>
+        <v>506</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6787,13 +6790,13 @@
         <v>3685</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>497</v>
+        <v>507</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>498</v>
+        <v>415</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>499</v>
+        <v>508</v>
       </c>
       <c r="H19" s="7">
         <v>5</v>
@@ -6802,13 +6805,13 @@
         <v>5490</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>500</v>
+        <v>509</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>501</v>
+        <v>510</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>502</v>
+        <v>511</v>
       </c>
       <c r="M19" s="7">
         <v>8</v>
@@ -6817,13 +6820,13 @@
         <v>9176</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>503</v>
+        <v>512</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>193</v>
+        <v>513</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>504</v>
+        <v>514</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6838,13 +6841,13 @@
         <v>8576</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>505</v>
+        <v>515</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>506</v>
+        <v>516</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>507</v>
+        <v>517</v>
       </c>
       <c r="H20" s="7">
         <v>11</v>
@@ -6853,13 +6856,13 @@
         <v>11631</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>509</v>
+        <v>519</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>510</v>
+        <v>520</v>
       </c>
       <c r="M20" s="7">
         <v>20</v>
@@ -6868,13 +6871,13 @@
         <v>20207</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>511</v>
+        <v>521</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>512</v>
+        <v>522</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>513</v>
+        <v>523</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6889,13 +6892,13 @@
         <v>4821</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>514</v>
+        <v>290</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>447</v>
+        <v>524</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>515</v>
+        <v>525</v>
       </c>
       <c r="H21" s="7">
         <v>9</v>
@@ -6904,13 +6907,13 @@
         <v>9593</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>516</v>
+        <v>526</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>517</v>
+        <v>527</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>518</v>
+        <v>528</v>
       </c>
       <c r="M21" s="7">
         <v>13</v>
@@ -6919,13 +6922,13 @@
         <v>14414</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>519</v>
+        <v>529</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>520</v>
+        <v>530</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>521</v>
+        <v>531</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6940,13 +6943,13 @@
         <v>11834</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>522</v>
+        <v>305</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>523</v>
+        <v>532</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>159</v>
+        <v>533</v>
       </c>
       <c r="H22" s="7">
         <v>12</v>
@@ -6955,13 +6958,13 @@
         <v>12401</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>524</v>
+        <v>534</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>525</v>
+        <v>535</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>526</v>
+        <v>536</v>
       </c>
       <c r="M22" s="7">
         <v>22</v>
@@ -6970,13 +6973,13 @@
         <v>24234</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>527</v>
+        <v>537</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>528</v>
+        <v>538</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>529</v>
+        <v>539</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6991,13 +6994,13 @@
         <v>23452</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>530</v>
+        <v>540</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>531</v>
+        <v>541</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>532</v>
+        <v>542</v>
       </c>
       <c r="H23" s="7">
         <v>11</v>
@@ -7006,13 +7009,13 @@
         <v>13685</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>533</v>
+        <v>543</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>147</v>
+        <v>544</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>534</v>
+        <v>545</v>
       </c>
       <c r="M23" s="7">
         <v>32</v>
@@ -7021,13 +7024,13 @@
         <v>37137</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>535</v>
+        <v>546</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>536</v>
+        <v>547</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>537</v>
+        <v>548</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7095,13 +7098,13 @@
         <v>11525</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>538</v>
+        <v>549</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>539</v>
+        <v>550</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>540</v>
+        <v>551</v>
       </c>
       <c r="H25" s="7">
         <v>9</v>
@@ -7110,13 +7113,13 @@
         <v>9763</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>541</v>
+        <v>552</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>542</v>
+        <v>553</v>
       </c>
       <c r="M25" s="7">
         <v>19</v>
@@ -7125,13 +7128,13 @@
         <v>21287</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>543</v>
+        <v>554</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>544</v>
+        <v>365</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>545</v>
+        <v>555</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7146,13 +7149,13 @@
         <v>20388</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>546</v>
+        <v>556</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>547</v>
+        <v>450</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>548</v>
+        <v>557</v>
       </c>
       <c r="H26" s="7">
         <v>22</v>
@@ -7161,13 +7164,13 @@
         <v>22682</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>549</v>
+        <v>558</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>550</v>
+        <v>185</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>551</v>
+        <v>559</v>
       </c>
       <c r="M26" s="7">
         <v>41</v>
@@ -7176,13 +7179,13 @@
         <v>43071</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>552</v>
+        <v>560</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>447</v>
+        <v>561</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>553</v>
+        <v>562</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7197,13 +7200,13 @@
         <v>54747</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>554</v>
+        <v>563</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>555</v>
+        <v>564</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>556</v>
+        <v>565</v>
       </c>
       <c r="H27" s="7">
         <v>57</v>
@@ -7212,13 +7215,13 @@
         <v>63785</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>557</v>
+        <v>566</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>558</v>
+        <v>567</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>559</v>
+        <v>568</v>
       </c>
       <c r="M27" s="7">
         <v>112</v>
@@ -7227,13 +7230,13 @@
         <v>118532</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>560</v>
+        <v>569</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>561</v>
+        <v>570</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>562</v>
+        <v>571</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -7248,13 +7251,13 @@
         <v>14697</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>563</v>
+        <v>369</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>564</v>
+        <v>572</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>565</v>
+        <v>573</v>
       </c>
       <c r="H28" s="7">
         <v>18</v>
@@ -7263,13 +7266,13 @@
         <v>19095</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>566</v>
+        <v>574</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>567</v>
+        <v>244</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>568</v>
+        <v>83</v>
       </c>
       <c r="M28" s="7">
         <v>31</v>
@@ -7278,13 +7281,13 @@
         <v>33792</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>569</v>
+        <v>575</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>570</v>
+        <v>73</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>571</v>
+        <v>576</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7299,13 +7302,13 @@
         <v>115169</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>573</v>
+        <v>349</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="H29" s="7">
         <v>97</v>
@@ -7314,13 +7317,13 @@
         <v>106792</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>577</v>
+        <v>95</v>
       </c>
       <c r="M29" s="7">
         <v>207</v>
@@ -7329,13 +7332,13 @@
         <v>221961</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7350,13 +7353,13 @@
         <v>308002</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="H30" s="7">
         <v>312</v>
@@ -7365,13 +7368,13 @@
         <v>378756</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="M30" s="7">
         <v>631</v>
@@ -7380,13 +7383,13 @@
         <v>686758</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7442,7 +7445,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
     </row>
   </sheetData>
@@ -7461,7 +7464,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4453D1D-AB2D-45CB-B7C1-4586F079EEDB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08153DBC-64F7-4314-9C62-A6B76FB1DCFC}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7478,7 +7481,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7585,13 +7588,13 @@
         <v>3266</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="H4" s="7">
         <v>8</v>
@@ -7600,13 +7603,13 @@
         <v>5196</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>594</v>
+        <v>79</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>465</v>
+        <v>598</v>
       </c>
       <c r="M4" s="7">
         <v>11</v>
@@ -7615,13 +7618,13 @@
         <v>8462</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>38</v>
+        <v>599</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>596</v>
+        <v>600</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>597</v>
+        <v>601</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7636,13 +7639,13 @@
         <v>6861</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>600</v>
+        <v>356</v>
       </c>
       <c r="H5" s="7">
         <v>12</v>
@@ -7651,13 +7654,13 @@
         <v>6836</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="M5" s="7">
         <v>19</v>
@@ -7666,13 +7669,13 @@
         <v>13697</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7687,13 +7690,13 @@
         <v>41583</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>130</v>
+        <v>611</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>608</v>
+        <v>612</v>
       </c>
       <c r="H6" s="7">
         <v>101</v>
@@ -7702,13 +7705,13 @@
         <v>60264</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="M6" s="7">
         <v>150</v>
@@ -7717,13 +7720,13 @@
         <v>101846</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>612</v>
+        <v>535</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7738,13 +7741,13 @@
         <v>2285</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="H7" s="7">
         <v>5</v>
@@ -7753,13 +7756,13 @@
         <v>3846</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>22</v>
+        <v>246</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="M7" s="7">
         <v>7</v>
@@ -7768,13 +7771,13 @@
         <v>6131</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>617</v>
+        <v>419</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7789,13 +7792,13 @@
         <v>54024</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="H8" s="7">
         <v>178</v>
@@ -7804,13 +7807,13 @@
         <v>99870</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>249</v>
+        <v>625</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="M8" s="7">
         <v>249</v>
@@ -7819,13 +7822,13 @@
         <v>153894</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7840,13 +7843,13 @@
         <v>191180</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="H9" s="7">
         <v>676</v>
@@ -7855,13 +7858,13 @@
         <v>364782</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>631</v>
+        <v>634</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="M9" s="7">
         <v>966</v>
@@ -7870,13 +7873,13 @@
         <v>555962</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>633</v>
+        <v>636</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>634</v>
+        <v>637</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>635</v>
+        <v>638</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -7944,13 +7947,13 @@
         <v>16498</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="H11" s="7">
         <v>28</v>
@@ -7959,13 +7962,13 @@
         <v>22965</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>638</v>
+        <v>641</v>
       </c>
       <c r="M11" s="7">
         <v>42</v>
@@ -7974,13 +7977,13 @@
         <v>39463</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>639</v>
+        <v>510</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>356</v>
+        <v>42</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7995,13 +7998,13 @@
         <v>10542</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>42</v>
+        <v>643</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>642</v>
+        <v>645</v>
       </c>
       <c r="H12" s="7">
         <v>41</v>
@@ -8010,13 +8013,13 @@
         <v>30032</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>643</v>
+        <v>646</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>644</v>
+        <v>233</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="M12" s="7">
         <v>51</v>
@@ -8025,13 +8028,13 @@
         <v>40574</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -8046,13 +8049,13 @@
         <v>167214</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>651</v>
+        <v>118</v>
       </c>
       <c r="H13" s="7">
         <v>243</v>
@@ -8061,13 +8064,13 @@
         <v>167685</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="M13" s="7">
         <v>413</v>
@@ -8076,13 +8079,13 @@
         <v>334899</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>657</v>
+        <v>109</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -8100,10 +8103,10 @@
         <v>658</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>69</v>
+        <v>659</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="H14" s="7">
         <v>88</v>
@@ -8112,13 +8115,13 @@
         <v>67658</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>662</v>
+        <v>571</v>
       </c>
       <c r="M14" s="7">
         <v>138</v>
@@ -8127,13 +8130,13 @@
         <v>122234</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>500</v>
+        <v>509</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>663</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>373</v>
+        <v>664</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -8148,13 +8151,13 @@
         <v>110220</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>189</v>
+        <v>665</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="H15" s="7">
         <v>161</v>
@@ -8163,13 +8166,13 @@
         <v>99239</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>288</v>
+        <v>670</v>
       </c>
       <c r="M15" s="7">
         <v>286</v>
@@ -8178,13 +8181,13 @@
         <v>209459</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>668</v>
+        <v>671</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>669</v>
+        <v>672</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>670</v>
+        <v>673</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -8199,13 +8202,13 @@
         <v>180079</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>671</v>
+        <v>674</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>672</v>
+        <v>675</v>
       </c>
       <c r="H16" s="7">
         <v>347</v>
@@ -8214,13 +8217,13 @@
         <v>300592</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>673</v>
+        <v>676</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>675</v>
+        <v>678</v>
       </c>
       <c r="M16" s="7">
         <v>606</v>
@@ -8229,13 +8232,13 @@
         <v>480671</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>676</v>
+        <v>679</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>678</v>
+        <v>681</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -8291,7 +8294,7 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>10</v>
@@ -8303,13 +8306,13 @@
         <v>11447</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>679</v>
+        <v>424</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="H18" s="7">
         <v>13</v>
@@ -8318,13 +8321,13 @@
         <v>8707</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>683</v>
+        <v>15</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="M18" s="7">
         <v>24</v>
@@ -8333,13 +8336,13 @@
         <v>20154</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>317</v>
+        <v>685</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -8354,13 +8357,13 @@
         <v>4274</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>424</v>
+        <v>178</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="H19" s="7">
         <v>14</v>
@@ -8369,13 +8372,13 @@
         <v>11198</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="M19" s="7">
         <v>19</v>
@@ -8384,13 +8387,13 @@
         <v>15472</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -8405,13 +8408,13 @@
         <v>59683</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="H20" s="7">
         <v>92</v>
@@ -8420,13 +8423,13 @@
         <v>64632</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="M20" s="7">
         <v>157</v>
@@ -8435,13 +8438,13 @@
         <v>124315</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8456,13 +8459,13 @@
         <v>38195</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="H21" s="7">
         <v>61</v>
@@ -8471,13 +8474,13 @@
         <v>46761</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="M21" s="7">
         <v>98</v>
@@ -8486,13 +8489,13 @@
         <v>84957</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -8507,13 +8510,13 @@
         <v>29898</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>710</v>
+        <v>51</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="H22" s="7">
         <v>52</v>
@@ -8522,13 +8525,13 @@
         <v>32926</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>127</v>
+        <v>714</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="M22" s="7">
         <v>88</v>
@@ -8537,13 +8540,13 @@
         <v>62824</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8558,13 +8561,13 @@
         <v>81994</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="H23" s="7">
         <v>102</v>
@@ -8573,13 +8576,13 @@
         <v>54528</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="M23" s="7">
         <v>215</v>
@@ -8588,13 +8591,13 @@
         <v>136522</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8662,13 +8665,13 @@
         <v>31211</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>727</v>
+        <v>561</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="H25" s="7">
         <v>49</v>
@@ -8677,13 +8680,13 @@
         <v>36867</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="M25" s="7">
         <v>77</v>
@@ -8692,13 +8695,13 @@
         <v>68079</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>452</v>
+        <v>734</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>403</v>
+        <v>430</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8713,13 +8716,13 @@
         <v>21677</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="H26" s="7">
         <v>67</v>
@@ -8728,13 +8731,13 @@
         <v>48066</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="M26" s="7">
         <v>89</v>
@@ -8743,13 +8746,13 @@
         <v>69743</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>178</v>
+        <v>740</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>738</v>
+        <v>199</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8764,13 +8767,13 @@
         <v>268479</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="H27" s="7">
         <v>436</v>
@@ -8779,13 +8782,13 @@
         <v>292581</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>744</v>
+        <v>252</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>115</v>
+        <v>746</v>
       </c>
       <c r="M27" s="7">
         <v>720</v>
@@ -8794,13 +8797,13 @@
         <v>561060</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -8815,13 +8818,13 @@
         <v>95055</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="H28" s="7">
         <v>154</v>
@@ -8830,13 +8833,13 @@
         <v>118266</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>751</v>
+        <v>567</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="M28" s="7">
         <v>243</v>
@@ -8845,10 +8848,10 @@
         <v>213321</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>754</v>
+        <v>330</v>
       </c>
       <c r="Q28" s="7" t="s">
         <v>755</v>
@@ -8872,7 +8875,7 @@
         <v>757</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="H29" s="7">
         <v>391</v>
@@ -8881,13 +8884,13 @@
         <v>232035</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>758</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>387</v>
+        <v>759</v>
       </c>
       <c r="M29" s="7">
         <v>623</v>
@@ -8896,13 +8899,13 @@
         <v>426177</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8917,13 +8920,13 @@
         <v>453253</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="H30" s="7">
         <v>1125</v>
@@ -8932,13 +8935,13 @@
         <v>719902</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="M30" s="7">
         <v>1787</v>
@@ -8947,13 +8950,13 @@
         <v>1173156</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -9009,7 +9012,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P37AS1-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P37AS1-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{418516A5-A4A2-4468-A703-359AC9325FBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E2B28E95-F0B3-4C8C-B859-41F45A645B03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A43868FF-47D0-42F3-96A0-CB363A9AAD1C}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B7526324-5B83-43DF-B754-222D0CC3C56B}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1216" uniqueCount="771">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1216" uniqueCount="748">
   <si>
     <t>Población según la persona que le indicó que se vacunase de la gripe / respuesta 1 en 2007 (Tasa respuesta: 14,84%)</t>
   </si>
@@ -86,13 +86,13 @@
     <t>0,59%</t>
   </si>
   <si>
-    <t>2,12%</t>
+    <t>1,99%</t>
   </si>
   <si>
     <t>0,35%</t>
   </si>
   <si>
-    <t>1,27%</t>
+    <t>1,21%</t>
   </si>
   <si>
     <t>El médico, por otras razones</t>
@@ -101,2257 +101,2188 @@
     <t>0,7%</t>
   </si>
   <si>
-    <t>2,38%</t>
+    <t>2,23%</t>
   </si>
   <si>
     <t>0,77%</t>
   </si>
   <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
   </si>
   <si>
     <t>0,74%</t>
   </si>
   <si>
-    <t>0,29%</t>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>Yo solicité la vacuna porque prefiero estar vacunado</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>Me ponen la vacuna en la empresa/ centro de estudio</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>El médico, por mis enfermedades</t>
+  </si>
+  <si>
+    <t>26,32%</t>
+  </si>
+  <si>
+    <t>21,27%</t>
+  </si>
+  <si>
+    <t>31,88%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>23,86%</t>
+  </si>
+  <si>
+    <t>El médico, por mi edad</t>
+  </si>
+  <si>
+    <t>58,74%</t>
+  </si>
+  <si>
+    <t>53,2%</t>
+  </si>
+  <si>
+    <t>64,8%</t>
+  </si>
+  <si>
+    <t>72,51%</t>
+  </si>
+  <si>
+    <t>67,6%</t>
+  </si>
+  <si>
+    <t>76,87%</t>
+  </si>
+  <si>
+    <t>66,85%</t>
+  </si>
+  <si>
+    <t>63,28%</t>
+  </si>
+  <si>
+    <t>70,51%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>29,27%</t>
+  </si>
+  <si>
+    <t>20,88%</t>
+  </si>
+  <si>
+    <t>38,37%</t>
+  </si>
+  <si>
+    <t>33,4%</t>
+  </si>
+  <si>
+    <t>24,11%</t>
+  </si>
+  <si>
+    <t>43,68%</t>
+  </si>
+  <si>
+    <t>31,19%</t>
+  </si>
+  <si>
+    <t>24,65%</t>
+  </si>
+  <si>
+    <t>37,75%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>22,13%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>24,06%</t>
+  </si>
+  <si>
+    <t>17,12%</t>
+  </si>
+  <si>
+    <t>32,08%</t>
+  </si>
+  <si>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>35,15%</t>
+  </si>
+  <si>
+    <t>24,62%</t>
+  </si>
+  <si>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>31,01%</t>
+  </si>
+  <si>
+    <t>28,26%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>36,73%</t>
+  </si>
+  <si>
+    <t>29,33%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>40,44%</t>
+  </si>
+  <si>
+    <t>28,76%</t>
+  </si>
+  <si>
+    <t>22,61%</t>
+  </si>
+  <si>
+    <t>35,31%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>37,14%</t>
+  </si>
+  <si>
+    <t>25,11%</t>
+  </si>
+  <si>
+    <t>50,88%</t>
+  </si>
+  <si>
+    <t>38,69%</t>
+  </si>
+  <si>
+    <t>24,41%</t>
+  </si>
+  <si>
+    <t>54,47%</t>
+  </si>
+  <si>
+    <t>37,78%</t>
+  </si>
+  <si>
+    <t>28,35%</t>
+  </si>
+  <si>
+    <t>48,07%</t>
+  </si>
+  <si>
+    <t>21,21%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>33,83%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>27,3%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>32,86%</t>
+  </si>
+  <si>
+    <t>34,87%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>49,68%</t>
+  </si>
+  <si>
+    <t>26,5%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>37,24%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>23,99%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>24,21%</t>
+  </si>
+  <si>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>28,31%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>20,41%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>23,01%</t>
+  </si>
+  <si>
+    <t>45,66%</t>
+  </si>
+  <si>
+    <t>40,9%</t>
+  </si>
+  <si>
+    <t>49,81%</t>
+  </si>
+  <si>
+    <t>61,3%</t>
+  </si>
+  <si>
+    <t>56,91%</t>
+  </si>
+  <si>
+    <t>65,59%</t>
+  </si>
+  <si>
+    <t>54,15%</t>
+  </si>
+  <si>
+    <t>50,96%</t>
+  </si>
+  <si>
+    <t>57,15%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según la persona que le indicó que se vacunase de la gripe / respuesta 1 en 2012 (Tasa respuesta: 17,52%)</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>22,86%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>16,47%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>69,57%</t>
+  </si>
+  <si>
+    <t>64,05%</t>
+  </si>
+  <si>
+    <t>74,44%</t>
+  </si>
+  <si>
+    <t>71,46%</t>
+  </si>
+  <si>
+    <t>67,34%</t>
+  </si>
+  <si>
+    <t>75,64%</t>
+  </si>
+  <si>
+    <t>70,64%</t>
+  </si>
+  <si>
+    <t>66,82%</t>
+  </si>
+  <si>
+    <t>73,76%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>28,42%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>34,53%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>24,56%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>28,9%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>23,1%</t>
+  </si>
+  <si>
+    <t>16,98%</t>
+  </si>
+  <si>
+    <t>29,46%</t>
+  </si>
+  <si>
+    <t>27,61%</t>
+  </si>
+  <si>
+    <t>21,07%</t>
+  </si>
+  <si>
+    <t>36,6%</t>
+  </si>
+  <si>
+    <t>25,0%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>29,77%</t>
+  </si>
+  <si>
+    <t>29,73%</t>
+  </si>
+  <si>
+    <t>23,43%</t>
+  </si>
+  <si>
+    <t>36,78%</t>
+  </si>
+  <si>
+    <t>30,46%</t>
+  </si>
+  <si>
+    <t>23,23%</t>
+  </si>
+  <si>
+    <t>38,78%</t>
+  </si>
+  <si>
+    <t>30,04%</t>
+  </si>
+  <si>
+    <t>25,41%</t>
+  </si>
+  <si>
+    <t>35,7%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>24,23%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>39,67%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>32,89%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>30,56%</t>
+  </si>
+  <si>
+    <t>33,55%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>48,22%</t>
+  </si>
+  <si>
+    <t>29,79%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>45,42%</t>
+  </si>
+  <si>
+    <t>31,89%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>43,6%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>24,87%</t>
+  </si>
+  <si>
+    <t>29,62%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>47,78%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>29,43%</t>
+  </si>
+  <si>
+    <t>28,44%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>44,91%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>27,16%</t>
+  </si>
+  <si>
+    <t>21,34%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>31,77%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>23,39%</t>
+  </si>
+  <si>
+    <t>21,75%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>24,95%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>23,35%</t>
+  </si>
+  <si>
+    <t>52,14%</t>
+  </si>
+  <si>
+    <t>47,66%</t>
+  </si>
+  <si>
+    <t>56,27%</t>
+  </si>
+  <si>
+    <t>57,72%</t>
+  </si>
+  <si>
+    <t>53,88%</t>
+  </si>
+  <si>
+    <t>61,77%</t>
+  </si>
+  <si>
+    <t>55,0%</t>
+  </si>
+  <si>
+    <t>52,11%</t>
+  </si>
+  <si>
+    <t>57,89%</t>
+  </si>
+  <si>
+    <t>Población según la persona que le indicó que se vacunase de la gripe / respuesta 1 en 2016 (Tasa respuesta: 15,91%)</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
   </si>
   <si>
     <t>1,66%</t>
   </si>
   <si>
-    <t>Yo solicité la vacuna porque prefiero estar vacunado</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>22,11%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>71,95%</t>
+  </si>
+  <si>
+    <t>65,99%</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>75,94%</t>
+  </si>
+  <si>
+    <t>70,73%</t>
+  </si>
+  <si>
+    <t>80,46%</t>
+  </si>
+  <si>
+    <t>74,26%</t>
+  </si>
+  <si>
+    <t>70,71%</t>
+  </si>
+  <si>
+    <t>77,73%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>28,32%</t>
+  </si>
+  <si>
+    <t>22,24%</t>
+  </si>
+  <si>
+    <t>34,85%</t>
+  </si>
+  <si>
+    <t>22,02%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>28,6%</t>
+  </si>
+  <si>
+    <t>25,28%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>30,48%</t>
+  </si>
+  <si>
+    <t>47,86%</t>
+  </si>
+  <si>
+    <t>40,46%</t>
+  </si>
+  <si>
+    <t>55,15%</t>
+  </si>
+  <si>
+    <t>51,01%</t>
+  </si>
+  <si>
+    <t>42,93%</t>
+  </si>
+  <si>
+    <t>58,22%</t>
+  </si>
+  <si>
+    <t>49,38%</t>
+  </si>
+  <si>
+    <t>44,65%</t>
+  </si>
+  <si>
+    <t>54,31%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>21,37%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>27,14%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>33,25%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>26,38%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>31,26%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>33,49%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>36,7%</t>
+  </si>
+  <si>
+    <t>21,45%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>30,02%</t>
+  </si>
+  <si>
+    <t>40,56%</t>
+  </si>
+  <si>
+    <t>28,01%</t>
+  </si>
+  <si>
+    <t>54,95%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>41,01%</t>
+  </si>
+  <si>
+    <t>32,88%</t>
+  </si>
+  <si>
+    <t>44,06%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>21,96%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>25,86%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>22,21%</t>
+  </si>
+  <si>
+    <t>58,72%</t>
+  </si>
+  <si>
+    <t>54,08%</t>
+  </si>
+  <si>
+    <t>62,61%</t>
+  </si>
+  <si>
+    <t>63,03%</t>
+  </si>
+  <si>
+    <t>58,86%</t>
+  </si>
+  <si>
+    <t>66,95%</t>
+  </si>
+  <si>
+    <t>61,02%</t>
+  </si>
+  <si>
+    <t>58,0%</t>
+  </si>
+  <si>
+    <t>63,85%</t>
+  </si>
+  <si>
+    <t>Población según la persona que le indicó que se vacunase de la gripe / respuesta 1 en 2023 (Tasa respuesta: 40,6%)</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>18,32%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>63,9%</t>
+  </si>
+  <si>
+    <t>58,94%</t>
+  </si>
+  <si>
+    <t>68,67%</t>
+  </si>
+  <si>
+    <t>67,45%</t>
+  </si>
+  <si>
+    <t>64,25%</t>
+  </si>
+  <si>
+    <t>70,79%</t>
+  </si>
+  <si>
+    <t>66,19%</t>
+  </si>
+  <si>
+    <t>63,61%</t>
+  </si>
+  <si>
+    <t>68,61%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>31,02%</t>
+  </si>
+  <si>
+    <t>27,29%</t>
+  </si>
+  <si>
+    <t>35,28%</t>
+  </si>
+  <si>
+    <t>24,37%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>30,73%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>30,81%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>17,15%</t>
+  </si>
+  <si>
+    <t>23,67%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>37,23%</t>
+  </si>
+  <si>
+    <t>31,46%</t>
+  </si>
+  <si>
+    <t>65,96%</t>
+  </si>
+  <si>
+    <t>39,16%</t>
+  </si>
+  <si>
+    <t>32,36%</t>
+  </si>
+  <si>
+    <t>56,39%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>26,47%</t>
+  </si>
+  <si>
+    <t>32,68%</t>
+  </si>
+  <si>
+    <t>29,55%</t>
+  </si>
+  <si>
+    <t>24,51%</t>
+  </si>
+  <si>
+    <t>34,95%</t>
+  </si>
+  <si>
+    <t>27,98%</t>
+  </si>
+  <si>
+    <t>24,18%</t>
+  </si>
+  <si>
+    <t>31,91%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>22,16%</t>
+  </si>
+  <si>
+    <t>21,38%</t>
   </si>
   <si>
     <t>16,55%</t>
   </si>
   <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>Me ponen la vacuna en la empresa/ centro de estudio</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>El médico, por mis enfermedades</t>
-  </si>
-  <si>
-    <t>26,32%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>31,97%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
+    <t>26,51%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
   </si>
   <si>
     <t>13,26%</t>
   </si>
   <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>23,79%</t>
-  </si>
-  <si>
-    <t>El médico, por mi edad</t>
-  </si>
-  <si>
-    <t>58,74%</t>
-  </si>
-  <si>
-    <t>53,23%</t>
-  </si>
-  <si>
-    <t>64,34%</t>
-  </si>
-  <si>
-    <t>72,51%</t>
-  </si>
-  <si>
-    <t>67,68%</t>
-  </si>
-  <si>
-    <t>76,81%</t>
-  </si>
-  <si>
-    <t>66,85%</t>
-  </si>
-  <si>
-    <t>63,35%</t>
-  </si>
-  <si>
-    <t>70,35%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>29,27%</t>
-  </si>
-  <si>
-    <t>20,84%</t>
-  </si>
-  <si>
-    <t>39,48%</t>
-  </si>
-  <si>
-    <t>33,4%</t>
-  </si>
-  <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>43,49%</t>
-  </si>
-  <si>
-    <t>31,19%</t>
-  </si>
-  <si>
-    <t>24,94%</t>
-  </si>
-  <si>
-    <t>38,15%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>24,06%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>32,28%</t>
-  </si>
-  <si>
-    <t>25,26%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>34,39%</t>
-  </si>
-  <si>
-    <t>24,62%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>36,36%</t>
   </si>
   <si>
     <t>30,75%</t>
   </si>
   <si>
-    <t>28,26%</t>
-  </si>
-  <si>
-    <t>20,62%</t>
-  </si>
-  <si>
-    <t>37,95%</t>
-  </si>
-  <si>
-    <t>29,33%</t>
-  </si>
-  <si>
-    <t>20,97%</t>
-  </si>
-  <si>
-    <t>39,55%</t>
-  </si>
-  <si>
-    <t>28,76%</t>
-  </si>
-  <si>
-    <t>22,92%</t>
-  </si>
-  <si>
-    <t>35,6%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>37,14%</t>
-  </si>
-  <si>
-    <t>24,76%</t>
-  </si>
-  <si>
-    <t>50,49%</t>
-  </si>
-  <si>
-    <t>38,69%</t>
-  </si>
-  <si>
-    <t>24,08%</t>
-  </si>
-  <si>
-    <t>53,26%</t>
-  </si>
-  <si>
-    <t>37,78%</t>
-  </si>
-  <si>
-    <t>28,16%</t>
-  </si>
-  <si>
-    <t>47,2%</t>
-  </si>
-  <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>33,38%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>28,11%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>27,11%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>29,49%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>33,53%</t>
-  </si>
-  <si>
-    <t>34,87%</t>
-  </si>
-  <si>
-    <t>22,7%</t>
-  </si>
-  <si>
-    <t>50,22%</t>
-  </si>
-  <si>
-    <t>26,5%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>36,46%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>24,21%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>28,22%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>20,36%</t>
-  </si>
-  <si>
-    <t>20,41%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>23,18%</t>
-  </si>
-  <si>
-    <t>45,66%</t>
-  </si>
-  <si>
-    <t>41,18%</t>
-  </si>
-  <si>
-    <t>50,52%</t>
-  </si>
-  <si>
-    <t>61,3%</t>
-  </si>
-  <si>
-    <t>56,91%</t>
-  </si>
-  <si>
-    <t>65,28%</t>
-  </si>
-  <si>
-    <t>54,15%</t>
-  </si>
-  <si>
-    <t>50,89%</t>
-  </si>
-  <si>
-    <t>57,51%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según la persona que le indicó que se vacunase de la gripe / respuesta 1 en 2012 (Tasa respuesta: 17,52%)</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>23,61%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>69,57%</t>
-  </si>
-  <si>
-    <t>64,24%</t>
-  </si>
-  <si>
-    <t>74,51%</t>
-  </si>
-  <si>
-    <t>71,46%</t>
-  </si>
-  <si>
-    <t>66,88%</t>
-  </si>
-  <si>
-    <t>75,43%</t>
-  </si>
-  <si>
-    <t>70,64%</t>
-  </si>
-  <si>
-    <t>67,3%</t>
-  </si>
-  <si>
-    <t>73,72%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>16,47%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>28,42%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>35,79%</t>
-  </si>
-  <si>
-    <t>17,36%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>24,39%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>19,41%</t>
-  </si>
-  <si>
-    <t>29,1%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>23,1%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>29,53%</t>
-  </si>
-  <si>
-    <t>27,61%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>36,05%</t>
-  </si>
-  <si>
-    <t>25,0%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>30,49%</t>
-  </si>
-  <si>
-    <t>29,73%</t>
-  </si>
-  <si>
-    <t>23,51%</t>
-  </si>
-  <si>
-    <t>36,65%</t>
-  </si>
-  <si>
-    <t>30,46%</t>
-  </si>
-  <si>
-    <t>22,96%</t>
-  </si>
-  <si>
-    <t>38,47%</t>
-  </si>
-  <si>
-    <t>30,04%</t>
-  </si>
-  <si>
-    <t>24,71%</t>
-  </si>
-  <si>
-    <t>35,25%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>25,1%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>24,23%</t>
-  </si>
-  <si>
-    <t>39,25%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>32,64%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>30,79%</t>
-  </si>
-  <si>
-    <t>33,55%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>50,24%</t>
-  </si>
-  <si>
-    <t>29,79%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>47,42%</t>
-  </si>
-  <si>
-    <t>31,89%</t>
-  </si>
-  <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>43,2%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>25,12%</t>
-  </si>
-  <si>
-    <t>29,62%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>46,55%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>28,96%</t>
-  </si>
-  <si>
-    <t>28,44%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>43,23%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>26,75%</t>
-  </si>
-  <si>
-    <t>21,34%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>31,99%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>20,88%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>23,16%</t>
-  </si>
-  <si>
-    <t>21,75%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>25,5%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>23,54%</t>
-  </si>
-  <si>
-    <t>52,14%</t>
-  </si>
-  <si>
-    <t>47,83%</t>
-  </si>
-  <si>
-    <t>56,69%</t>
-  </si>
-  <si>
-    <t>57,72%</t>
-  </si>
-  <si>
-    <t>53,59%</t>
-  </si>
-  <si>
-    <t>61,48%</t>
-  </si>
-  <si>
-    <t>55,0%</t>
-  </si>
-  <si>
-    <t>51,95%</t>
-  </si>
-  <si>
-    <t>57,71%</t>
-  </si>
-  <si>
-    <t>Población según la persona que le indicó que se vacunase de la gripe / respuesta 1 en 2016 (Tasa respuesta: 15,91%)</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>22,18%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>19,13%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
+    <t>42,38%</t>
+  </si>
+  <si>
+    <t>24,93%</t>
+  </si>
+  <si>
+    <t>20,33%</t>
+  </si>
+  <si>
+    <t>29,26%</t>
+  </si>
+  <si>
+    <t>26,97%</t>
+  </si>
+  <si>
+    <t>34,6%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>25,24%</t>
+  </si>
+  <si>
+    <t>27,86%</t>
+  </si>
+  <si>
+    <t>20,21%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>22,63%</t>
+  </si>
+  <si>
+    <t>22,34%</t>
   </si>
   <si>
     <t>18,79%</t>
   </si>
   <si>
-    <t>71,95%</t>
-  </si>
-  <si>
-    <t>66,15%</t>
-  </si>
-  <si>
-    <t>76,62%</t>
-  </si>
-  <si>
-    <t>75,94%</t>
-  </si>
-  <si>
-    <t>71,09%</t>
-  </si>
-  <si>
-    <t>80,49%</t>
-  </si>
-  <si>
-    <t>74,26%</t>
-  </si>
-  <si>
-    <t>70,09%</t>
-  </si>
-  <si>
-    <t>77,49%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>18,83%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>28,32%</t>
-  </si>
-  <si>
-    <t>22,48%</t>
-  </si>
-  <si>
-    <t>34,66%</t>
-  </si>
-  <si>
-    <t>22,02%</t>
-  </si>
-  <si>
-    <t>28,4%</t>
-  </si>
-  <si>
-    <t>25,28%</t>
-  </si>
-  <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>29,56%</t>
-  </si>
-  <si>
-    <t>47,86%</t>
-  </si>
-  <si>
-    <t>41,0%</t>
-  </si>
-  <si>
-    <t>54,28%</t>
-  </si>
-  <si>
-    <t>51,01%</t>
-  </si>
-  <si>
-    <t>43,19%</t>
-  </si>
-  <si>
-    <t>58,75%</t>
-  </si>
-  <si>
-    <t>49,38%</t>
-  </si>
-  <si>
-    <t>44,46%</t>
-  </si>
-  <si>
-    <t>55,23%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>22,05%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>20,77%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>25,94%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>33,46%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>25,67%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>31,12%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>35,39%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>35,62%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>30,07%</t>
-  </si>
-  <si>
-    <t>40,56%</t>
-  </si>
-  <si>
-    <t>25,76%</t>
-  </si>
-  <si>
-    <t>53,79%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>41,31%</t>
-  </si>
-  <si>
-    <t>32,88%</t>
-  </si>
-  <si>
-    <t>23,12%</t>
-  </si>
-  <si>
-    <t>42,19%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
+    <t>24,17%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
   </si>
   <si>
     <t>8,17%</t>
   </si>
   <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>21,96%</t>
-  </si>
-  <si>
-    <t>25,57%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>19,72%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>22,27%</t>
-  </si>
-  <si>
-    <t>58,72%</t>
-  </si>
-  <si>
-    <t>54,37%</t>
-  </si>
-  <si>
-    <t>62,67%</t>
-  </si>
-  <si>
-    <t>63,03%</t>
-  </si>
-  <si>
-    <t>59,05%</t>
-  </si>
-  <si>
-    <t>67,19%</t>
-  </si>
-  <si>
-    <t>61,02%</t>
-  </si>
-  <si>
-    <t>57,84%</t>
-  </si>
-  <si>
-    <t>63,92%</t>
-  </si>
-  <si>
-    <t>Población según la persona que le indicó que se vacunase de la gripe / respuesta 1 en 2023 (Tasa respuesta: 40,6%)</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>21,83%</t>
-  </si>
-  <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>21,28%</t>
-  </si>
-  <si>
-    <t>18,32%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>63,9%</t>
-  </si>
-  <si>
-    <t>58,88%</t>
-  </si>
-  <si>
-    <t>68,76%</t>
-  </si>
-  <si>
-    <t>67,45%</t>
-  </si>
-  <si>
-    <t>64,54%</t>
-  </si>
-  <si>
-    <t>70,46%</t>
-  </si>
-  <si>
-    <t>66,19%</t>
-  </si>
-  <si>
-    <t>63,6%</t>
-  </si>
-  <si>
-    <t>68,91%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>31,02%</t>
-  </si>
-  <si>
-    <t>27,16%</t>
-  </si>
-  <si>
-    <t>24,37%</t>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>20,65%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
   </si>
   <si>
     <t>14,01%</t>
   </si>
   <si>
-    <t>30,22%</t>
-  </si>
-  <si>
-    <t>27,29%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>17,14%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>29,92%</t>
-  </si>
-  <si>
-    <t>37,3%</t>
-  </si>
-  <si>
-    <t>43,68%</t>
-  </si>
-  <si>
-    <t>31,55%</t>
-  </si>
-  <si>
-    <t>68,55%</t>
-  </si>
-  <si>
-    <t>39,16%</t>
-  </si>
-  <si>
-    <t>32,3%</t>
-  </si>
-  <si>
-    <t>55,83%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>26,47%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>32,12%</t>
-  </si>
-  <si>
-    <t>29,55%</t>
-  </si>
-  <si>
-    <t>24,41%</t>
-  </si>
-  <si>
-    <t>34,91%</t>
-  </si>
-  <si>
-    <t>27,98%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>32,08%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>22,52%</t>
-  </si>
-  <si>
-    <t>21,38%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>26,83%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>22,69%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>36,36%</t>
-  </si>
-  <si>
-    <t>30,61%</t>
-  </si>
-  <si>
-    <t>42,21%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>30,19%</t>
-  </si>
-  <si>
-    <t>30,73%</t>
-  </si>
-  <si>
-    <t>26,91%</t>
-  </si>
-  <si>
-    <t>34,58%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>25,24%</t>
-  </si>
-  <si>
-    <t>22,68%</t>
-  </si>
-  <si>
-    <t>28,02%</t>
-  </si>
-  <si>
-    <t>20,21%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>22,34%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
+    <t>18,51%</t>
   </si>
   <si>
     <t>42,61%</t>
   </si>
   <si>
-    <t>39,68%</t>
-  </si>
-  <si>
-    <t>45,3%</t>
+    <t>39,89%</t>
+  </si>
+  <si>
+    <t>45,44%</t>
   </si>
   <si>
     <t>49,73%</t>
   </si>
   <si>
-    <t>44,68%</t>
-  </si>
-  <si>
-    <t>63,3%</t>
+    <t>44,72%</t>
+  </si>
+  <si>
+    <t>62,2%</t>
   </si>
   <si>
     <t>46,71%</t>
   </si>
   <si>
-    <t>43,71%</t>
-  </si>
-  <si>
-    <t>54,99%</t>
+    <t>43,75%</t>
   </si>
 </sst>
 </file>
@@ -2763,7 +2694,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D7F35DD-FA01-40A7-9636-D6543D7C73E0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8C9C67D-6015-42C1-AD51-75489C7211DA}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3043,10 +2974,10 @@
         <v>38</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H7" s="7">
         <v>3</v>
@@ -3055,13 +2986,13 @@
         <v>2821</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M7" s="7">
         <v>9</v>
@@ -3070,10 +3001,10 @@
         <v>8671</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>45</v>
@@ -3276,13 +3207,13 @@
         <v>4444</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3297,13 +3228,13 @@
         <v>1841</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H12" s="7">
         <v>3</v>
@@ -3312,13 +3243,13 @@
         <v>2980</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="M12" s="7">
         <v>5</v>
@@ -3327,13 +3258,13 @@
         <v>4820</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3348,13 +3279,13 @@
         <v>33565</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="H13" s="7">
         <v>30</v>
@@ -3363,13 +3294,13 @@
         <v>33382</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="M13" s="7">
         <v>61</v>
@@ -3378,13 +3309,13 @@
         <v>66947</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3399,13 +3330,13 @@
         <v>15705</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="H14" s="7">
         <v>8</v>
@@ -3414,13 +3345,13 @@
         <v>8148</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>35</v>
+        <v>94</v>
       </c>
       <c r="K14" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="M14" s="7">
         <v>23</v>
@@ -3429,13 +3360,13 @@
         <v>23853</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3450,13 +3381,13 @@
         <v>27585</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="H15" s="7">
         <v>25</v>
@@ -3465,13 +3396,13 @@
         <v>25247</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="M15" s="7">
         <v>53</v>
@@ -3480,13 +3411,13 @@
         <v>52832</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3501,13 +3432,13 @@
         <v>32399</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="H16" s="7">
         <v>25</v>
@@ -3516,13 +3447,13 @@
         <v>29316</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="M16" s="7">
         <v>57</v>
@@ -3531,13 +3462,13 @@
         <v>61715</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3593,7 +3524,7 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>10</v>
@@ -3611,7 +3542,7 @@
         <v>12</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H18" s="7">
         <v>1</v>
@@ -3620,13 +3551,13 @@
         <v>981</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M18" s="7">
         <v>1</v>
@@ -3635,13 +3566,13 @@
         <v>981</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="P18" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3656,13 +3587,13 @@
         <v>3646</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -3671,13 +3602,13 @@
         <v>1236</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="M19" s="7">
         <v>4</v>
@@ -3686,13 +3617,13 @@
         <v>4881</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3707,13 +3638,13 @@
         <v>23284</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="H20" s="7">
         <v>16</v>
@@ -3722,13 +3653,13 @@
         <v>17335</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="M20" s="7">
         <v>39</v>
@@ -3737,13 +3668,13 @@
         <v>40619</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3758,13 +3689,13 @@
         <v>13299</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="H21" s="7">
         <v>7</v>
@@ -3773,13 +3704,13 @@
         <v>6917</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="K21" s="7" t="s">
-        <v>146</v>
-      </c>
       <c r="L21" s="7" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="M21" s="7">
         <v>20</v>
@@ -3788,13 +3719,13 @@
         <v>20216</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3809,13 +3740,13 @@
         <v>9604</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>153</v>
+        <v>82</v>
       </c>
       <c r="H22" s="7">
         <v>3</v>
@@ -3824,13 +3755,13 @@
         <v>2717</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="M22" s="7">
         <v>11</v>
@@ -3839,13 +3770,13 @@
         <v>12321</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3860,13 +3791,13 @@
         <v>12860</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="H23" s="7">
         <v>15</v>
@@ -3875,13 +3806,13 @@
         <v>15625</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="M23" s="7">
         <v>26</v>
@@ -3890,13 +3821,13 @@
         <v>28486</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3964,13 +3895,13 @@
         <v>3563</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>169</v>
+        <v>73</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>170</v>
+        <v>42</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="H25" s="7">
         <v>4</v>
@@ -3979,13 +3910,13 @@
         <v>4172</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="M25" s="7">
         <v>8</v>
@@ -3994,13 +3925,13 @@
         <v>7735</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4015,13 +3946,13 @@
         <v>7384</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="H26" s="7">
         <v>7</v>
@@ -4030,13 +3961,13 @@
         <v>7219</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>181</v>
+        <v>14</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="M26" s="7">
         <v>14</v>
@@ -4045,13 +3976,13 @@
         <v>14603</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4066,13 +3997,13 @@
         <v>89856</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="H27" s="7">
         <v>79</v>
@@ -4081,13 +4012,13 @@
         <v>85822</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="M27" s="7">
         <v>166</v>
@@ -4096,13 +4027,13 @@
         <v>175678</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>192</v>
+        <v>153</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>193</v>
+        <v>96</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -4117,13 +4048,13 @@
         <v>34855</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="H28" s="7">
         <v>18</v>
@@ -4132,13 +4063,13 @@
         <v>17885</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>199</v>
+        <v>38</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="M28" s="7">
         <v>52</v>
@@ -4147,13 +4078,13 @@
         <v>52740</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4168,13 +4099,13 @@
         <v>109020</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="H29" s="7">
         <v>92</v>
@@ -4183,13 +4114,13 @@
         <v>92089</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="M29" s="7">
         <v>201</v>
@@ -4198,13 +4129,13 @@
         <v>201109</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4219,13 +4150,13 @@
         <v>205560</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="H30" s="7">
         <v>310</v>
@@ -4234,13 +4165,13 @@
         <v>328155</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="M30" s="7">
         <v>525</v>
@@ -4249,13 +4180,13 @@
         <v>533716</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4311,7 +4242,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>
@@ -4330,7 +4261,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{462FDAA4-0F4E-4AEA-8D48-6D71BD0DAE6E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4D84987-3EE6-440E-B799-DF07FFD227B6}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4347,7 +4278,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4460,7 +4391,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>44</v>
+        <v>215</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -4469,13 +4400,13 @@
         <v>1172</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>224</v>
+        <v>25</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -4484,13 +4415,13 @@
         <v>1172</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4505,13 +4436,13 @@
         <v>4805</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>179</v>
+        <v>221</v>
       </c>
       <c r="H5" s="7">
         <v>6</v>
@@ -4520,13 +4451,13 @@
         <v>6543</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>19</v>
+        <v>222</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="M5" s="7">
         <v>11</v>
@@ -4535,13 +4466,13 @@
         <v>11348</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4556,13 +4487,13 @@
         <v>31963</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="H6" s="7">
         <v>34</v>
@@ -4571,13 +4502,13 @@
         <v>34576</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="M6" s="7">
         <v>64</v>
@@ -4586,13 +4517,13 @@
         <v>66539</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>242</v>
+        <v>189</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4607,13 +4538,13 @@
         <v>1876</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -4628,7 +4559,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="M7" s="7">
         <v>2</v>
@@ -4637,13 +4568,13 @@
         <v>1876</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>246</v>
+        <v>22</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4658,13 +4589,13 @@
         <v>65316</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>250</v>
+        <v>55</v>
       </c>
       <c r="H8" s="7">
         <v>81</v>
@@ -4673,13 +4604,13 @@
         <v>83837</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="M8" s="7">
         <v>139</v>
@@ -4688,13 +4619,13 @@
         <v>149153</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4709,13 +4640,13 @@
         <v>237637</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="H9" s="7">
         <v>294</v>
@@ -4724,13 +4655,13 @@
         <v>315840</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="M9" s="7">
         <v>510</v>
@@ -4739,13 +4670,13 @@
         <v>553477</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4813,13 +4744,13 @@
         <v>1928</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>179</v>
+        <v>257</v>
       </c>
       <c r="H11" s="7">
         <v>4</v>
@@ -4828,13 +4759,13 @@
         <v>4217</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>267</v>
+        <v>176</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>13</v>
+        <v>173</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="M11" s="7">
         <v>6</v>
@@ -4843,13 +4774,13 @@
         <v>6145</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4864,13 +4795,13 @@
         <v>10301</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>83</v>
+        <v>262</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="H12" s="7">
         <v>14</v>
@@ -4879,13 +4810,13 @@
         <v>15095</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="M12" s="7">
         <v>23</v>
@@ -4894,13 +4825,13 @@
         <v>25397</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4915,13 +4846,13 @@
         <v>59656</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="H13" s="7">
         <v>25</v>
@@ -4930,13 +4861,13 @@
         <v>26595</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="M13" s="7">
         <v>81</v>
@@ -4945,13 +4876,13 @@
         <v>86251</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4966,13 +4897,13 @@
         <v>27106</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="H14" s="7">
         <v>17</v>
@@ -4981,13 +4912,13 @@
         <v>18352</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="M14" s="7">
         <v>41</v>
@@ -4996,13 +4927,13 @@
         <v>45459</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5017,13 +4948,13 @@
         <v>48485</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="H15" s="7">
         <v>38</v>
@@ -5032,13 +4963,13 @@
         <v>42309</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="M15" s="7">
         <v>83</v>
@@ -5047,13 +4978,13 @@
         <v>90794</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5068,13 +4999,13 @@
         <v>62406</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="H16" s="7">
         <v>41</v>
@@ -5083,13 +5014,13 @@
         <v>46671</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="M16" s="7">
         <v>96</v>
@@ -5098,13 +5029,13 @@
         <v>109077</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5160,7 +5091,7 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>10</v>
@@ -5178,7 +5109,7 @@
         <v>12</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -5193,7 +5124,7 @@
         <v>12</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -5208,7 +5139,7 @@
         <v>12</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5223,13 +5154,13 @@
         <v>1989</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="H19" s="7">
         <v>4</v>
@@ -5238,13 +5169,13 @@
         <v>4715</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>323</v>
+        <v>139</v>
       </c>
       <c r="M19" s="7">
         <v>5</v>
@@ -5253,13 +5184,13 @@
         <v>6705</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5274,13 +5205,13 @@
         <v>12769</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>93</v>
+        <v>318</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="H20" s="7">
         <v>6</v>
@@ -5289,13 +5220,13 @@
         <v>7085</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>330</v>
+        <v>150</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="M20" s="7">
         <v>18</v>
@@ -5304,13 +5235,13 @@
         <v>19854</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>302</v>
+        <v>322</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5325,13 +5256,13 @@
         <v>17678</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="H21" s="7">
         <v>10</v>
@@ -5340,13 +5271,13 @@
         <v>12472</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="M21" s="7">
         <v>26</v>
@@ -5355,13 +5286,13 @@
         <v>30150</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5376,13 +5307,13 @@
         <v>5268</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="H22" s="7">
         <v>11</v>
@@ -5391,13 +5322,13 @@
         <v>12403</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="M22" s="7">
         <v>15</v>
@@ -5406,13 +5337,13 @@
         <v>17671</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5427,13 +5358,13 @@
         <v>14987</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="H23" s="7">
         <v>5</v>
@@ -5442,13 +5373,13 @@
         <v>5192</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="M23" s="7">
         <v>18</v>
@@ -5457,13 +5388,13 @@
         <v>20178</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5505,7 +5436,7 @@
         <v>82</v>
       </c>
       <c r="N24" s="7">
-        <v>94557</v>
+        <v>94558</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>66</v>
@@ -5531,13 +5462,13 @@
         <v>1928</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="H25" s="7">
         <v>5</v>
@@ -5546,13 +5477,13 @@
         <v>5390</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>82</v>
+        <v>354</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="M25" s="7">
         <v>7</v>
@@ -5567,7 +5498,7 @@
         <v>22</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>365</v>
+        <v>130</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5582,13 +5513,13 @@
         <v>17096</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="H26" s="7">
         <v>24</v>
@@ -5597,13 +5528,13 @@
         <v>26353</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="M26" s="7">
         <v>39</v>
@@ -5612,13 +5543,13 @@
         <v>43449</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5633,13 +5564,13 @@
         <v>104389</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>376</v>
+        <v>186</v>
       </c>
       <c r="H27" s="7">
         <v>65</v>
@@ -5648,13 +5579,13 @@
         <v>68255</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>239</v>
+        <v>366</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="M27" s="7">
         <v>163</v>
@@ -5663,13 +5594,13 @@
         <v>172644</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -5684,13 +5615,13 @@
         <v>46660</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="H28" s="7">
         <v>27</v>
@@ -5699,13 +5630,13 @@
         <v>30824</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="M28" s="7">
         <v>69</v>
@@ -5714,13 +5645,13 @@
         <v>77484</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5735,13 +5666,13 @@
         <v>119069</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>391</v>
+        <v>278</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="H29" s="7">
         <v>130</v>
@@ -5750,13 +5681,13 @@
         <v>138549</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>396</v>
+        <v>385</v>
       </c>
       <c r="M29" s="7">
         <v>237</v>
@@ -5765,13 +5696,13 @@
         <v>257617</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>398</v>
+        <v>387</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>399</v>
+        <v>388</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5786,13 +5717,13 @@
         <v>315030</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>400</v>
+        <v>389</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="H30" s="7">
         <v>340</v>
@@ -5801,13 +5732,13 @@
         <v>367702</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>403</v>
+        <v>392</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>404</v>
+        <v>393</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>405</v>
+        <v>394</v>
       </c>
       <c r="M30" s="7">
         <v>624</v>
@@ -5816,13 +5747,13 @@
         <v>682732</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>407</v>
+        <v>396</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5878,7 +5809,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>
@@ -5897,7 +5828,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8101069C-2CB3-4699-8D85-309ACBF27362}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5797606-2265-4491-B76D-C36429B6646C}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5914,7 +5845,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>409</v>
+        <v>398</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6021,13 +5952,13 @@
         <v>1060</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>410</v>
+        <v>399</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -6036,13 +5967,13 @@
         <v>969</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>413</v>
+        <v>219</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -6051,13 +5982,13 @@
         <v>2028</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>363</v>
+        <v>402</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>414</v>
+        <v>403</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6072,13 +6003,13 @@
         <v>3953</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>415</v>
+        <v>404</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>416</v>
+        <v>220</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>417</v>
+        <v>405</v>
       </c>
       <c r="H5" s="7">
         <v>6</v>
@@ -6087,13 +6018,13 @@
         <v>6028</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>418</v>
+        <v>406</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>419</v>
+        <v>215</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>371</v>
+        <v>407</v>
       </c>
       <c r="M5" s="7">
         <v>10</v>
@@ -6102,13 +6033,13 @@
         <v>9980</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>26</v>
+        <v>408</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>184</v>
+        <v>409</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6123,13 +6054,13 @@
         <v>22083</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>295</v>
+        <v>413</v>
       </c>
       <c r="H6" s="7">
         <v>23</v>
@@ -6138,13 +6069,13 @@
         <v>25870</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="M6" s="7">
         <v>47</v>
@@ -6153,13 +6084,13 @@
         <v>47952</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6174,13 +6105,13 @@
         <v>1049</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -6195,7 +6126,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>178</v>
+        <v>422</v>
       </c>
       <c r="M7" s="7">
         <v>1</v>
@@ -6204,13 +6135,13 @@
         <v>1049</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>69</v>
+        <v>424</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6225,13 +6156,13 @@
         <v>43109</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="H8" s="7">
         <v>45</v>
@@ -6240,13 +6171,13 @@
         <v>50796</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="M8" s="7">
         <v>90</v>
@@ -6255,13 +6186,13 @@
         <v>93905</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6276,13 +6207,13 @@
         <v>182752</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="H9" s="7">
         <v>221</v>
@@ -6291,28 +6222,28 @@
         <v>264079</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="M9" s="7">
         <v>420</v>
       </c>
       <c r="N9" s="7">
-        <v>446831</v>
+        <v>446832</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6354,7 +6285,7 @@
         <v>570</v>
       </c>
       <c r="N10" s="7">
-        <v>601746</v>
+        <v>601747</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>66</v>
@@ -6380,13 +6311,13 @@
         <v>5010</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>451</v>
+        <v>354</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="H11" s="7">
         <v>6</v>
@@ -6395,13 +6326,13 @@
         <v>6459</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>454</v>
+        <v>224</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>455</v>
+        <v>194</v>
       </c>
       <c r="M11" s="7">
         <v>11</v>
@@ -6410,13 +6341,13 @@
         <v>11469</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6431,13 +6362,13 @@
         <v>12750</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>459</v>
+        <v>223</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="H12" s="7">
         <v>11</v>
@@ -6446,13 +6377,13 @@
         <v>11164</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>461</v>
+        <v>451</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>462</v>
+        <v>452</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>463</v>
+        <v>450</v>
       </c>
       <c r="M12" s="7">
         <v>23</v>
@@ -6461,13 +6392,13 @@
         <v>23915</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>464</v>
+        <v>453</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>465</v>
+        <v>367</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6482,13 +6413,13 @@
         <v>24089</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>466</v>
+        <v>454</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>467</v>
+        <v>455</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
       <c r="H13" s="7">
         <v>23</v>
@@ -6497,13 +6428,13 @@
         <v>26284</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>469</v>
+        <v>457</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>470</v>
+        <v>458</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>471</v>
+        <v>239</v>
       </c>
       <c r="M13" s="7">
         <v>45</v>
@@ -6512,13 +6443,13 @@
         <v>50372</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>472</v>
+        <v>459</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>473</v>
+        <v>460</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>474</v>
+        <v>461</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6533,13 +6464,13 @@
         <v>8826</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>475</v>
+        <v>462</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>476</v>
+        <v>169</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>477</v>
+        <v>463</v>
       </c>
       <c r="H14" s="7">
         <v>9</v>
@@ -6548,13 +6479,13 @@
         <v>9503</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>478</v>
+        <v>464</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>199</v>
+        <v>465</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>479</v>
+        <v>466</v>
       </c>
       <c r="M14" s="7">
         <v>17</v>
@@ -6563,13 +6494,13 @@
         <v>18329</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>480</v>
+        <v>467</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>481</v>
+        <v>468</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>482</v>
+        <v>469</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6584,13 +6515,13 @@
         <v>60227</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>483</v>
+        <v>470</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>484</v>
+        <v>471</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>485</v>
+        <v>472</v>
       </c>
       <c r="H15" s="7">
         <v>40</v>
@@ -6599,13 +6530,13 @@
         <v>43595</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>486</v>
+        <v>473</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>353</v>
+        <v>474</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>487</v>
+        <v>475</v>
       </c>
       <c r="M15" s="7">
         <v>95</v>
@@ -6614,13 +6545,13 @@
         <v>103821</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>488</v>
+        <v>476</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>489</v>
+        <v>477</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>490</v>
+        <v>478</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -6635,13 +6566,13 @@
         <v>101797</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>492</v>
+        <v>480</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>493</v>
+        <v>481</v>
       </c>
       <c r="H16" s="7">
         <v>80</v>
@@ -6650,13 +6581,13 @@
         <v>100992</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>494</v>
+        <v>482</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>495</v>
+        <v>483</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>496</v>
+        <v>484</v>
       </c>
       <c r="M16" s="7">
         <v>179</v>
@@ -6665,13 +6596,13 @@
         <v>202789</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>497</v>
+        <v>485</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>498</v>
+        <v>486</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>499</v>
+        <v>487</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6727,7 +6658,7 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>10</v>
@@ -6739,13 +6670,13 @@
         <v>5455</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>500</v>
+        <v>488</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>501</v>
+        <v>489</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>502</v>
+        <v>490</v>
       </c>
       <c r="H18" s="7">
         <v>2</v>
@@ -6754,13 +6685,13 @@
         <v>2335</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>503</v>
+        <v>491</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>504</v>
+        <v>492</v>
       </c>
       <c r="M18" s="7">
         <v>6</v>
@@ -6769,13 +6700,13 @@
         <v>7790</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>505</v>
+        <v>493</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>366</v>
+        <v>494</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>506</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6790,13 +6721,13 @@
         <v>3685</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>507</v>
+        <v>495</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>415</v>
+        <v>404</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>508</v>
+        <v>496</v>
       </c>
       <c r="H19" s="7">
         <v>5</v>
@@ -6805,13 +6736,13 @@
         <v>5490</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>509</v>
+        <v>497</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>510</v>
+        <v>190</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>511</v>
+        <v>498</v>
       </c>
       <c r="M19" s="7">
         <v>8</v>
@@ -6820,13 +6751,13 @@
         <v>9176</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>512</v>
+        <v>499</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>513</v>
+        <v>500</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>514</v>
+        <v>501</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6841,13 +6772,13 @@
         <v>8576</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>515</v>
+        <v>502</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>516</v>
+        <v>503</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>517</v>
+        <v>504</v>
       </c>
       <c r="H20" s="7">
         <v>11</v>
@@ -6856,13 +6787,13 @@
         <v>11631</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>518</v>
+        <v>505</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>519</v>
+        <v>506</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>520</v>
+        <v>507</v>
       </c>
       <c r="M20" s="7">
         <v>20</v>
@@ -6871,13 +6802,13 @@
         <v>20207</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>521</v>
+        <v>508</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>522</v>
+        <v>509</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>523</v>
+        <v>510</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6892,13 +6823,13 @@
         <v>4821</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>290</v>
+        <v>511</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>524</v>
+        <v>512</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>525</v>
+        <v>513</v>
       </c>
       <c r="H21" s="7">
         <v>9</v>
@@ -6907,13 +6838,13 @@
         <v>9593</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>526</v>
+        <v>514</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>527</v>
+        <v>515</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>528</v>
+        <v>516</v>
       </c>
       <c r="M21" s="7">
         <v>13</v>
@@ -6922,13 +6853,13 @@
         <v>14414</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>529</v>
+        <v>517</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>530</v>
+        <v>518</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>531</v>
+        <v>519</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6943,13 +6874,13 @@
         <v>11834</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>305</v>
+        <v>520</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>532</v>
+        <v>521</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>533</v>
+        <v>522</v>
       </c>
       <c r="H22" s="7">
         <v>12</v>
@@ -6958,13 +6889,13 @@
         <v>12401</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>534</v>
+        <v>523</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>535</v>
+        <v>524</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>536</v>
+        <v>525</v>
       </c>
       <c r="M22" s="7">
         <v>22</v>
@@ -6973,13 +6904,13 @@
         <v>24234</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>537</v>
+        <v>526</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>538</v>
+        <v>527</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>539</v>
+        <v>528</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6994,13 +6925,13 @@
         <v>23452</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>540</v>
+        <v>529</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>541</v>
+        <v>530</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>542</v>
+        <v>531</v>
       </c>
       <c r="H23" s="7">
         <v>11</v>
@@ -7009,13 +6940,13 @@
         <v>13685</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>543</v>
+        <v>532</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>544</v>
+        <v>533</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>545</v>
+        <v>534</v>
       </c>
       <c r="M23" s="7">
         <v>32</v>
@@ -7024,13 +6955,13 @@
         <v>37137</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>546</v>
+        <v>535</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>547</v>
+        <v>195</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>548</v>
+        <v>536</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7098,13 +7029,13 @@
         <v>11525</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>549</v>
+        <v>537</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>550</v>
+        <v>538</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>551</v>
+        <v>539</v>
       </c>
       <c r="H25" s="7">
         <v>9</v>
@@ -7113,13 +7044,13 @@
         <v>9763</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>552</v>
+        <v>540</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>553</v>
+        <v>541</v>
       </c>
       <c r="M25" s="7">
         <v>19</v>
@@ -7128,13 +7059,13 @@
         <v>21287</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>554</v>
+        <v>169</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>365</v>
+        <v>17</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>555</v>
+        <v>542</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7149,13 +7080,13 @@
         <v>20388</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>556</v>
+        <v>95</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>450</v>
+        <v>362</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>557</v>
+        <v>543</v>
       </c>
       <c r="H26" s="7">
         <v>22</v>
@@ -7164,13 +7095,13 @@
         <v>22682</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>558</v>
+        <v>544</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>185</v>
+        <v>545</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>559</v>
+        <v>546</v>
       </c>
       <c r="M26" s="7">
         <v>41</v>
@@ -7179,13 +7110,13 @@
         <v>43071</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>560</v>
+        <v>547</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>561</v>
+        <v>356</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>562</v>
+        <v>548</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7200,13 +7131,13 @@
         <v>54747</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>563</v>
+        <v>549</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>564</v>
+        <v>550</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>565</v>
+        <v>551</v>
       </c>
       <c r="H27" s="7">
         <v>57</v>
@@ -7215,13 +7146,13 @@
         <v>63785</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>566</v>
+        <v>552</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>567</v>
+        <v>29</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>568</v>
+        <v>553</v>
       </c>
       <c r="M27" s="7">
         <v>112</v>
@@ -7230,13 +7161,13 @@
         <v>118532</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>569</v>
+        <v>232</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>570</v>
+        <v>554</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>571</v>
+        <v>555</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -7251,13 +7182,13 @@
         <v>14697</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>369</v>
+        <v>556</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>572</v>
+        <v>171</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>573</v>
+        <v>464</v>
       </c>
       <c r="H28" s="7">
         <v>18</v>
@@ -7266,13 +7197,13 @@
         <v>19095</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>574</v>
+        <v>557</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>244</v>
+        <v>558</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>83</v>
+        <v>559</v>
       </c>
       <c r="M28" s="7">
         <v>31</v>
@@ -7281,13 +7212,13 @@
         <v>33792</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>575</v>
+        <v>560</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>73</v>
+        <v>561</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>576</v>
+        <v>562</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7302,13 +7233,13 @@
         <v>115169</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>577</v>
+        <v>563</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>349</v>
+        <v>564</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>578</v>
+        <v>565</v>
       </c>
       <c r="H29" s="7">
         <v>97</v>
@@ -7317,13 +7248,13 @@
         <v>106792</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>579</v>
+        <v>566</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>580</v>
+        <v>567</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>95</v>
+        <v>505</v>
       </c>
       <c r="M29" s="7">
         <v>207</v>
@@ -7332,13 +7263,13 @@
         <v>221961</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>581</v>
+        <v>568</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>582</v>
+        <v>569</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>583</v>
+        <v>570</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7353,13 +7284,13 @@
         <v>308002</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>584</v>
+        <v>571</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>585</v>
+        <v>572</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>586</v>
+        <v>573</v>
       </c>
       <c r="H30" s="7">
         <v>312</v>
@@ -7368,13 +7299,13 @@
         <v>378756</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>587</v>
+        <v>574</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>588</v>
+        <v>575</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>589</v>
+        <v>576</v>
       </c>
       <c r="M30" s="7">
         <v>631</v>
@@ -7383,13 +7314,13 @@
         <v>686758</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>590</v>
+        <v>577</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>591</v>
+        <v>578</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>592</v>
+        <v>579</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7445,7 +7376,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>
@@ -7464,7 +7395,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08153DBC-64F7-4314-9C62-A6B76FB1DCFC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBB34C60-0990-4630-864D-38723AAE1756}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7481,7 +7412,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>593</v>
+        <v>580</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7588,13 +7519,13 @@
         <v>3266</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>594</v>
+        <v>581</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>595</v>
+        <v>582</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>596</v>
+        <v>583</v>
       </c>
       <c r="H4" s="7">
         <v>8</v>
@@ -7603,13 +7534,13 @@
         <v>5196</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>79</v>
+        <v>238</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>597</v>
+        <v>584</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>598</v>
+        <v>585</v>
       </c>
       <c r="M4" s="7">
         <v>11</v>
@@ -7618,13 +7549,13 @@
         <v>8462</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>599</v>
+        <v>403</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>600</v>
+        <v>586</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>601</v>
+        <v>236</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7639,13 +7570,13 @@
         <v>6861</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>602</v>
+        <v>587</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>603</v>
+        <v>588</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>356</v>
+        <v>444</v>
       </c>
       <c r="H5" s="7">
         <v>12</v>
@@ -7654,13 +7585,13 @@
         <v>6836</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>604</v>
+        <v>589</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>605</v>
+        <v>13</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>606</v>
+        <v>590</v>
       </c>
       <c r="M5" s="7">
         <v>19</v>
@@ -7669,13 +7600,13 @@
         <v>13697</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>607</v>
+        <v>591</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>608</v>
+        <v>592</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>609</v>
+        <v>593</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7690,13 +7621,13 @@
         <v>41583</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>610</v>
+        <v>594</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>611</v>
+        <v>595</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>612</v>
+        <v>596</v>
       </c>
       <c r="H6" s="7">
         <v>101</v>
@@ -7705,13 +7636,13 @@
         <v>60264</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>613</v>
+        <v>597</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>614</v>
+        <v>598</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>615</v>
+        <v>599</v>
       </c>
       <c r="M6" s="7">
         <v>150</v>
@@ -7720,13 +7651,13 @@
         <v>101846</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>535</v>
+        <v>600</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>616</v>
+        <v>601</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>617</v>
+        <v>602</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7741,13 +7672,13 @@
         <v>2285</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>618</v>
+        <v>603</v>
       </c>
       <c r="H7" s="7">
         <v>5</v>
@@ -7756,13 +7687,13 @@
         <v>3846</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>619</v>
+        <v>604</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>246</v>
+        <v>42</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>269</v>
+        <v>408</v>
       </c>
       <c r="M7" s="7">
         <v>7</v>
@@ -7771,13 +7702,13 @@
         <v>6131</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>419</v>
+        <v>605</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>620</v>
+        <v>582</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>176</v>
+        <v>606</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7792,13 +7723,13 @@
         <v>54024</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>621</v>
+        <v>607</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>622</v>
+        <v>608</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>623</v>
+        <v>570</v>
       </c>
       <c r="H8" s="7">
         <v>178</v>
@@ -7807,13 +7738,13 @@
         <v>99870</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>624</v>
+        <v>609</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>625</v>
+        <v>610</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>626</v>
+        <v>611</v>
       </c>
       <c r="M8" s="7">
         <v>249</v>
@@ -7822,13 +7753,13 @@
         <v>153894</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>627</v>
+        <v>612</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>628</v>
+        <v>613</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>629</v>
+        <v>186</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7843,13 +7774,13 @@
         <v>191180</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>630</v>
+        <v>614</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>631</v>
+        <v>615</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>632</v>
+        <v>616</v>
       </c>
       <c r="H9" s="7">
         <v>676</v>
@@ -7858,13 +7789,13 @@
         <v>364782</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>633</v>
+        <v>617</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>634</v>
+        <v>618</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>635</v>
+        <v>619</v>
       </c>
       <c r="M9" s="7">
         <v>966</v>
@@ -7873,13 +7804,13 @@
         <v>555962</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>636</v>
+        <v>620</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>637</v>
+        <v>621</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>638</v>
+        <v>622</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -7947,13 +7878,13 @@
         <v>16498</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>639</v>
+        <v>623</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>601</v>
+        <v>624</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>640</v>
+        <v>625</v>
       </c>
       <c r="H11" s="7">
         <v>28</v>
@@ -7962,13 +7893,13 @@
         <v>22965</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>269</v>
+        <v>626</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>641</v>
+        <v>627</v>
       </c>
       <c r="M11" s="7">
         <v>42</v>
@@ -7977,13 +7908,13 @@
         <v>39463</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>510</v>
+        <v>257</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>42</v>
+        <v>628</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>642</v>
+        <v>629</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7998,13 +7929,13 @@
         <v>10542</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>643</v>
+        <v>630</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>644</v>
+        <v>122</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>645</v>
+        <v>631</v>
       </c>
       <c r="H12" s="7">
         <v>41</v>
@@ -8013,13 +7944,13 @@
         <v>30032</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>646</v>
+        <v>632</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>233</v>
+        <v>633</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>647</v>
+        <v>634</v>
       </c>
       <c r="M12" s="7">
         <v>51</v>
@@ -8028,13 +7959,13 @@
         <v>40574</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>648</v>
+        <v>174</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>649</v>
+        <v>635</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>650</v>
+        <v>636</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -8049,13 +7980,13 @@
         <v>167214</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>651</v>
+        <v>637</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>652</v>
+        <v>638</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>118</v>
+        <v>639</v>
       </c>
       <c r="H13" s="7">
         <v>243</v>
@@ -8064,13 +7995,13 @@
         <v>167685</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>653</v>
+        <v>640</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>654</v>
+        <v>641</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>655</v>
+        <v>642</v>
       </c>
       <c r="M13" s="7">
         <v>413</v>
@@ -8079,13 +8010,13 @@
         <v>334899</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>656</v>
+        <v>638</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>657</v>
+        <v>643</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>109</v>
+        <v>644</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -8100,13 +8031,13 @@
         <v>54575</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>658</v>
+        <v>645</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>659</v>
+        <v>372</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>660</v>
+        <v>646</v>
       </c>
       <c r="H14" s="7">
         <v>88</v>
@@ -8115,13 +8046,13 @@
         <v>67658</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>661</v>
+        <v>647</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>662</v>
+        <v>648</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>571</v>
+        <v>649</v>
       </c>
       <c r="M14" s="7">
         <v>138</v>
@@ -8130,13 +8061,13 @@
         <v>122234</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>509</v>
+        <v>497</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>663</v>
+        <v>650</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>664</v>
+        <v>651</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -8151,13 +8082,13 @@
         <v>110220</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>665</v>
+        <v>652</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>666</v>
+        <v>653</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>667</v>
+        <v>654</v>
       </c>
       <c r="H15" s="7">
         <v>161</v>
@@ -8166,13 +8097,13 @@
         <v>99239</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>668</v>
+        <v>655</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>669</v>
+        <v>656</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>670</v>
+        <v>564</v>
       </c>
       <c r="M15" s="7">
         <v>286</v>
@@ -8181,13 +8112,13 @@
         <v>209459</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>671</v>
+        <v>657</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>672</v>
+        <v>658</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>673</v>
+        <v>659</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -8202,13 +8133,13 @@
         <v>180079</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>674</v>
+        <v>337</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>675</v>
+        <v>660</v>
       </c>
       <c r="H16" s="7">
         <v>347</v>
@@ -8217,13 +8148,13 @@
         <v>300592</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>676</v>
+        <v>87</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>677</v>
+        <v>661</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>678</v>
+        <v>662</v>
       </c>
       <c r="M16" s="7">
         <v>606</v>
@@ -8232,13 +8163,13 @@
         <v>480671</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>679</v>
+        <v>663</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>680</v>
+        <v>664</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>681</v>
+        <v>665</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -8294,7 +8225,7 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>10</v>
@@ -8306,13 +8237,13 @@
         <v>11447</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>424</v>
+        <v>666</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>682</v>
+        <v>667</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>683</v>
+        <v>374</v>
       </c>
       <c r="H18" s="7">
         <v>13</v>
@@ -8321,13 +8252,13 @@
         <v>8707</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>684</v>
+        <v>193</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>324</v>
+        <v>518</v>
       </c>
       <c r="M18" s="7">
         <v>24</v>
@@ -8336,13 +8267,13 @@
         <v>20154</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>685</v>
+        <v>668</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>686</v>
+        <v>669</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -8357,13 +8288,13 @@
         <v>4274</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>687</v>
+        <v>236</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>178</v>
+        <v>670</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>688</v>
+        <v>671</v>
       </c>
       <c r="H19" s="7">
         <v>14</v>
@@ -8372,13 +8303,13 @@
         <v>11198</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>689</v>
+        <v>672</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>690</v>
+        <v>583</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>691</v>
+        <v>264</v>
       </c>
       <c r="M19" s="7">
         <v>19</v>
@@ -8387,13 +8318,13 @@
         <v>15472</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>692</v>
+        <v>673</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>693</v>
+        <v>635</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>694</v>
+        <v>674</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -8408,13 +8339,13 @@
         <v>59683</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>695</v>
+        <v>675</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>696</v>
+        <v>200</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>697</v>
+        <v>676</v>
       </c>
       <c r="H20" s="7">
         <v>92</v>
@@ -8423,13 +8354,13 @@
         <v>64632</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>698</v>
+        <v>677</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>699</v>
+        <v>678</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>700</v>
+        <v>679</v>
       </c>
       <c r="M20" s="7">
         <v>157</v>
@@ -8438,13 +8369,13 @@
         <v>124315</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>701</v>
+        <v>680</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>702</v>
+        <v>681</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>703</v>
+        <v>682</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8459,13 +8390,13 @@
         <v>38195</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>704</v>
+        <v>683</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>705</v>
+        <v>684</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>706</v>
+        <v>685</v>
       </c>
       <c r="H21" s="7">
         <v>61</v>
@@ -8474,13 +8405,13 @@
         <v>46761</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>707</v>
+        <v>686</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>708</v>
+        <v>687</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>709</v>
+        <v>688</v>
       </c>
       <c r="M21" s="7">
         <v>98</v>
@@ -8489,13 +8420,13 @@
         <v>84957</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>710</v>
+        <v>689</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>711</v>
+        <v>690</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -8510,13 +8441,13 @@
         <v>29898</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>51</v>
+        <v>691</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>712</v>
+        <v>692</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>713</v>
+        <v>693</v>
       </c>
       <c r="H22" s="7">
         <v>52</v>
@@ -8525,13 +8456,13 @@
         <v>32926</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>714</v>
+        <v>694</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>715</v>
+        <v>695</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>716</v>
+        <v>696</v>
       </c>
       <c r="M22" s="7">
         <v>88</v>
@@ -8540,13 +8471,13 @@
         <v>62824</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>717</v>
+        <v>697</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>718</v>
+        <v>698</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>719</v>
+        <v>699</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8561,13 +8492,13 @@
         <v>81994</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>720</v>
+        <v>700</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>721</v>
+        <v>701</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>722</v>
+        <v>702</v>
       </c>
       <c r="H23" s="7">
         <v>102</v>
@@ -8576,13 +8507,13 @@
         <v>54528</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>723</v>
+        <v>703</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>724</v>
+        <v>704</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>725</v>
+        <v>705</v>
       </c>
       <c r="M23" s="7">
         <v>215</v>
@@ -8591,13 +8522,13 @@
         <v>136522</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>726</v>
+        <v>642</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>727</v>
+        <v>706</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>728</v>
+        <v>707</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8665,13 +8596,13 @@
         <v>31211</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>561</v>
+        <v>452</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>729</v>
+        <v>708</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>730</v>
+        <v>632</v>
       </c>
       <c r="H25" s="7">
         <v>49</v>
@@ -8680,13 +8611,13 @@
         <v>36867</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>731</v>
+        <v>709</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>732</v>
+        <v>710</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>733</v>
+        <v>711</v>
       </c>
       <c r="M25" s="7">
         <v>77</v>
@@ -8695,13 +8626,13 @@
         <v>68079</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>734</v>
+        <v>512</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>430</v>
+        <v>712</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>692</v>
+        <v>713</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8716,13 +8647,13 @@
         <v>21677</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>735</v>
+        <v>714</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>736</v>
+        <v>589</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>453</v>
+        <v>376</v>
       </c>
       <c r="H26" s="7">
         <v>67</v>
@@ -8731,13 +8662,13 @@
         <v>48066</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>737</v>
+        <v>715</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>738</v>
+        <v>443</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>739</v>
+        <v>716</v>
       </c>
       <c r="M26" s="7">
         <v>89</v>
@@ -8746,13 +8677,13 @@
         <v>69743</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>740</v>
+        <v>717</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>199</v>
+        <v>628</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>741</v>
+        <v>673</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8767,13 +8698,13 @@
         <v>268479</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>742</v>
+        <v>718</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>743</v>
+        <v>116</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>744</v>
+        <v>719</v>
       </c>
       <c r="H27" s="7">
         <v>436</v>
@@ -8782,13 +8713,13 @@
         <v>292581</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>745</v>
+        <v>720</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>252</v>
+        <v>721</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>746</v>
+        <v>722</v>
       </c>
       <c r="M27" s="7">
         <v>720</v>
@@ -8797,13 +8728,13 @@
         <v>561060</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>747</v>
+        <v>723</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>748</v>
+        <v>724</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>749</v>
+        <v>725</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -8818,13 +8749,13 @@
         <v>95055</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>750</v>
+        <v>726</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>751</v>
+        <v>727</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>752</v>
+        <v>728</v>
       </c>
       <c r="H28" s="7">
         <v>154</v>
@@ -8833,13 +8764,13 @@
         <v>118266</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>567</v>
+        <v>729</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>753</v>
+        <v>730</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>754</v>
+        <v>731</v>
       </c>
       <c r="M28" s="7">
         <v>243</v>
@@ -8848,13 +8779,13 @@
         <v>213321</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>330</v>
+        <v>732</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>755</v>
+        <v>733</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8869,13 +8800,13 @@
         <v>194142</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>756</v>
+        <v>564</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>757</v>
+        <v>734</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>397</v>
+        <v>735</v>
       </c>
       <c r="H29" s="7">
         <v>391</v>
@@ -8884,13 +8815,13 @@
         <v>232035</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>758</v>
+        <v>736</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>759</v>
+        <v>737</v>
       </c>
       <c r="M29" s="7">
         <v>623</v>
@@ -8899,13 +8830,13 @@
         <v>426177</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>760</v>
+        <v>738</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>761</v>
+        <v>739</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8920,13 +8851,13 @@
         <v>453253</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>762</v>
+        <v>740</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>763</v>
+        <v>741</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>764</v>
+        <v>742</v>
       </c>
       <c r="H30" s="7">
         <v>1125</v>
@@ -8935,13 +8866,13 @@
         <v>719902</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>765</v>
+        <v>743</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>766</v>
+        <v>744</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>767</v>
+        <v>745</v>
       </c>
       <c r="M30" s="7">
         <v>1787</v>
@@ -8950,13 +8881,13 @@
         <v>1173156</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>768</v>
+        <v>746</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>769</v>
+        <v>747</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>770</v>
+        <v>391</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -9012,7 +8943,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P37AS1-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P37AS1-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E2B28E95-F0B3-4C8C-B859-41F45A645B03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8FFD2B9B-2F9F-4D78-BADC-10299FFB8E8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B7526324-5B83-43DF-B754-222D0CC3C56B}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{8A5C01C1-16C8-4A87-95B9-33979FA5DE4B}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1216" uniqueCount="748">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1216" uniqueCount="752">
   <si>
     <t>Población según la persona que le indicó que se vacunase de la gripe / respuesta 1 en 2007 (Tasa respuesta: 14,84%)</t>
   </si>
@@ -1784,505 +1784,517 @@
     <t>Población según la persona que le indicó que se vacunase de la gripe / respuesta 1 en 2023 (Tasa respuesta: 40,6%)</t>
   </si>
   <si>
-    <t>1,09%</t>
-  </si>
-  <si>
     <t>0,31%</t>
   </si>
   <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>18,01%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>22,18%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>64,07%</t>
+  </si>
+  <si>
+    <t>59,14%</t>
+  </si>
+  <si>
+    <t>68,9%</t>
+  </si>
+  <si>
+    <t>67,78%</t>
+  </si>
+  <si>
+    <t>64,57%</t>
+  </si>
+  <si>
+    <t>71,15%</t>
+  </si>
+  <si>
+    <t>66,42%</t>
+  </si>
+  <si>
+    <t>68,88%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
     <t>3,04%</t>
   </si>
   <si>
-    <t>0,43%</t>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>30,72%</t>
+  </si>
+  <si>
+    <t>26,99%</t>
+  </si>
+  <si>
+    <t>35,09%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>30,44%</t>
+  </si>
+  <si>
+    <t>24,84%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>23,7%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>33,36%</t>
+  </si>
+  <si>
+    <t>29,56%</t>
+  </si>
+  <si>
+    <t>37,3%</t>
+  </si>
+  <si>
+    <t>51,55%</t>
+  </si>
+  <si>
+    <t>31,37%</t>
+  </si>
+  <si>
+    <t>77,41%</t>
+  </si>
+  <si>
+    <t>44,13%</t>
+  </si>
+  <si>
+    <t>32,24%</t>
+  </si>
+  <si>
+    <t>67,14%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>26,66%</t>
+  </si>
+  <si>
+    <t>32,94%</t>
+  </si>
+  <si>
+    <t>29,07%</t>
+  </si>
+  <si>
+    <t>24,09%</t>
+  </si>
+  <si>
+    <t>34,31%</t>
+  </si>
+  <si>
+    <t>27,83%</t>
+  </si>
+  <si>
+    <t>24,03%</t>
+  </si>
+  <si>
+    <t>32,03%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>22,14%</t>
+  </si>
+  <si>
+    <t>27,69%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>23,45%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>36,09%</t>
+  </si>
+  <si>
+    <t>30,43%</t>
+  </si>
+  <si>
+    <t>42,04%</t>
+  </si>
+  <si>
+    <t>24,66%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>28,95%</t>
+  </si>
+  <si>
+    <t>30,53%</t>
+  </si>
+  <si>
+    <t>26,76%</t>
+  </si>
+  <si>
+    <t>34,42%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
   </si>
   <si>
     <t>1,86%</t>
   </si>
   <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
   </si>
   <si>
     <t>1,26%</t>
   </si>
   <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>18,32%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>63,9%</t>
-  </si>
-  <si>
-    <t>58,94%</t>
-  </si>
-  <si>
-    <t>68,67%</t>
-  </si>
-  <si>
-    <t>67,45%</t>
-  </si>
-  <si>
-    <t>64,25%</t>
-  </si>
-  <si>
-    <t>70,79%</t>
-  </si>
-  <si>
-    <t>66,19%</t>
-  </si>
-  <si>
-    <t>63,61%</t>
-  </si>
-  <si>
-    <t>68,61%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>31,02%</t>
-  </si>
-  <si>
-    <t>27,29%</t>
-  </si>
-  <si>
-    <t>35,28%</t>
-  </si>
-  <si>
-    <t>24,37%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>30,73%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>30,81%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>17,15%</t>
-  </si>
-  <si>
-    <t>23,67%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>37,23%</t>
-  </si>
-  <si>
-    <t>31,46%</t>
-  </si>
-  <si>
-    <t>65,96%</t>
-  </si>
-  <si>
-    <t>39,16%</t>
-  </si>
-  <si>
-    <t>32,36%</t>
-  </si>
-  <si>
-    <t>56,39%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>26,47%</t>
-  </si>
-  <si>
-    <t>32,68%</t>
-  </si>
-  <si>
-    <t>29,55%</t>
-  </si>
-  <si>
-    <t>24,51%</t>
-  </si>
-  <si>
-    <t>34,95%</t>
-  </si>
-  <si>
-    <t>27,98%</t>
-  </si>
-  <si>
-    <t>24,18%</t>
-  </si>
-  <si>
-    <t>31,91%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>22,16%</t>
-  </si>
-  <si>
-    <t>21,38%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>26,51%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>25,1%</t>
+  </si>
+  <si>
+    <t>22,44%</t>
+  </si>
+  <si>
+    <t>27,66%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>21,29%</t>
+  </si>
+  <si>
+    <t>23,79%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
   </si>
   <si>
     <t>11,29%</t>
   </si>
   <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>36,36%</t>
-  </si>
-  <si>
-    <t>30,75%</t>
-  </si>
-  <si>
-    <t>42,38%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>20,33%</t>
-  </si>
-  <si>
-    <t>29,26%</t>
-  </si>
-  <si>
-    <t>26,97%</t>
-  </si>
-  <si>
-    <t>34,6%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>25,24%</t>
-  </si>
-  <si>
-    <t>27,86%</t>
-  </si>
-  <si>
-    <t>20,21%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>22,63%</t>
-  </si>
-  <si>
-    <t>22,34%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>24,17%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>18,51%</t>
-  </si>
-  <si>
-    <t>42,61%</t>
-  </si>
-  <si>
-    <t>39,89%</t>
-  </si>
-  <si>
-    <t>45,44%</t>
-  </si>
-  <si>
-    <t>49,73%</t>
-  </si>
-  <si>
-    <t>44,72%</t>
-  </si>
-  <si>
-    <t>62,2%</t>
-  </si>
-  <si>
-    <t>46,71%</t>
-  </si>
-  <si>
-    <t>43,75%</t>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>42,58%</t>
+  </si>
+  <si>
+    <t>39,83%</t>
+  </si>
+  <si>
+    <t>45,43%</t>
+  </si>
+  <si>
+    <t>53,29%</t>
+  </si>
+  <si>
+    <t>44,6%</t>
+  </si>
+  <si>
+    <t>71,11%</t>
+  </si>
+  <si>
+    <t>48,87%</t>
+  </si>
+  <si>
+    <t>43,74%</t>
+  </si>
+  <si>
+    <t>63,19%</t>
   </si>
 </sst>
 </file>
@@ -2694,7 +2706,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8C9C67D-6015-42C1-AD51-75489C7211DA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F6F43AB-B9CC-43AC-848D-CB123AAA0890}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -4261,7 +4273,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4D84987-3EE6-440E-B799-DF07FFD227B6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{419D77BB-CA11-471E-8816-43BE5F36C953}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5436,7 +5448,7 @@
         <v>82</v>
       </c>
       <c r="N24" s="7">
-        <v>94558</v>
+        <v>94557</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>66</v>
@@ -5828,7 +5840,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5797606-2265-4491-B76D-C36429B6646C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AFF00B1-9603-4807-92B8-C6AA412759F8}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6234,7 +6246,7 @@
         <v>420</v>
       </c>
       <c r="N9" s="7">
-        <v>446832</v>
+        <v>446831</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>440</v>
@@ -6285,7 +6297,7 @@
         <v>570</v>
       </c>
       <c r="N10" s="7">
-        <v>601747</v>
+        <v>601746</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>66</v>
@@ -7395,7 +7407,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBB34C60-0990-4630-864D-38723AAE1756}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05AA4324-AECB-4031-ADEF-0DE1EEC01447}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7516,46 +7528,46 @@
         <v>3</v>
       </c>
       <c r="D4" s="7">
-        <v>3266</v>
+        <v>3126</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>581</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>582</v>
-      </c>
       <c r="G4" s="7" t="s">
-        <v>583</v>
+        <v>68</v>
       </c>
       <c r="H4" s="7">
         <v>8</v>
       </c>
       <c r="I4" s="7">
-        <v>5196</v>
+        <v>4819</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>238</v>
+        <v>582</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>585</v>
+        <v>355</v>
       </c>
       <c r="M4" s="7">
         <v>11</v>
       </c>
       <c r="N4" s="7">
-        <v>8462</v>
+        <v>7945</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>403</v>
+        <v>584</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>236</v>
+        <v>400</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7567,46 +7579,46 @@
         <v>7</v>
       </c>
       <c r="D5" s="7">
-        <v>6861</v>
+        <v>6101</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>586</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>587</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>588</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>444</v>
       </c>
       <c r="H5" s="7">
         <v>12</v>
       </c>
       <c r="I5" s="7">
-        <v>6836</v>
+        <v>6179</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>588</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>589</v>
       </c>
-      <c r="K5" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="L5" s="7" t="s">
-        <v>590</v>
+        <v>537</v>
       </c>
       <c r="M5" s="7">
         <v>19</v>
       </c>
       <c r="N5" s="7">
-        <v>13697</v>
+        <v>12279</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>591</v>
+        <v>26</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>593</v>
+        <v>313</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7618,46 +7630,46 @@
         <v>49</v>
       </c>
       <c r="D6" s="7">
-        <v>41583</v>
+        <v>38657</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="H6" s="7">
         <v>101</v>
       </c>
       <c r="I6" s="7">
-        <v>60264</v>
+        <v>53583</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="M6" s="7">
         <v>150</v>
       </c>
       <c r="N6" s="7">
-        <v>101846</v>
+        <v>92240</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>601</v>
+        <v>34</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7669,46 +7681,46 @@
         <v>2</v>
       </c>
       <c r="D7" s="7">
-        <v>2285</v>
+        <v>2329</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="H7" s="7">
         <v>5</v>
       </c>
       <c r="I7" s="7">
-        <v>3846</v>
+        <v>3320</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>604</v>
+        <v>589</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>42</v>
+        <v>600</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>408</v>
+        <v>216</v>
       </c>
       <c r="M7" s="7">
         <v>7</v>
       </c>
       <c r="N7" s="7">
-        <v>6131</v>
+        <v>5648</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>605</v>
+        <v>24</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7720,46 +7732,46 @@
         <v>71</v>
       </c>
       <c r="D8" s="7">
-        <v>54024</v>
+        <v>50474</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>570</v>
+        <v>604</v>
       </c>
       <c r="H8" s="7">
         <v>178</v>
       </c>
       <c r="I8" s="7">
-        <v>99870</v>
+        <v>88925</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="M8" s="7">
         <v>249</v>
       </c>
       <c r="N8" s="7">
-        <v>153894</v>
+        <v>139399</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>186</v>
+        <v>610</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7771,46 +7783,46 @@
         <v>290</v>
       </c>
       <c r="D9" s="7">
-        <v>191180</v>
+        <v>179546</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="H9" s="7">
         <v>676</v>
       </c>
       <c r="I9" s="7">
-        <v>364782</v>
+        <v>329907</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="M9" s="7">
         <v>966</v>
       </c>
       <c r="N9" s="7">
-        <v>555962</v>
+        <v>509453</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>621</v>
+        <v>579</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -7822,7 +7834,7 @@
         <v>422</v>
       </c>
       <c r="D10" s="7">
-        <v>299199</v>
+        <v>280232</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>66</v>
@@ -7837,7 +7849,7 @@
         <v>980</v>
       </c>
       <c r="I10" s="7">
-        <v>540793</v>
+        <v>486733</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>66</v>
@@ -7852,7 +7864,7 @@
         <v>1402</v>
       </c>
       <c r="N10" s="7">
-        <v>839992</v>
+        <v>766966</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>66</v>
@@ -7875,46 +7887,46 @@
         <v>14</v>
       </c>
       <c r="D11" s="7">
-        <v>16498</v>
+        <v>15618</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>624</v>
+        <v>406</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="H11" s="7">
         <v>28</v>
       </c>
       <c r="I11" s="7">
-        <v>22965</v>
+        <v>21944</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>190</v>
+        <v>560</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>627</v>
+        <v>548</v>
       </c>
       <c r="M11" s="7">
         <v>42</v>
       </c>
       <c r="N11" s="7">
-        <v>39463</v>
+        <v>37562</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>257</v>
+        <v>622</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>628</v>
+        <v>172</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7926,46 +7938,46 @@
         <v>10</v>
       </c>
       <c r="D12" s="7">
-        <v>10542</v>
+        <v>10597</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>630</v>
+        <v>315</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>122</v>
+        <v>590</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>631</v>
+        <v>623</v>
       </c>
       <c r="H12" s="7">
         <v>41</v>
       </c>
       <c r="I12" s="7">
-        <v>30032</v>
+        <v>27329</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>632</v>
+        <v>624</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>633</v>
+        <v>625</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>634</v>
+        <v>626</v>
       </c>
       <c r="M12" s="7">
         <v>51</v>
       </c>
       <c r="N12" s="7">
-        <v>40574</v>
+        <v>37926</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>174</v>
+        <v>627</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>635</v>
+        <v>172</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>636</v>
+        <v>628</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7977,46 +7989,46 @@
         <v>170</v>
       </c>
       <c r="D13" s="7">
-        <v>167214</v>
+        <v>154692</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>637</v>
+        <v>629</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>638</v>
+        <v>630</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>639</v>
+        <v>631</v>
       </c>
       <c r="H13" s="7">
         <v>243</v>
       </c>
       <c r="I13" s="7">
-        <v>167685</v>
+        <v>152132</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>640</v>
+        <v>632</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>641</v>
+        <v>633</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>642</v>
+        <v>634</v>
       </c>
       <c r="M13" s="7">
         <v>413</v>
       </c>
       <c r="N13" s="7">
-        <v>334899</v>
+        <v>306824</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>643</v>
+        <v>636</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>644</v>
+        <v>301</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -8028,46 +8040,46 @@
         <v>50</v>
       </c>
       <c r="D14" s="7">
-        <v>54575</v>
+        <v>52008</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>645</v>
+        <v>637</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>372</v>
+        <v>638</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>646</v>
+        <v>350</v>
       </c>
       <c r="H14" s="7">
         <v>88</v>
       </c>
       <c r="I14" s="7">
-        <v>67658</v>
+        <v>62952</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>647</v>
+        <v>639</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>648</v>
+        <v>405</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>649</v>
+        <v>640</v>
       </c>
       <c r="M14" s="7">
         <v>138</v>
       </c>
       <c r="N14" s="7">
-        <v>122234</v>
+        <v>114960</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>497</v>
+        <v>641</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>650</v>
+        <v>464</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>651</v>
+        <v>642</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -8079,46 +8091,46 @@
         <v>125</v>
       </c>
       <c r="D15" s="7">
-        <v>110220</v>
+        <v>102590</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>652</v>
+        <v>643</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>653</v>
+        <v>644</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>654</v>
+        <v>645</v>
       </c>
       <c r="H15" s="7">
         <v>161</v>
       </c>
       <c r="I15" s="7">
-        <v>99239</v>
+        <v>90236</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>655</v>
+        <v>646</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>656</v>
+        <v>647</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>564</v>
+        <v>648</v>
       </c>
       <c r="M15" s="7">
         <v>286</v>
       </c>
       <c r="N15" s="7">
-        <v>209459</v>
+        <v>192826</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>657</v>
+        <v>431</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>658</v>
+        <v>649</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>659</v>
+        <v>650</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -8130,46 +8142,46 @@
         <v>259</v>
       </c>
       <c r="D16" s="7">
-        <v>180079</v>
+        <v>167968</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>85</v>
+        <v>651</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>337</v>
+        <v>652</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>660</v>
+        <v>653</v>
       </c>
       <c r="H16" s="7">
         <v>347</v>
       </c>
       <c r="I16" s="7">
-        <v>300592</v>
+        <v>377207</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>87</v>
+        <v>654</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="M16" s="7">
         <v>606</v>
       </c>
       <c r="N16" s="7">
-        <v>480671</v>
+        <v>545175</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -8181,7 +8193,7 @@
         <v>628</v>
       </c>
       <c r="D17" s="7">
-        <v>539128</v>
+        <v>503473</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>66</v>
@@ -8196,7 +8208,7 @@
         <v>908</v>
       </c>
       <c r="I17" s="7">
-        <v>688172</v>
+        <v>731800</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>66</v>
@@ -8211,7 +8223,7 @@
         <v>1536</v>
       </c>
       <c r="N17" s="7">
-        <v>1227300</v>
+        <v>1235273</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>66</v>
@@ -8234,46 +8246,46 @@
         <v>11</v>
       </c>
       <c r="D18" s="7">
-        <v>11447</v>
+        <v>11554</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>666</v>
+        <v>660</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>374</v>
+        <v>662</v>
       </c>
       <c r="H18" s="7">
         <v>13</v>
       </c>
       <c r="I18" s="7">
-        <v>8707</v>
+        <v>8066</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>193</v>
+        <v>663</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>43</v>
+        <v>664</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>518</v>
+        <v>665</v>
       </c>
       <c r="M18" s="7">
         <v>24</v>
       </c>
       <c r="N18" s="7">
-        <v>20154</v>
+        <v>19621</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>129</v>
+        <v>666</v>
       </c>
       <c r="P18" s="7" t="s">
+        <v>667</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>668</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>669</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -8285,46 +8297,46 @@
         <v>5</v>
       </c>
       <c r="D19" s="7">
-        <v>4274</v>
+        <v>4019</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>236</v>
+        <v>169</v>
       </c>
       <c r="F19" s="7" t="s">
+        <v>669</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>670</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>671</v>
       </c>
       <c r="H19" s="7">
         <v>14</v>
       </c>
       <c r="I19" s="7">
-        <v>11198</v>
+        <v>10292</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>671</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>672</v>
       </c>
-      <c r="K19" s="7" t="s">
-        <v>583</v>
-      </c>
       <c r="L19" s="7" t="s">
-        <v>264</v>
+        <v>673</v>
       </c>
       <c r="M19" s="7">
         <v>19</v>
       </c>
       <c r="N19" s="7">
-        <v>15472</v>
+        <v>14311</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>635</v>
+        <v>20</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -8336,46 +8348,46 @@
         <v>65</v>
       </c>
       <c r="D20" s="7">
-        <v>59683</v>
+        <v>56717</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>200</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="H20" s="7">
         <v>92</v>
       </c>
       <c r="I20" s="7">
-        <v>64632</v>
+        <v>58631</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="M20" s="7">
         <v>157</v>
       </c>
       <c r="N20" s="7">
-        <v>124315</v>
+        <v>115348</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8387,28 +8399,28 @@
         <v>37</v>
       </c>
       <c r="D21" s="7">
-        <v>38195</v>
+        <v>35746</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="H21" s="7">
         <v>61</v>
       </c>
       <c r="I21" s="7">
-        <v>46761</v>
+        <v>44657</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>687</v>
+        <v>644</v>
       </c>
       <c r="L21" s="7" t="s">
         <v>688</v>
@@ -8417,13 +8429,13 @@
         <v>98</v>
       </c>
       <c r="N21" s="7">
-        <v>84957</v>
+        <v>80402</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>239</v>
+        <v>689</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>689</v>
+        <v>474</v>
       </c>
       <c r="Q21" s="7" t="s">
         <v>690</v>
@@ -8438,7 +8450,7 @@
         <v>36</v>
       </c>
       <c r="D22" s="7">
-        <v>29898</v>
+        <v>27930</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>691</v>
@@ -8453,7 +8465,7 @@
         <v>52</v>
       </c>
       <c r="I22" s="7">
-        <v>32926</v>
+        <v>30301</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>694</v>
@@ -8468,7 +8480,7 @@
         <v>88</v>
       </c>
       <c r="N22" s="7">
-        <v>62824</v>
+        <v>58231</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>697</v>
@@ -8489,7 +8501,7 @@
         <v>113</v>
       </c>
       <c r="D23" s="7">
-        <v>81994</v>
+        <v>76771</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>700</v>
@@ -8504,7 +8516,7 @@
         <v>102</v>
       </c>
       <c r="I23" s="7">
-        <v>54528</v>
+        <v>49732</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>703</v>
@@ -8519,16 +8531,16 @@
         <v>215</v>
       </c>
       <c r="N23" s="7">
-        <v>136522</v>
+        <v>126504</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>642</v>
+        <v>706</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8540,7 +8552,7 @@
         <v>267</v>
       </c>
       <c r="D24" s="7">
-        <v>225491</v>
+        <v>212737</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>66</v>
@@ -8555,7 +8567,7 @@
         <v>334</v>
       </c>
       <c r="I24" s="7">
-        <v>218753</v>
+        <v>201680</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>66</v>
@@ -8570,7 +8582,7 @@
         <v>601</v>
       </c>
       <c r="N24" s="7">
-        <v>444244</v>
+        <v>414417</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>66</v>
@@ -8593,40 +8605,40 @@
         <v>28</v>
       </c>
       <c r="D25" s="7">
-        <v>31211</v>
+        <v>30299</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>452</v>
+        <v>622</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>708</v>
+        <v>421</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>632</v>
+        <v>709</v>
       </c>
       <c r="H25" s="7">
         <v>49</v>
       </c>
       <c r="I25" s="7">
-        <v>36867</v>
+        <v>34830</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>709</v>
+        <v>362</v>
       </c>
       <c r="K25" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>710</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>711</v>
       </c>
       <c r="M25" s="7">
         <v>77</v>
       </c>
       <c r="N25" s="7">
-        <v>68079</v>
+        <v>65128</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>512</v>
+        <v>711</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>712</v>
@@ -8644,46 +8656,46 @@
         <v>22</v>
       </c>
       <c r="D26" s="7">
-        <v>21677</v>
+        <v>20716</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>714</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>589</v>
+        <v>715</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>376</v>
+        <v>261</v>
       </c>
       <c r="H26" s="7">
         <v>67</v>
       </c>
       <c r="I26" s="7">
-        <v>48066</v>
+        <v>43800</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>443</v>
+        <v>717</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="M26" s="7">
         <v>89</v>
       </c>
       <c r="N26" s="7">
-        <v>69743</v>
+        <v>64516</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>628</v>
+        <v>720</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>673</v>
+        <v>721</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8695,46 +8707,46 @@
         <v>284</v>
       </c>
       <c r="D27" s="7">
-        <v>268479</v>
+        <v>250066</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>718</v>
+        <v>722</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>116</v>
+        <v>723</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>719</v>
+        <v>724</v>
       </c>
       <c r="H27" s="7">
         <v>436</v>
       </c>
       <c r="I27" s="7">
-        <v>292581</v>
+        <v>264346</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>720</v>
+        <v>433</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>721</v>
+        <v>725</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>722</v>
+        <v>246</v>
       </c>
       <c r="M27" s="7">
         <v>720</v>
       </c>
       <c r="N27" s="7">
-        <v>561060</v>
+        <v>514412</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>723</v>
+        <v>726</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>724</v>
+        <v>242</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -8746,46 +8758,46 @@
         <v>89</v>
       </c>
       <c r="D28" s="7">
-        <v>95055</v>
+        <v>90082</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="H28" s="7">
         <v>154</v>
       </c>
       <c r="I28" s="7">
-        <v>118266</v>
+        <v>110929</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="M28" s="7">
         <v>243</v>
       </c>
       <c r="N28" s="7">
-        <v>213321</v>
+        <v>201011</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>233</v>
+        <v>734</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>732</v>
+        <v>735</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>733</v>
+        <v>736</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8797,46 +8809,46 @@
         <v>232</v>
       </c>
       <c r="D29" s="7">
-        <v>194142</v>
+        <v>180994</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>564</v>
+        <v>737</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>734</v>
+        <v>738</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>735</v>
+        <v>200</v>
       </c>
       <c r="H29" s="7">
         <v>391</v>
       </c>
       <c r="I29" s="7">
-        <v>232035</v>
+        <v>209462</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>183</v>
+        <v>739</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>736</v>
+        <v>287</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>737</v>
+        <v>566</v>
       </c>
       <c r="M29" s="7">
         <v>623</v>
       </c>
       <c r="N29" s="7">
-        <v>426177</v>
+        <v>390456</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>425</v>
+        <v>740</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>738</v>
+        <v>741</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>739</v>
+        <v>742</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8848,46 +8860,46 @@
         <v>662</v>
       </c>
       <c r="D30" s="7">
-        <v>453253</v>
+        <v>424286</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>740</v>
+        <v>743</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>741</v>
+        <v>744</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>742</v>
+        <v>745</v>
       </c>
       <c r="H30" s="7">
         <v>1125</v>
       </c>
       <c r="I30" s="7">
-        <v>719902</v>
+        <v>756847</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>743</v>
+        <v>746</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>744</v>
+        <v>747</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>745</v>
+        <v>748</v>
       </c>
       <c r="M30" s="7">
         <v>1787</v>
       </c>
       <c r="N30" s="7">
-        <v>1173156</v>
+        <v>1181132</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>746</v>
+        <v>749</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>747</v>
+        <v>750</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>391</v>
+        <v>751</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8899,7 +8911,7 @@
         <v>1317</v>
       </c>
       <c r="D31" s="7">
-        <v>1063818</v>
+        <v>996443</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>66</v>
@@ -8914,7 +8926,7 @@
         <v>2222</v>
       </c>
       <c r="I31" s="7">
-        <v>1447718</v>
+        <v>1420213</v>
       </c>
       <c r="J31" s="7" t="s">
         <v>66</v>
@@ -8929,7 +8941,7 @@
         <v>3539</v>
       </c>
       <c r="N31" s="7">
-        <v>2511536</v>
+        <v>2416656</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>66</v>
